--- a/on_trucks/Processed_Stand_Alone/53_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/53_455-55R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>108</v>
       </c>
       <c r="E2">
-        <v>0.03375758466701091</v>
+        <v>0.0008541095380973762</v>
       </c>
       <c r="F2">
         <v>0.5164706128646755</v>
       </c>
       <c r="G2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>134</v>
       </c>
       <c r="E3">
-        <v>0.01600281043627847</v>
+        <v>0.0152680410216854</v>
       </c>
       <c r="F3">
         <v>0.515113603354218</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>134</v>
       </c>
       <c r="E4">
-        <v>0.008950012261248294</v>
+        <v>0.008878275072970468</v>
       </c>
       <c r="F4">
         <v>0.508994647639599</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>53</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>150</v>
       </c>
       <c r="E2">
-        <v>0.03375758466701091</v>
+        <v>0.0008541095380973762</v>
       </c>
       <c r="F2">
         <v>0.7000090949213543</v>
       </c>
       <c r="G2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>147</v>
       </c>
       <c r="E3">
-        <v>0.01600281043627847</v>
+        <v>0.0152680410216854</v>
       </c>
       <c r="F3">
         <v>0.7050600598411125</v>
       </c>
       <c r="G3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>147</v>
       </c>
       <c r="E4">
-        <v>0.008950012261248294</v>
+        <v>0.008878275072970468</v>
       </c>
       <c r="F4">
         <v>0.7053355642092575</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>53</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>162</v>
       </c>
       <c r="E2">
-        <v>0.03375758466701091</v>
+        <v>0.0008541095380973762</v>
       </c>
       <c r="F2">
         <v>0.803496779452002</v>
       </c>
       <c r="G2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>152</v>
       </c>
       <c r="E3">
-        <v>0.01600281043627847</v>
+        <v>0.0152680410216854</v>
       </c>
       <c r="F3">
         <v>0.8034003276523095</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>152</v>
       </c>
       <c r="E4">
-        <v>0.008950012261248294</v>
+        <v>0.008878275072970468</v>
       </c>
       <c r="F4">
         <v>0.801762451461859</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <v>53</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>180</v>
       </c>
       <c r="E2">
-        <v>0.03375758466701091</v>
+        <v>0.0008541095380973762</v>
       </c>
       <c r="F2">
         <v>0.9075413790437573</v>
       </c>
       <c r="G2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>167</v>
       </c>
       <c r="E3">
-        <v>0.01600281043627847</v>
+        <v>0.0152680410216854</v>
       </c>
       <c r="F3">
         <v>0.9032002480590688</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>168</v>
       </c>
       <c r="E4">
-        <v>0.008950012261248294</v>
+        <v>0.008878275072970468</v>
       </c>
       <c r="F4">
         <v>0.9005014747762617</v>
       </c>
       <c r="G4">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H4">
         <v>53</v>

--- a/on_trucks/Processed_Stand_Alone/53_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/53_455-55R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>9.475163325091498E-07</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3.607918323787162E-06</v>
+        <v>1.499599866277881E-06</v>
       </c>
       <c r="D2">
-        <v>6.930735937792558E-06</v>
+        <v>4.823763050160955E-06</v>
       </c>
       <c r="E2">
-        <v>1.142959739214785E-05</v>
+        <v>9.324446311536684E-06</v>
       </c>
       <c r="F2">
-        <v>3.223552310599619E-07</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2.108925472356932E-06</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.544389852987795E-06</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3.335312514434095E-06</v>
+        <v>1.226883665621964E-06</v>
       </c>
       <c r="J2">
-        <v>4.51791915500916E-06</v>
+        <v>2.409969200935635E-06</v>
       </c>
       <c r="K2">
-        <v>1.6692666572723E-05</v>
+        <v>1.458964676387459E-05</v>
       </c>
       <c r="L2">
-        <v>2.886339199029885E-05</v>
+        <v>2.676530069797279E-05</v>
       </c>
       <c r="M2">
-        <v>2.180156774800867E-05</v>
+        <v>1.97006167808266E-05</v>
       </c>
       <c r="N2">
-        <v>2.083443471482648E-05</v>
+        <v>1.873309210861141E-05</v>
       </c>
       <c r="O2">
-        <v>2.886339199029885E-05</v>
+        <v>2.676530069797279E-05</v>
       </c>
       <c r="P2">
-        <v>2.108925472356932E-06</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.344474546128729E-05</v>
+        <v>1.134041041178462E-05</v>
       </c>
       <c r="R2">
-        <v>4.51791915500916E-06</v>
+        <v>2.409969200935635E-06</v>
       </c>
       <c r="S2">
-        <v>1.295033144432402E-06</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2.394787682164823E-05</v>
+        <v>2.184779499902151E-05</v>
       </c>
       <c r="U2">
-        <v>4.759166563286324E-05</v>
+        <v>4.55011583261186E-05</v>
       </c>
       <c r="V2">
-        <v>8.552235793425987E-05</v>
+        <v>8.344721060297254E-05</v>
       </c>
       <c r="W2">
-        <v>4.98896717117075E-05</v>
+        <v>4.780009497898696E-05</v>
       </c>
       <c r="X2">
-        <v>5.939264203775305E-05</v>
+        <v>5.730691351823726E-05</v>
       </c>
       <c r="Y2">
-        <v>3.166125808629324E-05</v>
+        <v>2.956429978553573E-05</v>
       </c>
       <c r="Z2">
-        <v>1.632788256020731E-05</v>
+        <v>1.422471503263458E-05</v>
       </c>
       <c r="AA2">
-        <v>9.505867326144947E-06</v>
+        <v>7.399937234004924E-06</v>
       </c>
       <c r="AB2">
-        <v>6.782634732711228E-06</v>
+        <v>4.675601871724612E-06</v>
       </c>
       <c r="AC2">
-        <v>5.24469717994481E-06</v>
+        <v>3.137041533513689E-06</v>
       </c>
       <c r="AD2">
-        <v>1.162394639881594E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>4.974145870662233E-06</v>
+        <v>2.866380664894902E-06</v>
       </c>
       <c r="AF2">
-        <v>8.258034283331975E-06</v>
+        <v>6.151598883122167E-06</v>
       </c>
       <c r="AG2">
-        <v>1.791376361461867E-08</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>3.120284307056508E-06</v>
+        <v>1.011768382902812E-06</v>
       </c>
       <c r="AI2">
-        <v>8.129110278908611E-08</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>3.074106705472161E-07</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.034380135489435E-05</v>
+        <v>8.238210582849357E-06</v>
       </c>
       <c r="AL2">
-        <v>9.403730322640641E-06</v>
+        <v>7.297758870278278E-06</v>
       </c>
       <c r="AM2">
-        <v>6.041059207267877E-07</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>8.258034283331975E-06</v>
+        <v>6.151598883122167E-06</v>
       </c>
       <c r="AO2">
-        <v>1.988924368239711E-05</v>
+        <v>1.778751832252848E-05</v>
       </c>
       <c r="AP2">
-        <v>3.856885132329177E-05</v>
+        <v>3.64746902417821E-05</v>
       </c>
       <c r="AQ2">
-        <v>2.438922883679095E-05</v>
+        <v>2.228932573898336E-05</v>
       </c>
       <c r="AR2">
-        <v>1.718531258962562E-05</v>
+        <v>1.508249227702337E-05</v>
       </c>
       <c r="AS2">
-        <v>8.870498804345545E-07</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>8.518038292252675E-06</v>
+        <v>6.411708180266032E-06</v>
       </c>
       <c r="AU2">
-        <v>0.0001891073664882467</v>
+        <v>0.0001870741657467155</v>
       </c>
       <c r="AV2">
-        <v>0.03290347512891353</v>
+        <v>0.03291468956103719</v>
       </c>
       <c r="AW2">
-        <v>0.01357561846577753</v>
+        <v>0.01357900611209858</v>
       </c>
       <c r="AX2">
-        <v>0.02144078573563029</v>
+        <v>0.02144735836932971</v>
       </c>
       <c r="AY2">
-        <v>0.01522361752232014</v>
+        <v>0.01522767252332223</v>
       </c>
       <c r="AZ2">
-        <v>0.05486995888258044</v>
+        <v>0.05489006860848515</v>
       </c>
       <c r="BA2">
-        <v>0.009430229323549819</v>
+        <v>0.009431938300919103</v>
       </c>
       <c r="BB2">
-        <v>0.0003627812124469715</v>
+        <v>0.0003608183406620095</v>
       </c>
       <c r="BC2">
-        <v>0.006615964226992787</v>
+        <v>0.006616533572043474</v>
       </c>
       <c r="BD2">
-        <v>0.00745881425591085</v>
+        <v>0.007459724911783272</v>
       </c>
       <c r="BE2">
-        <v>0.005736675196824506</v>
+        <v>0.005736888475135996</v>
       </c>
       <c r="BF2">
-        <v>0.02502276285852742</v>
+        <v>0.02503078600834869</v>
       </c>
       <c r="BG2">
-        <v>0.02086148071575442</v>
+        <v>0.02086781876077782</v>
       </c>
       <c r="BH2">
-        <v>0.006918472237371793</v>
+        <v>0.006919164082575605</v>
       </c>
       <c r="BI2">
-        <v>0.004359959149589575</v>
+        <v>0.004359614928857041</v>
       </c>
       <c r="BJ2">
-        <v>0.007918253271674136</v>
+        <v>0.007919349976668735</v>
       </c>
       <c r="BK2">
-        <v>0.01070883836741871</v>
+        <v>0.01071106511555203</v>
       </c>
       <c r="BL2">
-        <v>0.0007937811272345169</v>
+        <v>0.0007919927882015707</v>
       </c>
       <c r="BM2">
-        <v>5.939264203775305E-05</v>
+        <v>5.730691351823726E-05</v>
       </c>
       <c r="BN2">
-        <v>0.0009017713309396454</v>
+        <v>0.0009000267223734505</v>
       </c>
       <c r="BO2">
-        <v>0.0004074597539798859</v>
+        <v>0.0004055149747015399</v>
       </c>
       <c r="BP2">
-        <v>0.004576200757008793</v>
+        <v>0.004575944102982303</v>
       </c>
       <c r="BQ2">
-        <v>0.002145912073625936</v>
+        <v>0.002144671277938273</v>
       </c>
       <c r="BR2">
-        <v>0.0004916880168697455</v>
+        <v>0.0004897773456967964</v>
       </c>
       <c r="BS2">
-        <v>0.000111259193817287</v>
+        <v>0.0001091944685780715</v>
       </c>
       <c r="BT2">
-        <v>0.005015434872078853</v>
+        <v>0.005015356085231107</v>
       </c>
       <c r="BU2">
-        <v>3.801331830423151E-05</v>
+        <v>3.591893226048096E-05</v>
       </c>
       <c r="BV2">
-        <v>6.478899222290105E-05</v>
+        <v>6.270544894708565E-05</v>
       </c>
       <c r="BW2">
-        <v>0.00130689004483921</v>
+        <v>0.001305309488472573</v>
       </c>
       <c r="BX2">
-        <v>0.005167035177280239</v>
+        <v>0.005167017780742712</v>
       </c>
       <c r="BY2">
-        <v>0.001059170636339993</v>
+        <v>0.001057489766380221</v>
       </c>
       <c r="BZ2">
-        <v>4.447590652596199E-06</v>
+        <v>2.339612219103886E-06</v>
       </c>
       <c r="CA2">
-        <v>6.529823624037314E-05</v>
+        <v>6.321489918213869E-05</v>
       </c>
       <c r="CB2">
-        <v>0.0001122081738498464</v>
+        <v>0.0001101438328986342</v>
       </c>
       <c r="CC2">
-        <v>0.004916089168670317</v>
+        <v>0.004915970151932908</v>
       </c>
       <c r="CD2">
-        <v>0.002810310396421348</v>
+        <v>0.002809338647811733</v>
       </c>
       <c r="CE2">
-        <v>0.001732833559453271</v>
+        <v>0.001731425488257184</v>
       </c>
       <c r="CF2">
-        <v>0.00664276652791237</v>
+        <v>0.006643346726513555</v>
       </c>
       <c r="CG2">
-        <v>0.0008330386785814379</v>
+        <v>0.000831266236833477</v>
       </c>
       <c r="CH2">
-        <v>0.003745074128492958</v>
+        <v>0.003744480911017679</v>
       </c>
       <c r="CI2">
-        <v>0.001094522137552898</v>
+        <v>0.001092855583129122</v>
       </c>
       <c r="CJ2">
-        <v>0.001872571964247676</v>
+        <v>0.001871220479903498</v>
       </c>
       <c r="CK2">
-        <v>0.001441070249442914</v>
+        <v>0.001439544029143576</v>
       </c>
       <c r="CL2">
-        <v>0.001541469452887597</v>
+        <v>0.001539983889091139</v>
       </c>
       <c r="CM2">
-        <v>0.007591494260463082</v>
+        <v>0.007592458644899102</v>
       </c>
       <c r="CN2">
-        <v>0.02587781388786409</v>
+        <v>0.02588618328928344</v>
       </c>
       <c r="CO2">
-        <v>0.002095077071881795</v>
+        <v>0.002093815690638431</v>
       </c>
       <c r="CP2">
-        <v>0.007448479755556275</v>
+        <v>0.007449386226488687</v>
       </c>
       <c r="CQ2">
-        <v>0.0350321542019482</v>
+        <v>0.03504423063938563</v>
       </c>
       <c r="CR2">
-        <v>0.02465488884590571</v>
+        <v>0.02466276302571187</v>
       </c>
       <c r="CS2">
-        <v>0.00139139634773861</v>
+        <v>0.001389850012069243</v>
       </c>
       <c r="CT2">
-        <v>0.005510278689056874</v>
+        <v>0.005510400288451056</v>
       </c>
       <c r="CU2">
-        <v>0.009389588322155433</v>
+        <v>0.009391280842013764</v>
       </c>
       <c r="CV2">
-        <v>0.002695865092494746</v>
+        <v>0.002694846999435481</v>
       </c>
       <c r="CW2">
-        <v>7.778923766893762E-07</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.008697852298422069</v>
+        <v>0.008699264700842441</v>
       </c>
       <c r="CY2">
-        <v>0.01479063950746473</v>
+        <v>0.01479451917468622</v>
       </c>
       <c r="CZ2">
-        <v>0.0183649146300976</v>
+        <v>0.0183702416945278</v>
       </c>
       <c r="DA2">
-        <v>0.0141499104854814</v>
+        <v>0.01415353069047178</v>
       </c>
       <c r="DB2">
-        <v>5.890702402109156E-05</v>
+        <v>5.682109885130748E-05</v>
       </c>
       <c r="DC2">
-        <v>0.002635607790427326</v>
+        <v>0.002634565296266349</v>
       </c>
       <c r="DD2">
-        <v>0.008203037281445036</v>
+        <v>0.008204249309285996</v>
       </c>
       <c r="DE2">
-        <v>0.03466963518951022</v>
+        <v>0.03468156482543162</v>
       </c>
       <c r="DF2">
-        <v>0.04068260439581434</v>
+        <v>0.04069696897435952</v>
       </c>
       <c r="DG2">
-        <v>0.009073321311304356</v>
+        <v>0.009074885759323501</v>
       </c>
       <c r="DH2">
-        <v>1.6692666572723E-05</v>
+        <v>1.458964676387459E-05</v>
       </c>
       <c r="DI2">
-        <v>0.0001013875434785921</v>
+        <v>9.931882072976823E-05</v>
       </c>
       <c r="DJ2">
-        <v>0.002912758699936334</v>
+        <v>0.002911828437609519</v>
       </c>
       <c r="DK2">
-        <v>0.001284270144063125</v>
+        <v>0.001282680427802489</v>
       </c>
       <c r="DL2">
-        <v>0.007738209565496863</v>
+        <v>0.007739233362069804</v>
       </c>
       <c r="DM2">
-        <v>0.001004384134460276</v>
+        <v>0.001002681078790905</v>
       </c>
       <c r="DN2">
-        <v>0.0003966590836093164</v>
+        <v>0.0003947099306161303</v>
       </c>
       <c r="DO2">
-        <v>0.000319684310968323</v>
+        <v>0.0003177039871594501</v>
       </c>
       <c r="DP2">
-        <v>0.0006161542211401632</v>
+        <v>0.0006142939523650314</v>
       </c>
       <c r="DQ2">
-        <v>0.002461728284461545</v>
+        <v>0.002460615378062296</v>
       </c>
       <c r="DR2">
-        <v>0.006698712429831865</v>
+        <v>0.00669931528363991</v>
       </c>
       <c r="DS2">
-        <v>0.02204482375635475</v>
+        <v>0.02205164099432081</v>
       </c>
       <c r="DT2">
-        <v>0.01748355559985829</v>
+        <v>0.01748852575930595</v>
       </c>
       <c r="DU2">
-        <v>0.003621576924255786</v>
+        <v>0.003620933696777761</v>
       </c>
       <c r="DV2">
-        <v>7.556061859247403E-05</v>
+        <v>7.348143727017524E-05</v>
       </c>
       <c r="DW2">
-        <v>0.005299086181810889</v>
+        <v>0.005299122259124369</v>
       </c>
       <c r="DX2">
-        <v>0.01133078238875752</v>
+        <v>0.01133326099216487</v>
       </c>
       <c r="DY2">
-        <v>0.009543905327450027</v>
+        <v>0.009545660337742099</v>
       </c>
       <c r="DZ2">
-        <v>0.005390974884963577</v>
+        <v>0.005391048172465947</v>
       </c>
       <c r="EA2">
-        <v>0.0008715730799035477</v>
+        <v>0.0008698162426020827</v>
       </c>
       <c r="EB2">
-        <v>0.001182237440562397</v>
+        <v>0.001180606406315547</v>
       </c>
       <c r="EC2">
-        <v>0.00317016010876774</v>
+        <v>0.00316933408074519</v>
       </c>
       <c r="ED2">
-        <v>0.001935102066393075</v>
+        <v>0.001933775903517502</v>
       </c>
       <c r="EE2">
-        <v>7.249449748727584E-06</v>
+        <v>5.142605923763093E-06</v>
       </c>
       <c r="EF2">
-        <v>0.000277314709514628</v>
+        <v>0.0002753172282008698</v>
       </c>
       <c r="EG2">
-        <v>5.028996872544163E-05</v>
+        <v>4.820055409238059E-05</v>
       </c>
       <c r="EH2">
-        <v>0.0005631990193232778</v>
+        <v>0.0005613173064206889</v>
       </c>
       <c r="EI2">
-        <v>0.000190757046544847</v>
+        <v>0.0001887245138387152</v>
       </c>
       <c r="EJ2">
-        <v>3.601084323552688E-05</v>
+        <v>3.391564629257985E-05</v>
       </c>
       <c r="EK2">
-        <v>0.0006387236219145161</v>
+        <v>0.0006368724925834847</v>
       </c>
       <c r="EL2">
-        <v>2.805659096261762E-06</v>
+        <v>6.970157651132859E-07</v>
       </c>
       <c r="EM2">
-        <v>0.002907915399770161</v>
+        <v>0.0029069831761564</v>
       </c>
       <c r="EN2">
-        <v>0.004178129143351013</v>
+        <v>0.00417771129083736</v>
       </c>
       <c r="EO2">
-        <v>0.002357437080883329</v>
+        <v>0.002356281941921735</v>
       </c>
       <c r="EP2">
-        <v>0.003712182127364438</v>
+        <v>0.003711575590323935</v>
       </c>
       <c r="EQ2">
-        <v>0.0002684170692093513</v>
+        <v>0.0002664159848098484</v>
       </c>
       <c r="ER2">
-        <v>0.0004623514158632109</v>
+        <v>0.0004604288648788448</v>
       </c>
       <c r="ES2">
-        <v>0.002741113094047198</v>
+        <v>0.002740113324096508</v>
       </c>
       <c r="ET2">
-        <v>0.006851701735080906</v>
+        <v>0.006852366541672601</v>
       </c>
       <c r="EU2">
-        <v>0.003036979504198332</v>
+        <v>0.003036099544894979</v>
       </c>
       <c r="EV2">
-        <v>0.003330712114276256</v>
+        <v>0.003329951101541185</v>
       </c>
       <c r="EW2">
-        <v>0.003990922136927967</v>
+        <v>0.003990428475225248</v>
       </c>
       <c r="EX2">
-        <v>0.003530508221131232</v>
+        <v>0.003529828115522067</v>
       </c>
       <c r="EY2">
-        <v>0.008203037281445036</v>
+        <v>0.008204249309285996</v>
       </c>
       <c r="EZ2">
-        <v>0.009398289322453963</v>
+        <v>0.009399985365768972</v>
       </c>
       <c r="FA2">
-        <v>0.008484582291104804</v>
+        <v>0.00848590833016402</v>
       </c>
       <c r="FB2">
-        <v>0.005878317801684243</v>
+        <v>0.005878588437950528</v>
       </c>
       <c r="FC2">
-        <v>0.0002085112871539924</v>
+        <v>0.0002064859440002646</v>
       </c>
       <c r="FD2">
-        <v>0.001810789062127914</v>
+        <v>0.00180941255889263</v>
       </c>
       <c r="FE2">
-        <v>0.01062504736454386</v>
+        <v>0.01062724018163955</v>
       </c>
       <c r="FF2">
-        <v>0.02293788678699562</v>
+        <v>0.02294506566946116</v>
       </c>
       <c r="FG2">
-        <v>0.02508908086080278</v>
+        <v>0.02509713086599698</v>
       </c>
       <c r="FH2">
-        <v>0.01864172063959477</v>
+        <v>0.0186471597961924</v>
       </c>
       <c r="FI2">
-        <v>0.00681185323371371</v>
+        <v>0.006812501903716119</v>
       </c>
       <c r="FJ2">
-        <v>0.0005274862180979767</v>
+        <v>0.0005255900433515076</v>
       </c>
       <c r="FK2">
-        <v>7.634302261931819E-05</v>
+        <v>7.426415813032565E-05</v>
       </c>
       <c r="FL2">
-        <v>0.002578903288481803</v>
+        <v>0.002577837831920054</v>
       </c>
       <c r="FM2">
-        <v>0.001463754550221209</v>
+        <v>0.001462237515894551</v>
       </c>
       <c r="FN2">
-        <v>0.004002064637310266</v>
+        <v>0.004001575487745924</v>
       </c>
       <c r="FO2">
-        <v>0.005194799678232834</v>
+        <v>0.005194793524887228</v>
       </c>
       <c r="FP2">
-        <v>3.592020123241697E-07</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.003119997307046661</v>
+        <v>0.003119150965674775</v>
       </c>
       <c r="FR2">
-        <v>0.01027360635248596</v>
+        <v>0.01027565685408483</v>
       </c>
       <c r="FS2">
-        <v>0.01266772043462768</v>
+        <v>0.01267074042903863</v>
       </c>
       <c r="FT2">
-        <v>0.010904825374143</v>
+        <v>0.01090713148691299</v>
       </c>
       <c r="FU2">
-        <v>0.006444271921102048</v>
+        <v>0.006444771739617767</v>
       </c>
       <c r="FV2">
-        <v>0.001984262668079768</v>
+        <v>0.001982956412714171</v>
       </c>
       <c r="FW2">
-        <v>0.002858280498067195</v>
+        <v>0.002857328174876396</v>
       </c>
       <c r="FX2">
-        <v>0.006317578216755205</v>
+        <v>0.006318026730850379</v>
       </c>
       <c r="FY2">
-        <v>0.0101767723491636</v>
+        <v>0.01017878363798189</v>
       </c>
       <c r="FZ2">
-        <v>0.009731927333901035</v>
+        <v>0.00973375848341518</v>
       </c>
       <c r="GA2">
-        <v>0.007091566243310623</v>
+        <v>0.00709232818266568</v>
       </c>
       <c r="GB2">
-        <v>0.0068690522356762</v>
+        <v>0.006869724068326402</v>
       </c>
       <c r="GC2">
-        <v>0.000448937285402974</v>
+        <v>0.0004470093023871277</v>
       </c>
       <c r="GD2">
-        <v>0.0005624110492962426</v>
+        <v>0.0005605290173064043</v>
       </c>
       <c r="GE2">
-        <v>0.002005501268808461</v>
+        <v>0.002004203613981535</v>
       </c>
       <c r="GF2">
-        <v>0.00475379016310186</v>
+        <v>0.004753605423631988</v>
       </c>
       <c r="GG2">
-        <v>0.01182954940587015</v>
+        <v>0.01183222998421328</v>
       </c>
       <c r="GH2">
-        <v>0.01150951639488986</v>
+        <v>0.01151206737635785</v>
       </c>
       <c r="GI2">
-        <v>0.006535615524236034</v>
+        <v>0.006536152332203228</v>
       </c>
       <c r="GJ2">
-        <v>0.00698083993951162</v>
+        <v>0.006981557040420405</v>
       </c>
       <c r="GK2">
-        <v>0.007772178666662338</v>
+        <v>0.007773216218970504</v>
       </c>
       <c r="GL2">
-        <v>0.005225039779270368</v>
+        <v>0.005225045871607126</v>
       </c>
       <c r="GM2">
-        <v>0.005704986595737273</v>
+        <v>0.005705187041798534</v>
       </c>
       <c r="GN2">
-        <v>0.002265363077724283</v>
+        <v>0.002264170653536848</v>
       </c>
       <c r="GO2">
-        <v>0.0005977235205078085</v>
+        <v>0.0005958557882488276</v>
       </c>
       <c r="GP2">
-        <v>0.001508747151764899</v>
+        <v>0.001507248337122974</v>
       </c>
       <c r="GQ2">
-        <v>0.0007318058851081553</v>
+        <v>0.0007299924492963142</v>
       </c>
       <c r="GR2">
-        <v>0.0002582198088594847</v>
+        <v>0.0002562145950951007</v>
       </c>
       <c r="GS2">
-        <v>7.584962660238983E-05</v>
+        <v>7.377056231343977E-05</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0003470053832785674</v>
+        <v>0.0002846419246185083</v>
       </c>
       <c r="C3">
-        <v>0.0002126229697541628</v>
+        <v>0.0001487481788175998</v>
       </c>
       <c r="D3">
-        <v>3.616065225749704E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.041312049821443E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.365118286030108E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>7.022705661591129E-05</v>
+        <v>4.750809551839272E-06</v>
       </c>
       <c r="H3">
-        <v>0.0002171213595373952</v>
+        <v>0.0001532971597570214</v>
       </c>
       <c r="I3">
-        <v>0.0001313899736686037</v>
+        <v>6.660159556180478E-05</v>
       </c>
       <c r="J3">
-        <v>0.0002511749478964271</v>
+        <v>0.0001877337319148108</v>
       </c>
       <c r="K3">
-        <v>0.0004598008278432009</v>
+        <v>0.0003987059235388961</v>
       </c>
       <c r="L3">
-        <v>0.0004413547987320748</v>
+        <v>0.0003800524410978452</v>
       </c>
       <c r="M3">
-        <v>0.00071495806554773</v>
+        <v>0.0006567327879960094</v>
       </c>
       <c r="N3">
-        <v>0.0004430680486495171</v>
+        <v>0.0003817849590863842</v>
       </c>
       <c r="O3">
-        <v>0.000392037311108577</v>
+        <v>0.0003301803041799443</v>
       </c>
       <c r="P3">
-        <v>0.0002713638669235671</v>
+        <v>0.0002081497056893185</v>
       </c>
       <c r="Q3">
-        <v>6.552908284229641E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0001870300209874312</v>
+        <v>0.0001228673988644231</v>
       </c>
       <c r="S3">
-        <v>6.099374206084459E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>5.924603214506292E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0001677579519161102</v>
+        <v>0.0001033785864019201</v>
       </c>
       <c r="V3">
-        <v>0.0001566907924494124</v>
+        <v>9.218696008816576E-05</v>
       </c>
       <c r="W3">
-        <v>0.0003434731834487764</v>
+        <v>0.000281069999891167</v>
       </c>
       <c r="X3">
-        <v>0.000459044077879667</v>
+        <v>0.0003979406627842912</v>
       </c>
       <c r="Y3">
-        <v>0.0004406133787678022</v>
+        <v>0.000379302682751391</v>
       </c>
       <c r="Z3">
-        <v>0.0004695773273720927</v>
+        <v>0.0004085923745034091</v>
       </c>
       <c r="AA3">
-        <v>0.0005795180020742914</v>
+        <v>0.0005197694973822725</v>
       </c>
       <c r="AB3">
-        <v>0.0004928091762526006</v>
+        <v>0.0004320855004523601</v>
       </c>
       <c r="AC3">
-        <v>7.245197650869727E-05</v>
+        <v>7.000752013861908E-06</v>
       </c>
       <c r="AD3">
-        <v>1.488737978260964E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>9.598327537477531E-07</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.238298640329089E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.000135784253456853</v>
+        <v>7.10452956328261E-05</v>
       </c>
       <c r="AH3">
-        <v>9.456512144311304E-05</v>
+        <v>2.936259250893841E-05</v>
       </c>
       <c r="AI3">
-        <v>5.723573924193456E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0007354351345609847</v>
+        <v>0.0006774401524364431</v>
       </c>
       <c r="AK3">
-        <v>0.001230331640713001</v>
+        <v>0.001177902513849281</v>
       </c>
       <c r="AL3">
-        <v>0.0009569462938868452</v>
+        <v>0.0009014425377785277</v>
       </c>
       <c r="AM3">
-        <v>0.0003296729241137808</v>
+        <v>0.0002671145358920335</v>
       </c>
       <c r="AN3">
-        <v>2.095893899003444E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.260858039242001E-07</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.740237516141749E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.224722040983316E-08</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>1.197546242292858E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>3.044595553287581E-08</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>3.507475830982389E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0001428355731170652</v>
+        <v>7.817591798388112E-05</v>
       </c>
       <c r="AV3">
-        <v>1.961361905486247E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0001101319596929811</v>
+        <v>4.510450325879446E-05</v>
       </c>
       <c r="AX3">
-        <v>0.0003153833848023625</v>
+        <v>0.0002526642892275373</v>
       </c>
       <c r="AY3">
-        <v>0.000308667445125989</v>
+        <v>0.0002458728187124644</v>
       </c>
       <c r="AZ3">
-        <v>5.696894125479097E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>8.27522760123483E-06</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>1.781659614145709E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>5.235077147733049E-08</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>3.156970147872494E-06</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>6.894706667759123E-07</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>8.831125574447319E-06</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>3.551037128883265E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>1.005597251542462E-06</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0001782225214118454</v>
+        <v>0.0001139608457145282</v>
       </c>
       <c r="BJ3">
-        <v>6.465267188452874E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>5.143249052158045E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0001113608946337614</v>
+        <v>4.63472594206186E-05</v>
       </c>
       <c r="BM3">
-        <v>0.0002076235199950754</v>
+        <v>0.0001436925027295791</v>
       </c>
       <c r="BN3">
-        <v>0.0002794762665326482</v>
+        <v>0.0002163533414285416</v>
       </c>
       <c r="BO3">
-        <v>0.0003213435245151564</v>
+        <v>0.0002586914596721374</v>
       </c>
       <c r="BP3">
-        <v>0.0002826633863790678</v>
+        <v>0.0002195763052292901</v>
       </c>
       <c r="BQ3">
-        <v>3.736263319957619E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>1.465431829384036E-06</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>1.07225354833044E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>1.335708635635114E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>9.513677541556628E-06</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>4.736765271745612E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0002510458479026481</v>
+        <v>0.0001876031799975072</v>
       </c>
       <c r="BX3">
-        <v>0.0002312291888575697</v>
+        <v>0.0001675636528282314</v>
       </c>
       <c r="BY3">
-        <v>0.0003859846114002434</v>
+        <v>0.000324059532763496</v>
       </c>
       <c r="BZ3">
-        <v>7.83462662246643E-05</v>
+        <v>1.2961331879419E-05</v>
       </c>
       <c r="CA3">
-        <v>1.624789421704941E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>3.438656834298627E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>5.413537039133457E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.000108994909747773</v>
+        <v>4.395466547746172E-05</v>
       </c>
       <c r="CE3">
-        <v>5.508860734540016E-06</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>3.044595553287581E-08</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>1.488737978260964E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>9.766633529367231E-06</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>5.580656331080343E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0001703355717919003</v>
+        <v>0.0001059851954885204</v>
       </c>
       <c r="CK3">
-        <v>0.0002602948374569595</v>
+        <v>0.0001969561883446939</v>
       </c>
       <c r="CL3">
-        <v>0.0004744745771361049</v>
+        <v>0.000413544701203758</v>
       </c>
       <c r="CM3">
-        <v>0.0112039704601051</v>
+        <v>0.01126370989657205</v>
       </c>
       <c r="CN3">
-        <v>0.09677849533645538</v>
+        <v>0.09780064896165573</v>
       </c>
       <c r="CO3">
-        <v>0.04233617095991225</v>
+        <v>0.04274603879651698</v>
       </c>
       <c r="CP3">
-        <v>0.01744844315919758</v>
+        <v>0.01757841107938032</v>
       </c>
       <c r="CQ3">
-        <v>0.04243681395506249</v>
+        <v>0.04284781367345879</v>
       </c>
       <c r="CR3">
-        <v>0.01230998340680875</v>
+        <v>0.01238216162168982</v>
       </c>
       <c r="CS3">
-        <v>0.0005587862430733097</v>
+        <v>0.0004988045785822878</v>
       </c>
       <c r="CT3">
-        <v>0.004700666773485121</v>
+        <v>0.004687266782643666</v>
       </c>
       <c r="CU3">
-        <v>0.005646479727908456</v>
+        <v>0.005643716825716225</v>
       </c>
       <c r="CV3">
-        <v>0.01769431914734935</v>
+        <v>0.01782705231267961</v>
       </c>
       <c r="CW3">
-        <v>0.04216480396817005</v>
+        <v>0.04257274452531198</v>
       </c>
       <c r="CX3">
-        <v>4.612363177740278E-05</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.02222190692917477</v>
+        <v>0.02240555962608596</v>
       </c>
       <c r="CZ3">
-        <v>0.004602500778215526</v>
+        <v>0.004587996763170196</v>
       </c>
       <c r="DA3">
-        <v>0.04068735803936495</v>
+        <v>0.04107868249578037</v>
       </c>
       <c r="DB3">
-        <v>0.002049345201246524</v>
+        <v>0.002006127113211958</v>
       </c>
       <c r="DC3">
-        <v>9.562445039206628E-05</v>
+        <v>3.04338352045643E-05</v>
       </c>
       <c r="DD3">
-        <v>0.0008130169208224878</v>
+        <v>0.0007558944625243213</v>
       </c>
       <c r="DE3">
-        <v>0.007555078335937252</v>
+        <v>0.00757378049456327</v>
       </c>
       <c r="DF3">
-        <v>0.0006690284077609802</v>
+        <v>0.000610286582154783</v>
       </c>
       <c r="DG3">
-        <v>0.01638536621042494</v>
+        <v>0.01650337823204216</v>
       </c>
       <c r="DH3">
-        <v>0.008636981583802694</v>
+        <v>0.008667851371031815</v>
       </c>
       <c r="DI3">
-        <v>0.008073556610952916</v>
+        <v>0.008098089837284493</v>
       </c>
       <c r="DJ3">
-        <v>0.001691525518489074</v>
+        <v>0.001644283210160075</v>
       </c>
       <c r="DK3">
-        <v>0.003424895334961763</v>
+        <v>0.003397147376243306</v>
       </c>
       <c r="DL3">
-        <v>0.0008001363614431738</v>
+        <v>0.0007428690418895882</v>
       </c>
       <c r="DM3">
-        <v>0.0008468920891901172</v>
+        <v>0.0007901506080896605</v>
       </c>
       <c r="DN3">
-        <v>0.0001752260015562411</v>
+        <v>0.0001109306254880482</v>
       </c>
       <c r="DO3">
-        <v>0.00165597222020231</v>
+        <v>0.001608330061581687</v>
       </c>
       <c r="DP3">
-        <v>0.0005055509756386011</v>
+        <v>0.0004449706005290369</v>
       </c>
       <c r="DQ3">
-        <v>0.0006819449171385617</v>
+        <v>0.0006233483570995628</v>
       </c>
       <c r="DR3">
-        <v>0.0004744745771361049</v>
+        <v>0.000413544701203758</v>
       </c>
       <c r="DS3">
-        <v>0.0002987290056049007</v>
+        <v>0.000235822606497075</v>
       </c>
       <c r="DT3">
-        <v>0.002637548472902292</v>
+        <v>0.002600945614988125</v>
       </c>
       <c r="DU3">
-        <v>0.004530927381664491</v>
+        <v>0.004515618416168357</v>
       </c>
       <c r="DV3">
-        <v>0.002125025597599651</v>
+        <v>0.002082658649403307</v>
       </c>
       <c r="DW3">
-        <v>0.01515110026990152</v>
+        <v>0.01525523111536793</v>
       </c>
       <c r="DX3">
-        <v>0.00444541678578506</v>
+        <v>0.004429146125077877</v>
       </c>
       <c r="DY3">
-        <v>0.008763637577699419</v>
+        <v>0.008795931802000091</v>
       </c>
       <c r="DZ3">
-        <v>0.003753464519128731</v>
+        <v>0.003729411814871572</v>
       </c>
       <c r="EA3">
-        <v>0.001866733910046164</v>
+        <v>0.001821462083496215</v>
       </c>
       <c r="EB3">
-        <v>0.002777005166182177</v>
+        <v>0.00274197070844926</v>
       </c>
       <c r="EC3">
-        <v>0.0008241277602870806</v>
+        <v>0.0007671302600832174</v>
       </c>
       <c r="ED3">
-        <v>0.006286047697089071</v>
+        <v>0.006290477698264848</v>
       </c>
       <c r="EE3">
-        <v>0.03027959054089257</v>
+        <v>0.03055386400429294</v>
       </c>
       <c r="EF3">
-        <v>0.004361976789805852</v>
+        <v>0.004344767720896528</v>
       </c>
       <c r="EG3">
-        <v>0.00669136237755784</v>
+        <v>0.006700350751683379</v>
       </c>
       <c r="EH3">
-        <v>0.0547331803625274</v>
+        <v>0.05528247120807291</v>
       </c>
       <c r="EI3">
-        <v>0.02908791859831664</v>
+        <v>0.02934878991911081</v>
       </c>
       <c r="EJ3">
-        <v>0.002335691687448111</v>
+        <v>0.002295693996156765</v>
       </c>
       <c r="EK3">
-        <v>0.008447978592910335</v>
+        <v>0.008476722757351474</v>
       </c>
       <c r="EL3">
-        <v>0.01243685840069492</v>
+        <v>0.01251046351563167</v>
       </c>
       <c r="EM3">
-        <v>0.002274023290419777</v>
+        <v>0.002233332045288871</v>
       </c>
       <c r="EN3">
-        <v>8.554773587764118E-05</v>
+        <v>2.024379288564935E-05</v>
       </c>
       <c r="EO3">
-        <v>0.01615431822155864</v>
+        <v>0.01626973176117336</v>
       </c>
       <c r="EP3">
-        <v>0.02081972099674305</v>
+        <v>0.02098760400473614</v>
       </c>
       <c r="EQ3">
-        <v>0.02018589102728593</v>
+        <v>0.02034664566434467</v>
       </c>
       <c r="ER3">
-        <v>0.01233198840574837</v>
+        <v>0.0124044140999258</v>
       </c>
       <c r="ES3">
-        <v>0.0005149367251863223</v>
+        <v>0.0004544619069413703</v>
       </c>
       <c r="ET3">
-        <v>0.005691464225740752</v>
+        <v>0.005689207241858314</v>
       </c>
       <c r="EU3">
-        <v>0.007229833951610069</v>
+        <v>0.007244878248147638</v>
       </c>
       <c r="EV3">
-        <v>0.03706326821400194</v>
+        <v>0.03741383433171535</v>
       </c>
       <c r="EW3">
-        <v>0.04784076469465789</v>
+        <v>0.04831253996365779</v>
       </c>
       <c r="EX3">
-        <v>0.008368290596750327</v>
+        <v>0.008396138549868214</v>
       </c>
       <c r="EY3">
-        <v>0.0001782225214118454</v>
+        <v>0.0001139608457145282</v>
       </c>
       <c r="EZ3">
-        <v>7.938332017469093E-05</v>
+        <v>1.401004906026613E-05</v>
       </c>
       <c r="FA3">
-        <v>0.005497080435107683</v>
+        <v>0.005492637313254449</v>
       </c>
       <c r="FB3">
-        <v>0.0009441359545041475</v>
+        <v>0.0008884881268698448</v>
       </c>
       <c r="FC3">
-        <v>0.009404689546808521</v>
+        <v>0.009444193364287508</v>
       </c>
       <c r="FD3">
-        <v>0.0005409556039325292</v>
+        <v>0.0004807734070970033</v>
       </c>
       <c r="FE3">
-        <v>1.155113844337583E-06</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>5.359721541726708E-05</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.001732313216523604</v>
+        <v>0.00168552962718102</v>
       </c>
       <c r="FH3">
-        <v>0.008257609602083802</v>
+        <v>0.008284212781013996</v>
       </c>
       <c r="FI3">
-        <v>0.001939353706546774</v>
+        <v>0.001894898598788266</v>
       </c>
       <c r="FJ3">
-        <v>0.03302476440860862</v>
+        <v>0.03332991147936641</v>
       </c>
       <c r="FK3">
-        <v>0.02465331481201053</v>
+        <v>0.0248643123460496</v>
       </c>
       <c r="FL3">
-        <v>0.005125054353034808</v>
+        <v>0.005116427238568314</v>
       </c>
       <c r="FM3">
-        <v>0.000564127272815937</v>
+        <v>0.0005042056762343097</v>
       </c>
       <c r="FN3">
-        <v>0.005896104715879573</v>
+        <v>0.005896149221974246</v>
       </c>
       <c r="FO3">
-        <v>0.011726490434926</v>
+        <v>0.01179210639408929</v>
       </c>
       <c r="FP3">
-        <v>0.003921690811022272</v>
+        <v>0.003899530064336251</v>
       </c>
       <c r="FQ3">
-        <v>0.004285191493505968</v>
+        <v>0.004267118858497366</v>
       </c>
       <c r="FR3">
-        <v>0.002894136660537866</v>
+        <v>0.002860419522559612</v>
       </c>
       <c r="FS3">
-        <v>0.0021341741971588</v>
+        <v>0.002091910138718905</v>
       </c>
       <c r="FT3">
-        <v>0.00332596853972883</v>
+        <v>0.003297108000467089</v>
       </c>
       <c r="FU3">
-        <v>0.0002203345093825605</v>
+        <v>0.0001565464463029862</v>
       </c>
       <c r="FV3">
-        <v>0.0004406133787678022</v>
+        <v>0.000379302682751391</v>
       </c>
       <c r="FW3">
-        <v>0.000102021965083784</v>
+        <v>3.690329956729494E-05</v>
       </c>
       <c r="FX3">
-        <v>0.001229093840772648</v>
+        <v>0.001176650792987636</v>
       </c>
       <c r="FY3">
-        <v>0.001202579542050315</v>
+        <v>0.001149838301113408</v>
       </c>
       <c r="FZ3">
-        <v>1.403036482390732E-05</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0009209154556230927</v>
+        <v>0.0008650064785681547</v>
       </c>
       <c r="GB3">
-        <v>0.0002857307662312576</v>
+        <v>0.0002226781823795513</v>
       </c>
       <c r="GC3">
-        <v>0.0003092880550960831</v>
+        <v>0.0002465004083747245</v>
       </c>
       <c r="GD3">
-        <v>0.003631841724989468</v>
+        <v>0.003606421189559163</v>
       </c>
       <c r="GE3">
-        <v>0.00666916527862747</v>
+        <v>0.006677904013003443</v>
       </c>
       <c r="GF3">
-        <v>0.003910303811570987</v>
+        <v>0.003888015000956421</v>
       </c>
       <c r="GG3">
-        <v>0.003280703541910051</v>
+        <v>0.003251333929694453</v>
       </c>
       <c r="GH3">
-        <v>0.0007644384631633776</v>
+        <v>0.0007067696670738478</v>
       </c>
       <c r="GI3">
-        <v>0.0001654095320292754</v>
+        <v>0.0001010037550027403</v>
       </c>
       <c r="GJ3">
-        <v>0.0002584141475475858</v>
+        <v>0.0001950543472497775</v>
       </c>
       <c r="GK3">
-        <v>0.003549985228933954</v>
+        <v>0.003523644094138854</v>
       </c>
       <c r="GL3">
-        <v>0.00104429254967782</v>
+        <v>0.0009897711335360687</v>
       </c>
       <c r="GM3">
-        <v>0.002452216481833036</v>
+        <v>0.002413529287043041</v>
       </c>
       <c r="GN3">
-        <v>0.002385435485051067</v>
+        <v>0.002345997237550775</v>
       </c>
       <c r="GO3">
-        <v>0.001824731712070158</v>
+        <v>0.00177898750765602</v>
       </c>
       <c r="GP3">
-        <v>0.007401721643327177</v>
+        <v>0.007418699075381609</v>
       </c>
       <c r="GQ3">
-        <v>0.009648548535057488</v>
+        <v>0.009690794913487647</v>
       </c>
       <c r="GR3">
-        <v>0.007009852662210488</v>
+        <v>0.007022422938419227</v>
       </c>
       <c r="GS3">
-        <v>0.003330199139524966</v>
+        <v>0.003301386179718403</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>3.884759744281719E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.447822938869553E-05</v>
+        <v>4.816472270126841E-06</v>
       </c>
       <c r="D4">
-        <v>0.0001094293477967013</v>
+        <v>9.007408059685966E-05</v>
       </c>
       <c r="E4">
-        <v>8.71550142629321E-05</v>
+        <v>6.771938486418831E-05</v>
       </c>
       <c r="F4">
-        <v>1.204589620706657E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>2.178541056595308E-05</v>
+        <v>2.113938191863386E-06</v>
       </c>
       <c r="H4">
-        <v>1.693430888528181E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001552964297774538</v>
+        <v>0.0001361066436035476</v>
       </c>
       <c r="J4">
-        <v>0.0001769048083550602</v>
+        <v>0.0001577929817221016</v>
       </c>
       <c r="K4">
-        <v>0.0002696271822515151</v>
+        <v>0.0002508498829723133</v>
       </c>
       <c r="L4">
-        <v>0.0002978760503920045</v>
+        <v>0.0002792006684678977</v>
       </c>
       <c r="M4">
-        <v>0.0001675095989735094</v>
+        <v>0.0001483638759420839</v>
       </c>
       <c r="N4">
-        <v>1.776647583050357E-06</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.967907170460499E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>9.186253395305479E-06</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.671539424143187E-05</v>
+        <v>7.0617084524318E-06</v>
       </c>
       <c r="R4">
-        <v>4.785611284982245E-05</v>
+        <v>2.827869936011099E-05</v>
       </c>
       <c r="S4">
-        <v>6.183232592982394E-08</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0001148448064402232</v>
+        <v>9.55090773407695E-05</v>
       </c>
       <c r="U4">
-        <v>0.0001515915900213286</v>
+        <v>0.0001323884373837781</v>
       </c>
       <c r="V4">
-        <v>0.0001041446671445708</v>
+        <v>8.477033367021834E-05</v>
       </c>
       <c r="W4">
-        <v>6.393149979164368E-05</v>
+        <v>4.441208370243307E-05</v>
       </c>
       <c r="X4">
-        <v>5.095785264564726E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>5.32923694919753E-05</v>
+        <v>3.373456913847271E-05</v>
       </c>
       <c r="Z4">
-        <v>9.556082770961084E-05</v>
+        <v>7.615552512855218E-05</v>
       </c>
       <c r="AA4">
-        <v>1.272110416262031E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>6.634529563275309E-05</v>
+        <v>4.683458812919773E-05</v>
       </c>
       <c r="AC4">
-        <v>3.391122076775922E-05</v>
+        <v>1.428349635900415E-05</v>
       </c>
       <c r="AD4">
-        <v>0.0001221075919621429</v>
+        <v>0.0001027980658201789</v>
       </c>
       <c r="AE4">
-        <v>0.0002143449558905242</v>
+        <v>0.0001953682072646633</v>
       </c>
       <c r="AF4">
-        <v>0.0001664521990431139</v>
+        <v>0.0001473026610834708</v>
       </c>
       <c r="AG4">
-        <v>0.0002048677965143679</v>
+        <v>0.0001858568558276914</v>
       </c>
       <c r="AH4">
-        <v>0.0002101723261651918</v>
+        <v>0.0001911805233650086</v>
       </c>
       <c r="AI4">
-        <v>0.0003691308757015828</v>
+        <v>0.0003507125696821528</v>
       </c>
       <c r="AJ4">
-        <v>0.0001760894684087307</v>
+        <v>0.0001569747001608933</v>
       </c>
       <c r="AK4">
-        <v>0.0001180724022277634</v>
+        <v>9.874831777277287E-05</v>
       </c>
       <c r="AL4">
-        <v>8.594079034285962E-05</v>
+        <v>6.650078022026482E-05</v>
       </c>
       <c r="AM4">
-        <v>1.91043337424377E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>4.416296109292794E-05</v>
+        <v>2.457222330798612E-05</v>
       </c>
       <c r="AO4">
-        <v>1.997146468535792E-07</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>8.104073466541081E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>2.550083832138125E-05</v>
+        <v>5.842770610727867E-06</v>
       </c>
       <c r="AR4">
-        <v>0.0001070879829508241</v>
+        <v>8.772426848466301E-05</v>
       </c>
       <c r="AS4">
-        <v>0.000127681101595261</v>
+        <v>0.0001083916837761359</v>
       </c>
       <c r="AT4">
-        <v>0.0002470690337364283</v>
+        <v>0.0002282103482996974</v>
       </c>
       <c r="AU4">
-        <v>0.0001419274706574792</v>
+        <v>0.0001226894514376646</v>
       </c>
       <c r="AV4">
-        <v>5.389141645254242E-05</v>
+        <v>3.433577736374946E-05</v>
       </c>
       <c r="AW4">
-        <v>0.0001133152825409057</v>
+        <v>9.397403516618522E-05</v>
       </c>
       <c r="AX4">
-        <v>7.607258499244434E-05</v>
+        <v>5.659697197829837E-05</v>
       </c>
       <c r="AY4">
-        <v>1.272110416262031E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>6.905165545460419E-08</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>5.601444331279201E-05</v>
+        <v>3.646646376211987E-05</v>
       </c>
       <c r="BB4">
-        <v>4.986468071760642E-06</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>7.930303477979668E-06</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>4.600459697170038E-06</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>2.343889745711062E-05</v>
+        <v>3.773390596746745E-06</v>
       </c>
       <c r="BF4">
-        <v>8.200428460198415E-05</v>
+        <v>6.255007220227751E-05</v>
       </c>
       <c r="BG4">
-        <v>0.0002261849251111461</v>
+        <v>0.0002072508931825126</v>
       </c>
       <c r="BH4">
-        <v>0.0003245767486344037</v>
+        <v>0.0003059976985183723</v>
       </c>
       <c r="BI4">
-        <v>0.0003806171949454841</v>
+        <v>0.0003622403297112669</v>
       </c>
       <c r="BJ4">
-        <v>0.0003092816796412173</v>
+        <v>0.000290647447385851</v>
       </c>
       <c r="BK4">
-        <v>0.0004779482485385679</v>
+        <v>0.0004599225380303202</v>
       </c>
       <c r="BL4">
-        <v>0.0004228359321663926</v>
+        <v>0.0004046113853192913</v>
       </c>
       <c r="BM4">
-        <v>0.0003636487260624509</v>
+        <v>0.000345210641332289</v>
       </c>
       <c r="BN4">
-        <v>0.0001664521990431139</v>
+        <v>0.0001473026610834708</v>
       </c>
       <c r="BO4">
-        <v>5.293752651533321E-05</v>
+        <v>3.337844594566502E-05</v>
       </c>
       <c r="BP4">
-        <v>9.476256776215711E-05</v>
+        <v>7.535438518809771E-05</v>
       </c>
       <c r="BQ4">
-        <v>0.0001543748898381151</v>
+        <v>0.0001351817788969027</v>
       </c>
       <c r="BR4">
-        <v>4.135413227782197E-05</v>
+        <v>2.175326069203806E-05</v>
       </c>
       <c r="BS4">
-        <v>1.429951205872E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>4.188203224307241E-05</v>
+        <v>2.228306523512664E-05</v>
       </c>
       <c r="BU4">
-        <v>2.893893309506515E-06</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>7.441478810157051E-06</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>6.741266556249239E-05</v>
+        <v>4.790580895730244E-05</v>
       </c>
       <c r="BX4">
-        <v>7.098611532726639E-05</v>
+        <v>5.14921511518467E-05</v>
       </c>
       <c r="BY4">
-        <v>0.0002381473643237063</v>
+        <v>0.0002192564909442567</v>
       </c>
       <c r="BZ4">
-        <v>0.0001293043514884089</v>
+        <v>0.000110020790092803</v>
       </c>
       <c r="CA4">
-        <v>5.020230369538204E-05</v>
+        <v>3.06333548834176E-05</v>
       </c>
       <c r="CB4">
-        <v>1.429799105882012E-08</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>5.095785264564726E-06</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>4.936656175039562E-07</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>3.745400753455167E-05</v>
+        <v>1.78390649284211E-05</v>
       </c>
       <c r="CF4">
-        <v>7.300307519449795E-05</v>
+        <v>5.351638788461421E-05</v>
       </c>
       <c r="CG4">
-        <v>1.033623031960707E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>3.419534774905628E-05</v>
+        <v>1.456864842457364E-05</v>
       </c>
       <c r="CI4">
-        <v>1.72727238630053E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>9.01637240648807E-05</v>
+        <v>7.073894960530608E-05</v>
       </c>
       <c r="CK4">
-        <v>2.598035128981682E-05</v>
+        <v>6.324013584529798E-06</v>
       </c>
       <c r="CL4">
-        <v>4.575683698800943E-05</v>
+        <v>2.617184964994458E-05</v>
       </c>
       <c r="CM4">
-        <v>0.007780253487856862</v>
+        <v>0.007788573315597676</v>
       </c>
       <c r="CN4">
-        <v>0.1136447265192197</v>
+        <v>0.1140349882724291</v>
       </c>
       <c r="CO4">
-        <v>0.0325114678598994</v>
+        <v>0.03260901391591073</v>
       </c>
       <c r="CP4">
-        <v>0.03371382978075269</v>
+        <v>0.03381571376443712</v>
       </c>
       <c r="CQ4">
-        <v>0.04559170899887915</v>
+        <v>0.04573644645294085</v>
       </c>
       <c r="CR4">
-        <v>0.01128539025712765</v>
+        <v>0.011306356052381</v>
       </c>
       <c r="CS4">
-        <v>4.673063692390805E-05</v>
+        <v>2.714916289877896E-05</v>
       </c>
       <c r="CT4">
-        <v>0.01012508033350624</v>
+        <v>0.01014185991790264</v>
       </c>
       <c r="CU4">
-        <v>0.01280000915742631</v>
+        <v>0.01282643945311655</v>
       </c>
       <c r="CV4">
-        <v>0.009663191363910551</v>
+        <v>0.009678304527482777</v>
       </c>
       <c r="CW4">
-        <v>0.04274425418631578</v>
+        <v>0.04287871848317323</v>
       </c>
       <c r="CX4">
-        <v>0.001182827322139182</v>
+        <v>0.001167344701516375</v>
       </c>
       <c r="CY4">
-        <v>0.01838061479007724</v>
+        <v>0.01842717900982701</v>
       </c>
       <c r="CZ4">
-        <v>0.01077751929055878</v>
+        <v>0.01079665276936727</v>
       </c>
       <c r="DA4">
-        <v>0.01829855579547886</v>
+        <v>0.01834482395962563</v>
       </c>
       <c r="DB4">
-        <v>0.009890511348946982</v>
+        <v>0.009906444646321382</v>
       </c>
       <c r="DC4">
-        <v>0.0003606820762577337</v>
+        <v>0.0003422332883340814</v>
       </c>
       <c r="DD4">
-        <v>0.0008413240446189848</v>
+        <v>0.0008246093353111351</v>
       </c>
       <c r="DE4">
-        <v>0.008241624957486614</v>
+        <v>0.008251609338995285</v>
       </c>
       <c r="DF4">
-        <v>0.0005302936650928774</v>
+        <v>0.0005124568083956932</v>
       </c>
       <c r="DG4">
-        <v>0.01628452092805476</v>
+        <v>0.01632352277959261</v>
       </c>
       <c r="DH4">
-        <v>0.0001430557105832116</v>
+        <v>0.0001238217618708798</v>
       </c>
       <c r="DI4">
-        <v>0.01169239223033633</v>
+        <v>0.01171482642299313</v>
       </c>
       <c r="DJ4">
-        <v>0.0001818364380304306</v>
+        <v>0.0001627424039210635</v>
       </c>
       <c r="DK4">
-        <v>0.001632194192559149</v>
+        <v>0.001618332815048553</v>
       </c>
       <c r="DL4">
-        <v>7.441478810157051E-06</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.0005499667637978756</v>
+        <v>0.0005322008844643352</v>
       </c>
       <c r="DN4">
-        <v>2.004375168059956E-05</v>
+        <v>3.659956824655211E-07</v>
       </c>
       <c r="DO4">
-        <v>0.0002088043362552411</v>
+        <v>0.000189807597968343</v>
       </c>
       <c r="DP4">
-        <v>0.00138679790871261</v>
+        <v>0.001372051181032393</v>
       </c>
       <c r="DQ4">
-        <v>0.0001351854111012821</v>
+        <v>0.0001159230676191841</v>
       </c>
       <c r="DR4">
-        <v>5.880432612914512E-05</v>
+        <v>3.926641202521066E-05</v>
       </c>
       <c r="DS4">
-        <v>4.622576395714184E-05</v>
+        <v>2.664246843186711E-05</v>
       </c>
       <c r="DT4">
-        <v>0.005440942641844389</v>
+        <v>0.00544082261376567</v>
       </c>
       <c r="DU4">
-        <v>0.009540908371959953</v>
+        <v>0.009555580358241439</v>
       </c>
       <c r="DV4">
-        <v>0.0002864699411428233</v>
+        <v>0.0002677534078182136</v>
       </c>
       <c r="DW4">
-        <v>0.02217636854021787</v>
+        <v>0.02223662722662317</v>
       </c>
       <c r="DX4">
-        <v>9.074743402645738E-05</v>
+        <v>7.132476549817639E-05</v>
       </c>
       <c r="DY4">
-        <v>0.01537504998792162</v>
+        <v>0.01541077061515366</v>
       </c>
       <c r="DZ4">
-        <v>5.540368135299604E-05</v>
+        <v>3.585349827178861E-05</v>
       </c>
       <c r="EA4">
-        <v>0.001497087901452658</v>
+        <v>0.00148273908225846</v>
       </c>
       <c r="EB4">
-        <v>0.005492945638421239</v>
+        <v>0.005493013228757592</v>
       </c>
       <c r="EC4">
-        <v>0.0002274172850300248</v>
+        <v>0.0002084876992569976</v>
       </c>
       <c r="ED4">
-        <v>0.0006189900592543466</v>
+        <v>0.0006014732048260832</v>
       </c>
       <c r="EE4">
-        <v>0.01848443878324292</v>
+        <v>0.01853137758319627</v>
       </c>
       <c r="EF4">
-        <v>0.01585404495639128</v>
+        <v>0.01589149372012945</v>
       </c>
       <c r="EG4">
-        <v>0.0005070003366261846</v>
+        <v>0.0004890794413609106</v>
       </c>
       <c r="EH4">
-        <v>0.04767955186144476</v>
+        <v>0.04783182191544456</v>
       </c>
       <c r="EI4">
-        <v>0.05016806669763573</v>
+        <v>0.05032931491136067</v>
       </c>
       <c r="EJ4">
-        <v>0.01100596327552122</v>
+        <v>0.01102592094334213</v>
       </c>
       <c r="EK4">
-        <v>0.01029122132256984</v>
+        <v>0.01030860031682911</v>
       </c>
       <c r="EL4">
-        <v>0.01892368875432884</v>
+        <v>0.01897221229725511</v>
       </c>
       <c r="EM4">
-        <v>0.001191553421564778</v>
+        <v>0.001176102283299753</v>
       </c>
       <c r="EN4">
-        <v>5.890162012274064E-05</v>
+        <v>3.936405703982567E-05</v>
       </c>
       <c r="EO4">
-        <v>0.007092423533133971</v>
+        <v>0.007098261781457449</v>
       </c>
       <c r="EP4">
-        <v>0.009570906369985305</v>
+        <v>0.009585686584200091</v>
       </c>
       <c r="EQ4">
-        <v>0.01225648519320433</v>
+        <v>0.01228095454219084</v>
       </c>
       <c r="ER4">
-        <v>0.01174110922712948</v>
+        <v>0.0117637191828447</v>
       </c>
       <c r="ES4">
-        <v>0.005371749946399069</v>
+        <v>0.005371380282247265</v>
       </c>
       <c r="ET4">
-        <v>0.00263843012632264</v>
+        <v>0.002628199085590875</v>
       </c>
       <c r="EU4">
-        <v>0.004881743678654233</v>
+        <v>0.004879606151006441</v>
       </c>
       <c r="EV4">
-        <v>0.02690091022922008</v>
+        <v>0.02697821429919914</v>
       </c>
       <c r="EW4">
-        <v>0.05663405327200555</v>
+        <v>0.0568186297212712</v>
       </c>
       <c r="EX4">
-        <v>0.01739672985484247</v>
+        <v>0.01743974437660724</v>
       </c>
       <c r="EY4">
-        <v>0.0002954096505543578</v>
+        <v>0.0002767253702578699</v>
       </c>
       <c r="EZ4">
-        <v>9.074743402645738E-05</v>
+        <v>7.132476549817639E-05</v>
       </c>
       <c r="FA4">
-        <v>0.002459385238108453</v>
+        <v>0.002448508232329192</v>
       </c>
       <c r="FB4">
-        <v>3.438941773628142E-05</v>
+        <v>1.476341858497751E-05</v>
       </c>
       <c r="FC4">
-        <v>0.009497758374800346</v>
+        <v>0.009512274682859222</v>
       </c>
       <c r="FD4">
-        <v>0.001015673933142225</v>
+        <v>0.0009995882500810566</v>
       </c>
       <c r="FE4">
-        <v>0.0001474939102910626</v>
+        <v>0.0001282759738866702</v>
       </c>
       <c r="FF4">
-        <v>2.591574229406977E-05</v>
+        <v>6.259171489958077E-06</v>
       </c>
       <c r="FG4">
-        <v>0.0002508197034895366</v>
+        <v>0.0002319745498636794</v>
       </c>
       <c r="FH4">
-        <v>0.005302999650924628</v>
+        <v>0.005302381946807403</v>
       </c>
       <c r="FI4">
-        <v>0.001302504714261296</v>
+        <v>0.001287453870345757</v>
       </c>
       <c r="FJ4">
-        <v>0.02381918943207751</v>
+        <v>0.02388537515100533</v>
       </c>
       <c r="FK4">
-        <v>0.02775520817298505</v>
+        <v>0.02783559441200744</v>
       </c>
       <c r="FL4">
-        <v>0.007154582529042291</v>
+        <v>0.007160645036986608</v>
       </c>
       <c r="FM4">
-        <v>0.002190215555826822</v>
+        <v>0.002178367429294918</v>
       </c>
       <c r="FN4">
-        <v>0.0005742161622016342</v>
+        <v>0.0005565377707821464</v>
       </c>
       <c r="FO4">
-        <v>0.007907772479462793</v>
+        <v>0.007916552375135682</v>
       </c>
       <c r="FP4">
-        <v>0.01012998233318356</v>
+        <v>0.0101467796032033</v>
       </c>
       <c r="FQ4">
-        <v>0.006550796568787119</v>
+        <v>0.006554680714476117</v>
       </c>
       <c r="FR4">
-        <v>0.006090593099080483</v>
+        <v>0.006092816904956757</v>
       </c>
       <c r="FS4">
-        <v>0.001243387518152746</v>
+        <v>0.001228123388938905</v>
       </c>
       <c r="FT4">
-        <v>0.008228629458342055</v>
+        <v>0.008238566954188108</v>
       </c>
       <c r="FU4">
-        <v>0.0007983450874481185</v>
+        <v>0.0007814753170023212</v>
       </c>
       <c r="FV4">
-        <v>0.0002564822631167929</v>
+        <v>0.0002376575390917752</v>
       </c>
       <c r="FW4">
-        <v>6.741266556249239E-05</v>
+        <v>4.790580895730244E-05</v>
       </c>
       <c r="FX4">
-        <v>5.616430630292713E-06</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>8.71550142629321E-05</v>
+        <v>6.771938486418831E-05</v>
       </c>
       <c r="FZ4">
-        <v>6.183232592982394E-08</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.002380269443316331</v>
+        <v>0.002369107000523759</v>
       </c>
       <c r="GB4">
-        <v>0.0002046862665263173</v>
+        <v>0.0001856746709087543</v>
       </c>
       <c r="GC4">
-        <v>8.071262468700897E-05</v>
+        <v>6.12537521868848E-05</v>
       </c>
       <c r="GD4">
-        <v>0.003150393492622128</v>
+        <v>0.00314200953305267</v>
       </c>
       <c r="GE4">
-        <v>0.005685061325775027</v>
+        <v>0.005685822038491718</v>
       </c>
       <c r="GF4">
-        <v>0.001988297169118307</v>
+        <v>0.00197572055364957</v>
       </c>
       <c r="GG4">
-        <v>0.002007499667854283</v>
+        <v>0.001994992331900486</v>
       </c>
       <c r="GH4">
-        <v>0.001961931470853855</v>
+        <v>0.001949259732202873</v>
       </c>
       <c r="GI4">
-        <v>4.28969471762646E-05</v>
+        <v>2.330164181752626E-05</v>
       </c>
       <c r="GJ4">
-        <v>0.0005150377060971165</v>
+        <v>0.0004971458083631533</v>
       </c>
       <c r="GK4">
-        <v>0.003866035245514278</v>
+        <v>0.003860233205839367</v>
       </c>
       <c r="GL4">
-        <v>0.002380269443316331</v>
+        <v>0.002369107000523759</v>
       </c>
       <c r="GM4">
-        <v>0.0009276939389335981</v>
+        <v>0.0009112908382588663</v>
       </c>
       <c r="GN4">
-        <v>0.001712501587272833</v>
+        <v>0.001698929945875665</v>
       </c>
       <c r="GO4">
-        <v>0.002571606630721365</v>
+        <v>0.002561134501607014</v>
       </c>
       <c r="GP4">
-        <v>0.008292554454134127</v>
+        <v>0.008302722581043457</v>
       </c>
       <c r="GQ4">
-        <v>0.0104683798109082</v>
+        <v>0.0104863979643888</v>
       </c>
       <c r="GR4">
-        <v>0.006153017294971347</v>
+        <v>0.006155466317267177</v>
       </c>
       <c r="GS4">
-        <v>0.003169229791382209</v>
+        <v>0.003160913790137307</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.613143968190198E-05</v>
+        <v>4.086506810615947E-06</v>
       </c>
       <c r="C5">
-        <v>8.405129334258129E-05</v>
+        <v>7.21616159565903E-05</v>
       </c>
       <c r="D5">
-        <v>0.0009133032819904503</v>
+        <v>0.0009033091611021603</v>
       </c>
       <c r="E5">
-        <v>0.0003561047729779223</v>
+        <v>0.0003448369725944644</v>
       </c>
       <c r="F5">
-        <v>2.74538884586331E-05</v>
+        <v>1.543483715488315E-05</v>
       </c>
       <c r="G5">
-        <v>0.0002001281760536457</v>
+        <v>0.0001885038345272824</v>
       </c>
       <c r="H5">
-        <v>0.0001579820468847309</v>
+        <v>0.0001462613650780996</v>
       </c>
       <c r="I5">
-        <v>5.134688898748382E-06</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2.914402242530512E-05</v>
+        <v>1.712883453637524E-05</v>
       </c>
       <c r="K5">
-        <v>1.205425276230058E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>5.647919388627922E-05</v>
+        <v>4.452649045634124E-05</v>
       </c>
       <c r="M5">
-        <v>9.035495821827847E-06</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>3.991192921297132E-08</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>5.326253894970887E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0001350186773375486</v>
+        <v>0.0001232455044124755</v>
       </c>
       <c r="Q5">
-        <v>0.0004077053419604038</v>
+        <v>0.0003965554934120441</v>
       </c>
       <c r="R5">
-        <v>3.552024629957151E-07</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1.604296868364655E-07</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>6.250748876740646E-05</v>
+        <v>5.056856519412051E-05</v>
       </c>
       <c r="U5">
-        <v>2.297187854701445E-05</v>
+        <v>1.094258198232206E-05</v>
       </c>
       <c r="V5">
-        <v>3.394229433068735E-05</v>
+        <v>2.193807463431232E-05</v>
       </c>
       <c r="W5">
-        <v>1.660814367250179E-06</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>5.975262182173005E-05</v>
+        <v>4.780740099982646E-05</v>
       </c>
       <c r="Y5">
-        <v>1.727237765940367E-05</v>
+        <v>5.230052816107121E-06</v>
       </c>
       <c r="Z5">
-        <v>0.0002747589945819906</v>
+        <v>0.0002633052488876865</v>
       </c>
       <c r="AA5">
-        <v>0.0005768156886256942</v>
+        <v>0.0005660524031737612</v>
       </c>
       <c r="AB5">
-        <v>1.804912164408695E-05</v>
+        <v>6.008572331180891E-06</v>
       </c>
       <c r="AC5">
-        <v>1.397937872433876E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1.857242963376778E-05</v>
+        <v>6.533076531270271E-06</v>
       </c>
       <c r="AE5">
-        <v>3.761540925825671E-05</v>
+        <v>2.561958579965147E-05</v>
       </c>
       <c r="AF5">
-        <v>0.0008161433839063594</v>
+        <v>0.0008059271687950219</v>
       </c>
       <c r="AG5">
-        <v>0.0005621569489147519</v>
+        <v>0.000551360155591041</v>
       </c>
       <c r="AH5">
-        <v>0.0001771299065071516</v>
+        <v>0.0001654529940857268</v>
       </c>
       <c r="AI5">
-        <v>9.972687803347233E-05</v>
+        <v>8.78730328876482E-05</v>
       </c>
       <c r="AJ5">
-        <v>2.917568942468067E-07</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>5.840064284838991E-08</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0001282913274702061</v>
+        <v>0.0001165027767445031</v>
       </c>
       <c r="AM5">
-        <v>2.371665153232817E-06</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0001556673069303755</v>
+        <v>0.0001439413339451628</v>
       </c>
       <c r="AO5">
-        <v>5.447858192572954E-05</v>
+        <v>4.252130537079082E-05</v>
       </c>
       <c r="AP5">
-        <v>0.0001001120380258773</v>
+        <v>8.82590733030564E-05</v>
       </c>
       <c r="AQ5">
-        <v>4.750422906325775E-05</v>
+        <v>3.553101009266407E-05</v>
       </c>
       <c r="AR5">
-        <v>6.363438874518497E-06</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0003073183139399491</v>
+        <v>0.0002959389943913939</v>
       </c>
       <c r="AT5">
-        <v>0.0001377511972836657</v>
+        <v>0.0001259842705250292</v>
       </c>
       <c r="AU5">
-        <v>0.0001400546972382427</v>
+        <v>0.0001282930359650872</v>
       </c>
       <c r="AV5">
-        <v>0.05390038593713108</v>
+        <v>0.05401151303174321</v>
       </c>
       <c r="AW5">
-        <v>0.01477507870864824</v>
+        <v>0.01479677070831122</v>
       </c>
       <c r="AX5">
-        <v>0.007418170453720104</v>
+        <v>0.007423045568483765</v>
       </c>
       <c r="AY5">
-        <v>0.01934388261855539</v>
+        <v>0.0193760182783563</v>
       </c>
       <c r="AZ5">
-        <v>0.06356615474653048</v>
+        <v>0.06369937646512032</v>
       </c>
       <c r="BA5">
-        <v>0.01334080773693083</v>
+        <v>0.01335922118954523</v>
       </c>
       <c r="BB5">
-        <v>5.593075889709388E-05</v>
+        <v>4.397680181986707E-05</v>
       </c>
       <c r="BC5">
-        <v>0.01065372378991779</v>
+        <v>0.01066599493656808</v>
       </c>
       <c r="BD5">
-        <v>8.767328827115869E-05</v>
+        <v>7.579189026961959E-05</v>
       </c>
       <c r="BE5">
-        <v>0.03172749637436125</v>
+        <v>0.03178793927953653</v>
       </c>
       <c r="BF5">
-        <v>0.002242104755787636</v>
+        <v>0.002235148093117466</v>
       </c>
       <c r="BG5">
-        <v>0.02476730751161015</v>
+        <v>0.02481184037809438</v>
       </c>
       <c r="BH5">
-        <v>0.008343269835477944</v>
+        <v>0.008350259600755703</v>
       </c>
       <c r="BI5">
-        <v>0.002116489658264657</v>
+        <v>0.002109245856681854</v>
       </c>
       <c r="BJ5">
-        <v>0.002403045252614029</v>
+        <v>0.002396456477882241</v>
       </c>
       <c r="BK5">
-        <v>0.005976146882155559</v>
+        <v>0.005977725728488952</v>
       </c>
       <c r="BL5">
-        <v>0.0006861717464692874</v>
+        <v>0.0006756584339916085</v>
       </c>
       <c r="BM5">
-        <v>0.0002819232944407168</v>
+        <v>0.0002704859253548919</v>
       </c>
       <c r="BN5">
-        <v>0.0001327571173821446</v>
+        <v>0.0001209787748406858</v>
       </c>
       <c r="BO5">
-        <v>0.002506797650568122</v>
+        <v>0.002500446039611382</v>
       </c>
       <c r="BP5">
-        <v>0.00123606697562583</v>
+        <v>0.001226810648345596</v>
       </c>
       <c r="BQ5">
-        <v>0.002271285655212214</v>
+        <v>0.002264395696082428</v>
       </c>
       <c r="BR5">
-        <v>0.002280610055028345</v>
+        <v>0.002273741410199761</v>
       </c>
       <c r="BS5">
-        <v>2.89363774293997E-05</v>
+        <v>1.692071489244172E-05</v>
       </c>
       <c r="BT5">
-        <v>0.001994969560660928</v>
+        <v>0.001987447980774585</v>
       </c>
       <c r="BU5">
-        <v>7.436434853359946E-05</v>
+        <v>6.245252811819533E-05</v>
       </c>
       <c r="BV5">
-        <v>0.00185699026338176</v>
+        <v>0.001849153281715155</v>
       </c>
       <c r="BW5">
-        <v>5.87994488405258E-06</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.002723793946289142</v>
+        <v>0.002717938359151413</v>
       </c>
       <c r="BY5">
-        <v>0.0008329805435743451</v>
+        <v>0.0008228028159045194</v>
       </c>
       <c r="BZ5">
-        <v>0.00185699026338176</v>
+        <v>0.001849153281715155</v>
       </c>
       <c r="CA5">
-        <v>0.0006661188868647125</v>
+        <v>0.0006555597362957883</v>
       </c>
       <c r="CB5">
-        <v>6.495936271905763E-05</v>
+        <v>5.302604379389338E-05</v>
       </c>
       <c r="CC5">
-        <v>0.001578333368876633</v>
+        <v>0.001569859415705299</v>
       </c>
       <c r="CD5">
-        <v>0.00108158297867212</v>
+        <v>0.001071973522128135</v>
       </c>
       <c r="CE5">
-        <v>0.001592363768599966</v>
+        <v>0.001583921887001235</v>
       </c>
       <c r="CF5">
-        <v>0.002312214254405138</v>
+        <v>0.002305417852448809</v>
       </c>
       <c r="CG5">
-        <v>0.0005987338281934875</v>
+        <v>0.0005880206446073855</v>
       </c>
       <c r="CH5">
-        <v>0.001355007573280424</v>
+        <v>0.001346023127920055</v>
       </c>
       <c r="CI5">
-        <v>0.0006303078875708743</v>
+        <v>0.000619666877961116</v>
       </c>
       <c r="CJ5">
-        <v>0.005264787896182943</v>
+        <v>0.005264740673279821</v>
       </c>
       <c r="CK5">
-        <v>0.002389377352883548</v>
+        <v>0.002382757335204503</v>
       </c>
       <c r="CL5">
-        <v>0.000222184555618713</v>
+        <v>0.0002106106319558854</v>
       </c>
       <c r="CM5">
-        <v>0.007080610260376498</v>
+        <v>0.007084713758759835</v>
       </c>
       <c r="CN5">
-        <v>0.02883073443148289</v>
+        <v>0.02888455573550642</v>
       </c>
       <c r="CO5">
-        <v>0.005779214886038888</v>
+        <v>0.005780343572794788</v>
       </c>
       <c r="CP5">
-        <v>0.0098547838056722</v>
+        <v>0.009865228684916268</v>
       </c>
       <c r="CQ5">
-        <v>0.03521005930568813</v>
+        <v>0.03527846287286181</v>
       </c>
       <c r="CR5">
-        <v>0.02775238745274695</v>
+        <v>0.02780374380323369</v>
       </c>
       <c r="CS5">
-        <v>0.001634284667773322</v>
+        <v>0.00162593861160993</v>
       </c>
       <c r="CT5">
-        <v>0.006084559880017749</v>
+        <v>0.006086386543619411</v>
       </c>
       <c r="CU5">
-        <v>0.00358423092932207</v>
+        <v>0.003580342183309086</v>
       </c>
       <c r="CV5">
-        <v>0.001938014161784039</v>
+        <v>0.001930362389654689</v>
       </c>
       <c r="CW5">
-        <v>0.0001399291772407178</v>
+        <v>0.0001281672290460353</v>
       </c>
       <c r="CX5">
-        <v>0.005835345384932043</v>
+        <v>0.005836602378322541</v>
       </c>
       <c r="CY5">
-        <v>0.0182053686410059</v>
+        <v>0.0182349018137493</v>
       </c>
       <c r="CZ5">
-        <v>0.02725691146251731</v>
+        <v>0.02730713522273524</v>
       </c>
       <c r="DA5">
-        <v>0.01642044967620295</v>
+        <v>0.01644590276859935</v>
       </c>
       <c r="DB5">
-        <v>1.274239574873099E-05</v>
+        <v>6.897159870709098E-07</v>
       </c>
       <c r="DC5">
-        <v>0.003973733521641417</v>
+        <v>0.003970735125220414</v>
       </c>
       <c r="DD5">
-        <v>0.008661529829202133</v>
+        <v>0.008669247093246638</v>
       </c>
       <c r="DE5">
-        <v>0.03909786922902388</v>
+        <v>0.03917515979732978</v>
       </c>
       <c r="DF5">
-        <v>0.04448338912282609</v>
+        <v>0.04457299025217731</v>
       </c>
       <c r="DG5">
-        <v>0.01384865472691652</v>
+        <v>0.01386822904821124</v>
       </c>
       <c r="DH5">
-        <v>0.001681601866840268</v>
+        <v>0.001673363971314863</v>
       </c>
       <c r="DI5">
-        <v>0.0001556673069303755</v>
+        <v>0.0001439413339451628</v>
       </c>
       <c r="DJ5">
-        <v>0.002136292157874169</v>
+        <v>0.002129093622093944</v>
       </c>
       <c r="DK5">
-        <v>0.001885519362819191</v>
+        <v>0.001877747594767449</v>
       </c>
       <c r="DL5">
-        <v>0.005734725286916184</v>
+        <v>0.005735752276540391</v>
       </c>
       <c r="DM5">
-        <v>0.002398940652694968</v>
+        <v>0.002392342495409802</v>
       </c>
       <c r="DN5">
-        <v>0.000838631053462922</v>
+        <v>0.0008284662420849848</v>
       </c>
       <c r="DO5">
-        <v>0.0003415042532658319</v>
+        <v>0.0003302030780935416</v>
       </c>
       <c r="DP5">
-        <v>0.002778537545209646</v>
+        <v>0.002772807094443082</v>
       </c>
       <c r="DQ5">
-        <v>0.001853382363452905</v>
+        <v>0.001845537134621087</v>
       </c>
       <c r="DR5">
-        <v>0.009804954806654784</v>
+        <v>0.009815285783630116</v>
       </c>
       <c r="DS5">
-        <v>0.02660625147534777</v>
+        <v>0.026654987915929</v>
       </c>
       <c r="DT5">
-        <v>0.02008631760391521</v>
+        <v>0.02012015036843204</v>
       </c>
       <c r="DU5">
-        <v>0.009359469815439362</v>
+        <v>0.009368782474724431</v>
       </c>
       <c r="DV5">
-        <v>0.0008773793826988385</v>
+        <v>0.0008673031446957786</v>
       </c>
       <c r="DW5">
-        <v>0.003109618738681012</v>
+        <v>0.003104645094188225</v>
       </c>
       <c r="DX5">
-        <v>0.007788212346423198</v>
+        <v>0.007793933326284244</v>
       </c>
       <c r="DY5">
-        <v>0.006898534363966877</v>
+        <v>0.006902221661782426</v>
       </c>
       <c r="DZ5">
-        <v>0.005885833883936454</v>
+        <v>0.005887206287122354</v>
       </c>
       <c r="EA5">
-        <v>0.0007798628446217802</v>
+        <v>0.0007695636971654831</v>
       </c>
       <c r="EB5">
-        <v>0.0002034519659881034</v>
+        <v>0.0001918352221904083</v>
       </c>
       <c r="EC5">
-        <v>0.00117823277676627</v>
+        <v>0.001168844248426602</v>
       </c>
       <c r="ED5">
-        <v>0.001325364973864951</v>
+        <v>0.001316312769581238</v>
       </c>
       <c r="EE5">
-        <v>5.419455093133039E-05</v>
+        <v>4.223662512043045E-05</v>
       </c>
       <c r="EF5">
-        <v>9.632557310054314E-06</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>9.8892122049933E-05</v>
+        <v>8.70363687662325E-05</v>
       </c>
       <c r="EH5">
-        <v>0.001372143872942511</v>
+        <v>0.001363198598816719</v>
       </c>
       <c r="EI5">
-        <v>0.001133260377653087</v>
+        <v>0.001123769048567055</v>
       </c>
       <c r="EJ5">
-        <v>5.326253894970887E-06</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.0005483404891872004</v>
+        <v>0.0005375121133284215</v>
       </c>
       <c r="EL5">
-        <v>9.632557310054314E-06</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.003382185933306223</v>
+        <v>0.003377835340098094</v>
       </c>
       <c r="EN5">
-        <v>0.005773654586148532</v>
+        <v>0.005774770562820247</v>
       </c>
       <c r="EO5">
-        <v>0.003133611738207891</v>
+        <v>0.003128692938426694</v>
       </c>
       <c r="EP5">
-        <v>0.003640246728217487</v>
+        <v>0.003636486026650612</v>
       </c>
       <c r="EQ5">
-        <v>0.0006460937872595901</v>
+        <v>0.0006354888620549784</v>
       </c>
       <c r="ER5">
-        <v>7.236027857311797E-05</v>
+        <v>6.044387712819876E-05</v>
       </c>
       <c r="ES5">
-        <v>0.0007713092847904489</v>
+        <v>0.0007609905850676047</v>
       </c>
       <c r="ET5">
-        <v>0.004099684219157778</v>
+        <v>0.00409697372878504</v>
       </c>
       <c r="EU5">
-        <v>0.003294458535036131</v>
+        <v>0.00328990740900795</v>
       </c>
       <c r="EV5">
-        <v>0.002934650942131225</v>
+        <v>0.002929277345213628</v>
       </c>
       <c r="EW5">
-        <v>0.003801392525039832</v>
+        <v>0.003798000180699017</v>
       </c>
       <c r="EX5">
-        <v>0.003936856922368591</v>
+        <v>0.003933774231091114</v>
       </c>
       <c r="EY5">
-        <v>0.006873047864469448</v>
+        <v>0.006876676903636978</v>
       </c>
       <c r="EZ5">
-        <v>0.009616807810364879</v>
+        <v>0.009626708709069405</v>
       </c>
       <c r="FA5">
-        <v>0.009518486812303686</v>
+        <v>0.009528162962669605</v>
       </c>
       <c r="FB5">
-        <v>0.007122963859541322</v>
+        <v>0.007127164172452928</v>
       </c>
       <c r="FC5">
-        <v>0.000763574254942977</v>
+        <v>0.0007532378740010488</v>
       </c>
       <c r="FD5">
-        <v>0.0009741969207896805</v>
+        <v>0.0009643419944216023</v>
       </c>
       <c r="FE5">
-        <v>0.006966836862620012</v>
+        <v>0.006970680290594914</v>
       </c>
       <c r="FF5">
-        <v>0.01888214162766052</v>
+        <v>0.01891322181078181</v>
       </c>
       <c r="FG5">
-        <v>0.01870606263113265</v>
+        <v>0.01873674032177813</v>
       </c>
       <c r="FH5">
-        <v>0.01434718971708584</v>
+        <v>0.01436790362110437</v>
       </c>
       <c r="FI5">
-        <v>0.008135446839576035</v>
+        <v>0.008141961549942083</v>
       </c>
       <c r="FJ5">
-        <v>0.000862555582991151</v>
+        <v>0.0008524454598117621</v>
       </c>
       <c r="FK5">
-        <v>7.268842356664724E-05</v>
+        <v>6.077277221625079E-05</v>
       </c>
       <c r="FL5">
-        <v>0.001718880966105156</v>
+        <v>0.001710728285496095</v>
       </c>
       <c r="FM5">
-        <v>0.002158287657440437</v>
+        <v>0.002151139400360407</v>
       </c>
       <c r="FN5">
-        <v>0.004262856615940159</v>
+        <v>0.004260519115323491</v>
       </c>
       <c r="FO5">
-        <v>0.004052231520093505</v>
+        <v>0.00404941255934834</v>
       </c>
       <c r="FP5">
-        <v>0.0004944086402506898</v>
+        <v>0.0004834569835700568</v>
       </c>
       <c r="FQ5">
-        <v>0.002030041759969335</v>
+        <v>0.002022600350328222</v>
       </c>
       <c r="FR5">
-        <v>0.006541496871007348</v>
+        <v>0.00654436803000265</v>
       </c>
       <c r="FS5">
-        <v>0.01240638975535674</v>
+        <v>0.01242266725641385</v>
       </c>
       <c r="FT5">
-        <v>0.01035042279589863</v>
+        <v>0.01036200063800718</v>
       </c>
       <c r="FU5">
-        <v>0.005214260297179303</v>
+        <v>0.005214097575103535</v>
       </c>
       <c r="FV5">
-        <v>0.001137023277578886</v>
+        <v>0.001127540549966836</v>
       </c>
       <c r="FW5">
-        <v>0.001705732666364429</v>
+        <v>0.001697549930542539</v>
       </c>
       <c r="FX5">
-        <v>0.00457579730976924</v>
+        <v>0.004574175148728122</v>
       </c>
       <c r="FY5">
-        <v>0.005885833883936454</v>
+        <v>0.005887206287122354</v>
       </c>
       <c r="FZ5">
-        <v>0.006069322880318209</v>
+        <v>0.006071114714224939</v>
       </c>
       <c r="GA5">
-        <v>0.005734725286916184</v>
+        <v>0.005735752276540391</v>
       </c>
       <c r="GB5">
-        <v>0.007702207548119138</v>
+        <v>0.007707731932787782</v>
       </c>
       <c r="GC5">
-        <v>0.001113607278040629</v>
+        <v>0.001104071024659956</v>
       </c>
       <c r="GD5">
-        <v>0.0003216771936568043</v>
+        <v>0.00031033069654114</v>
       </c>
       <c r="GE5">
-        <v>0.001358092773219587</v>
+        <v>0.001349115380203826</v>
       </c>
       <c r="GF5">
-        <v>0.003760838525839522</v>
+        <v>0.003757353480609539</v>
       </c>
       <c r="GG5">
-        <v>0.008030015841655042</v>
+        <v>0.008036289551196367</v>
       </c>
       <c r="GH5">
-        <v>0.007549522851129948</v>
+        <v>0.007554698219488183</v>
       </c>
       <c r="GI5">
-        <v>0.005381678893877953</v>
+        <v>0.005381898867789837</v>
       </c>
       <c r="GJ5">
-        <v>0.006133400879054647</v>
+        <v>0.006135339186492375</v>
       </c>
       <c r="GK5">
-        <v>0.005011384301179842</v>
+        <v>0.005010757832356753</v>
       </c>
       <c r="GL5">
-        <v>0.00397088232169764</v>
+        <v>0.003967877407823978</v>
       </c>
       <c r="GM5">
-        <v>0.004424792112746932</v>
+        <v>0.004422824774502357</v>
       </c>
       <c r="GN5">
-        <v>0.001650125767460949</v>
+        <v>0.001641815921882343</v>
       </c>
       <c r="GO5">
-        <v>0.000825246083726862</v>
+        <v>0.0008150506761408939</v>
       </c>
       <c r="GP5">
-        <v>0.002487792950942878</v>
+        <v>0.002481397897845082</v>
       </c>
       <c r="GQ5">
-        <v>0.001212988676080914</v>
+        <v>0.001203679594968001</v>
       </c>
       <c r="GR5">
-        <v>4.154555318075767E-05</v>
+        <v>2.955871349301E-05</v>
       </c>
       <c r="GS5">
-        <v>0.0002129677558004603</v>
+        <v>0.000201372763795292</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.150377995643334E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3.00655868861368E-07</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3.129440288148307E-05</v>
+        <v>2.237571319895949E-05</v>
       </c>
       <c r="E6">
-        <v>6.587605975051679E-05</v>
+        <v>5.701592646964008E-05</v>
       </c>
       <c r="F6">
-        <v>0.0001073651945933908</v>
+        <v>9.857531400321198E-05</v>
       </c>
       <c r="G6">
-        <v>0.0001067511295957164</v>
+        <v>9.796020922202522E-05</v>
       </c>
       <c r="H6">
-        <v>2.976425488727799E-05</v>
+        <v>2.084297423692232E-05</v>
       </c>
       <c r="I6">
-        <v>2.157213191830288E-05</v>
+        <v>1.26369797161957E-05</v>
       </c>
       <c r="J6">
-        <v>8.956513966080245E-06</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.102236995825652E-07</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>4.174602484190111E-06</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1.04977589602433E-05</v>
+        <v>1.543854752314793E-06</v>
       </c>
       <c r="N6">
-        <v>1.168318195575392E-05</v>
+        <v>2.731284999973832E-06</v>
       </c>
       <c r="O6">
-        <v>1.476176694409482E-05</v>
+        <v>5.815082892362801E-06</v>
       </c>
       <c r="P6">
-        <v>0.0002115403891988626</v>
+        <v>0.0002029269063029893</v>
       </c>
       <c r="Q6">
-        <v>0.00028289269892864</v>
+        <v>0.0002744000354175286</v>
       </c>
       <c r="R6">
-        <v>0.0003108343788228203</v>
+        <v>0.000302389028378193</v>
       </c>
       <c r="S6">
-        <v>0.0001052988096012165</v>
+        <v>9.650543004422946E-05</v>
       </c>
       <c r="T6">
-        <v>6.205863976497398E-05</v>
+        <v>5.319204252608697E-05</v>
       </c>
       <c r="U6">
-        <v>0.000107543639592715</v>
+        <v>9.875406115974893E-05</v>
       </c>
       <c r="V6">
-        <v>6.6498899748158E-05</v>
+        <v>5.763982110931889E-05</v>
       </c>
       <c r="W6">
-        <v>8.800690566670373E-05</v>
+        <v>7.918424608777141E-05</v>
       </c>
       <c r="X6">
-        <v>3.011161688596248E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>1.719330593488619E-06</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>2.87541548911034E-06</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1.371062394807567E-07</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>2.259466391443038E-05</v>
+        <v>1.366124314452406E-05</v>
       </c>
       <c r="AC6">
-        <v>5.250418980115821E-05</v>
+        <v>4.362141421050179E-05</v>
       </c>
       <c r="AD6">
-        <v>9.330478464663982E-05</v>
+        <v>8.449109585619808E-05</v>
       </c>
       <c r="AE6">
-        <v>0.0001520307394242352</v>
+        <v>0.0001433164900738433</v>
       </c>
       <c r="AF6">
-        <v>5.136370180547743E-05</v>
+        <v>4.247899505017492E-05</v>
       </c>
       <c r="AG6">
-        <v>4.465148183089768E-05</v>
+        <v>3.575540941286067E-05</v>
       </c>
       <c r="AH6">
-        <v>3.611495786322687E-05</v>
+        <v>2.720443072637716E-05</v>
       </c>
       <c r="AI6">
-        <v>3.6607639861361E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>3.051032988445249E-05</v>
+        <v>2.159031254740071E-05</v>
       </c>
       <c r="AK6">
-        <v>4.209840984056658E-06</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>1.499066594322794E-05</v>
+        <v>6.044369481419119E-06</v>
       </c>
       <c r="AM6">
-        <v>6.997422573499638E-06</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>4.139133284324438E-05</v>
+        <v>3.248974008260862E-05</v>
       </c>
       <c r="AO6">
-        <v>0.0001089844695872583</v>
+        <v>0.0001001973308818098</v>
       </c>
       <c r="AP6">
-        <v>0.0001351757994880676</v>
+        <v>0.0001264330100177973</v>
       </c>
       <c r="AQ6">
-        <v>0.0001263545395214751</v>
+        <v>0.0001175968131948364</v>
       </c>
       <c r="AR6">
-        <v>0.0001829426793071667</v>
+        <v>0.000174280772502834</v>
       </c>
       <c r="AS6">
-        <v>0.0002902600989007385</v>
+        <v>0.0002817799104550496</v>
       </c>
       <c r="AT6">
-        <v>0.0001829426793071667</v>
+        <v>0.000174280772502834</v>
       </c>
       <c r="AU6">
-        <v>0.0003744833485817715</v>
+        <v>0.0003661457736162581</v>
       </c>
       <c r="AV6">
-        <v>0.05400070979549065</v>
+        <v>0.05408317639646511</v>
       </c>
       <c r="AW6">
-        <v>0.001828035693076936</v>
+        <v>0.00182215938812001</v>
       </c>
       <c r="AX6">
-        <v>0.05478443979252254</v>
+        <v>0.05486823346723041</v>
       </c>
       <c r="AY6">
-        <v>0.01294887895096052</v>
+        <v>0.01296183333901887</v>
       </c>
       <c r="AZ6">
-        <v>0.02505693990510535</v>
+        <v>0.02509039662140902</v>
       </c>
       <c r="BA6">
-        <v>2.569089190270447E-05</v>
+        <v>1.676271391137173E-05</v>
       </c>
       <c r="BB6">
-        <v>0.002163571491806208</v>
+        <v>0.002158263342651409</v>
       </c>
       <c r="BC6">
-        <v>0.0001061123695981354</v>
+        <v>9.732036762540132E-05</v>
       </c>
       <c r="BD6">
-        <v>0.0001312940295027685</v>
+        <v>0.0001225446671119692</v>
       </c>
       <c r="BE6">
-        <v>0.02906044388994344</v>
+        <v>0.02910067965643024</v>
       </c>
       <c r="BF6">
-        <v>0.01395861394713649</v>
+        <v>0.01397327809850136</v>
       </c>
       <c r="BG6">
-        <v>0.005716017378352525</v>
+        <v>0.005716724512067173</v>
       </c>
       <c r="BH6">
-        <v>0.02043579292260637</v>
+        <v>0.0204614247466615</v>
       </c>
       <c r="BI6">
-        <v>0.007529304371485317</v>
+        <v>0.00753308190642085</v>
       </c>
       <c r="BJ6">
-        <v>0.01070740295944935</v>
+        <v>0.01071656190274524</v>
       </c>
       <c r="BK6">
-        <v>0.01345803694903226</v>
+        <v>0.01347185348375842</v>
       </c>
       <c r="BL6">
-        <v>0.002041015992270345</v>
+        <v>0.002035500322432484</v>
       </c>
       <c r="BM6">
-        <v>2.857515389178131E-05</v>
+        <v>1.96518597613962E-05</v>
       </c>
       <c r="BN6">
-        <v>0.00866429096718694</v>
+        <v>0.008669990351362185</v>
       </c>
       <c r="BO6">
-        <v>4.625519482482416E-06</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.02063669992184551</v>
+        <v>0.02066267193755153</v>
       </c>
       <c r="BQ6">
-        <v>0.0001030776596096284</v>
+        <v>9.428051902547254E-05</v>
       </c>
       <c r="BR6">
-        <v>0.00288105568908898</v>
+        <v>0.002876962441030171</v>
       </c>
       <c r="BS6">
-        <v>0.002252808991468251</v>
+        <v>0.002247651946319022</v>
       </c>
       <c r="BT6">
-        <v>0.001272500095180838</v>
+        <v>0.001265683113329143</v>
       </c>
       <c r="BU6">
-        <v>0.005876973977742958</v>
+        <v>0.005877953655925828</v>
       </c>
       <c r="BV6">
-        <v>0.008691692967083164</v>
+        <v>0.008697438750495957</v>
       </c>
       <c r="BW6">
-        <v>4.412429183289423E-05</v>
+        <v>3.522732673497828E-05</v>
       </c>
       <c r="BX6">
-        <v>0.0003745330285815834</v>
+        <v>0.0003661955377381823</v>
       </c>
       <c r="BY6">
-        <v>0.0002677941189858208</v>
+        <v>0.000259275889362745</v>
       </c>
       <c r="BZ6">
-        <v>0.005087975380731021</v>
+        <v>0.005087619063969507</v>
       </c>
       <c r="CA6">
-        <v>0.001007136096185814</v>
+        <v>0.0009998697789836866</v>
       </c>
       <c r="CB6">
-        <v>0.004239278383945173</v>
+        <v>0.004237484986178302</v>
       </c>
       <c r="CC6">
-        <v>0.02019612292351404</v>
+        <v>0.02022134891933535</v>
       </c>
       <c r="CD6">
-        <v>0.001900636392801985</v>
+        <v>0.001894883021102683</v>
       </c>
       <c r="CE6">
-        <v>0.01302101495068733</v>
+        <v>0.01303409148513645</v>
       </c>
       <c r="CF6">
-        <v>0.01386730694748228</v>
+        <v>0.0138818164906002</v>
       </c>
       <c r="CG6">
-        <v>0.008922135966210441</v>
+        <v>0.008928271953969563</v>
       </c>
       <c r="CH6">
-        <v>0.01462070994462903</v>
+        <v>0.01463649520940106</v>
       </c>
       <c r="CI6">
-        <v>0.0005128120980578984</v>
+        <v>0.000504708752292111</v>
       </c>
       <c r="CJ6">
-        <v>0.004655890982367394</v>
+        <v>0.004654803026064381</v>
       </c>
       <c r="CK6">
-        <v>0.005082332480752392</v>
+        <v>0.005081966608985493</v>
       </c>
       <c r="CL6">
-        <v>0.00228295569135408</v>
+        <v>0.00227784969298591</v>
       </c>
       <c r="CM6">
-        <v>0.001105480495813368</v>
+        <v>0.00109838070314146</v>
       </c>
       <c r="CN6">
-        <v>0.0205969359219961</v>
+        <v>0.0206228406061467</v>
       </c>
       <c r="CO6">
-        <v>0.009337711964636588</v>
+        <v>0.009344551638606317</v>
       </c>
       <c r="CP6">
-        <v>0.006666379474753351</v>
+        <v>0.006668695836875926</v>
       </c>
       <c r="CQ6">
-        <v>0.04000655184848877</v>
+        <v>0.04006532243233606</v>
       </c>
       <c r="CR6">
-        <v>0.03345044687331779</v>
+        <v>0.03349811614071807</v>
       </c>
       <c r="CS6">
-        <v>0.000143613419456113</v>
+        <v>0.0001348849172325661</v>
       </c>
       <c r="CT6">
-        <v>0.0287640038910661</v>
+        <v>0.02880373770185702</v>
       </c>
       <c r="CU6">
-        <v>0.01125043795739279</v>
+        <v>0.01126051641057707</v>
       </c>
       <c r="CV6">
-        <v>1.729415493450426E-05</v>
+        <v>8.351758922782984E-06</v>
       </c>
       <c r="CW6">
-        <v>0.001269770595191175</v>
+        <v>0.001262948991533813</v>
       </c>
       <c r="CX6">
-        <v>0.007570557771329083</v>
+        <v>0.007574405159790135</v>
       </c>
       <c r="CY6">
-        <v>0.01090302195870851</v>
+        <v>0.01091251213959472</v>
       </c>
       <c r="CZ6">
-        <v>0.01366105194826341</v>
+        <v>0.01367521224407309</v>
       </c>
       <c r="DA6">
-        <v>0.01286825895126584</v>
+        <v>0.01288107682715241</v>
       </c>
       <c r="DB6">
-        <v>0.001031851696092212</v>
+        <v>0.0010246272293023</v>
       </c>
       <c r="DC6">
-        <v>0.005320581979850103</v>
+        <v>0.005320619531013869</v>
       </c>
       <c r="DD6">
-        <v>0.008684317967111095</v>
+        <v>0.008690051262589543</v>
       </c>
       <c r="DE6">
-        <v>0.03737213485846573</v>
+        <v>0.0374264446387154</v>
       </c>
       <c r="DF6">
-        <v>0.02983056788702685</v>
+        <v>0.02987210768848982</v>
       </c>
       <c r="DG6">
-        <v>0.001121985095750863</v>
+        <v>0.001114913249975386</v>
       </c>
       <c r="DH6">
-        <v>0.001000323296211615</v>
+        <v>0.0009930454430367279</v>
       </c>
       <c r="DI6">
-        <v>0.0001178309245537554</v>
+        <v>0.0001090587653668456</v>
       </c>
       <c r="DJ6">
-        <v>0.002182937991732864</v>
+        <v>0.002177662635470334</v>
       </c>
       <c r="DK6">
-        <v>0.002753871289570648</v>
+        <v>0.002749562682808536</v>
       </c>
       <c r="DL6">
-        <v>0.007584109371277761</v>
+        <v>0.007587979706381669</v>
       </c>
       <c r="DM6">
-        <v>3.877776485314238E-05</v>
+        <v>2.987174659208773E-05</v>
       </c>
       <c r="DN6">
-        <v>1.929533492692547E-06</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.0008168220969065636</v>
+        <v>0.0008092335249604537</v>
       </c>
       <c r="DP6">
-        <v>9.892860962534149E-05</v>
+        <v>9.012444354098324E-05</v>
       </c>
       <c r="DQ6">
-        <v>0.001584672493998591</v>
+        <v>0.001578384107188986</v>
       </c>
       <c r="DR6">
-        <v>0.0036244834862735</v>
+        <v>0.003621649069069796</v>
       </c>
       <c r="DS6">
-        <v>0.02655719589942364</v>
+        <v>0.02659319296805656</v>
       </c>
       <c r="DT6">
-        <v>0.008042428969542032</v>
+        <v>0.008047075367706777</v>
       </c>
       <c r="DU6">
-        <v>0.000532315457984036</v>
+        <v>0.0005242451368527137</v>
       </c>
       <c r="DV6">
-        <v>0.0008861536966439939</v>
+        <v>0.0008786825224563668</v>
       </c>
       <c r="DW6">
-        <v>0.0008247566968765141</v>
+        <v>0.0008171815604238078</v>
       </c>
       <c r="DX6">
-        <v>0.01029789496100022</v>
+        <v>0.0103063604929039</v>
       </c>
       <c r="DY6">
-        <v>0.006394417475783316</v>
+        <v>0.006396273330299077</v>
       </c>
       <c r="DZ6">
-        <v>0.006507225975356091</v>
+        <v>0.006509272846162229</v>
       </c>
       <c r="EA6">
-        <v>0.0001716180593500549</v>
+        <v>0.0001629369768018526</v>
       </c>
       <c r="EB6">
-        <v>0.009021445965834337</v>
+        <v>0.009027750113154107</v>
       </c>
       <c r="EC6">
-        <v>0.004117798484405237</v>
+        <v>0.004115799387246447</v>
       </c>
       <c r="ED6">
-        <v>8.565022467562886E-07</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.0006234907976387404</v>
+        <v>0.0006155748618172179</v>
       </c>
       <c r="EF6">
-        <v>0.0003133260788133839</v>
+        <v>0.0003048849475126218</v>
       </c>
       <c r="EG6">
-        <v>1.722265693477504E-05</v>
+        <v>8.280139856975144E-06</v>
       </c>
       <c r="EH6">
-        <v>6.877655973953214E-05</v>
+        <v>5.992133781507126E-05</v>
       </c>
       <c r="EI6">
-        <v>0.001108112995803398</v>
+        <v>0.001101017660689071</v>
       </c>
       <c r="EJ6">
-        <v>0.0008207845968915571</v>
+        <v>0.0008132027345644086</v>
       </c>
       <c r="EK6">
-        <v>5.423050379462039E-06</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.0005957153577439304</v>
+        <v>0.0005877523903466635</v>
       </c>
       <c r="EM6">
-        <v>0.003362613487265244</v>
+        <v>0.003359335651028749</v>
       </c>
       <c r="EN6">
-        <v>0.0009940762962352737</v>
+        <v>0.0009867878651450169</v>
       </c>
       <c r="EO6">
-        <v>0.0003257018987665147</v>
+        <v>0.0003172817231847521</v>
       </c>
       <c r="EP6">
-        <v>0.001661174093708867</v>
+        <v>0.001655015245469847</v>
       </c>
       <c r="EQ6">
-        <v>0.0005084000280746075</v>
+        <v>0.0005002892114423139</v>
       </c>
       <c r="ER6">
-        <v>0.001518341694249796</v>
+        <v>0.001511940990874032</v>
       </c>
       <c r="ES6">
-        <v>0.003692531286015792</v>
+        <v>0.003689812092738691</v>
       </c>
       <c r="ET6">
-        <v>0.004420033983260623</v>
+        <v>0.004418546655197511</v>
       </c>
       <c r="EU6">
-        <v>0.001075431395927169</v>
+        <v>0.001068280721738255</v>
       </c>
       <c r="EV6">
-        <v>0.00101216459616677</v>
+        <v>0.001004906793619267</v>
       </c>
       <c r="EW6">
-        <v>0.003006488588613946</v>
+        <v>0.003002607733479864</v>
       </c>
       <c r="EX6">
-        <v>0.004992473981092701</v>
+        <v>0.004991955953793828</v>
       </c>
       <c r="EY6">
-        <v>0.005663596578551052</v>
+        <v>0.005664214949213673</v>
       </c>
       <c r="EZ6">
-        <v>0.006838475974101595</v>
+        <v>0.006841083743653721</v>
       </c>
       <c r="FA6">
-        <v>0.004835773981686149</v>
+        <v>0.004834990617531437</v>
       </c>
       <c r="FB6">
-        <v>0.002619554990079325</v>
+        <v>0.002615018948315746</v>
       </c>
       <c r="FC6">
-        <v>0.0002024333792333523</v>
+        <v>0.0001938044756265696</v>
       </c>
       <c r="FD6">
-        <v>0.004928563681334739</v>
+        <v>0.004927937436052091</v>
       </c>
       <c r="FE6">
-        <v>0.01334383394946476</v>
+        <v>0.01335745710662265</v>
       </c>
       <c r="FF6">
-        <v>0.01404053694682623</v>
+        <v>0.01405533981670572</v>
       </c>
       <c r="FG6">
-        <v>0.0129401709509935</v>
+        <v>0.01295311059397629</v>
       </c>
       <c r="FH6">
-        <v>0.009755441963054577</v>
+        <v>0.009762988970558379</v>
       </c>
       <c r="FI6">
-        <v>0.004864885481575898</v>
+        <v>0.004864151411319584</v>
       </c>
       <c r="FJ6">
-        <v>0.0005368894979667134</v>
+        <v>0.0005288269219623349</v>
       </c>
       <c r="FK6">
-        <v>1.236814795315984E-06</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.002059943692198663</v>
+        <v>0.002054460072242144</v>
       </c>
       <c r="FM6">
-        <v>0.00337524388721741</v>
+        <v>0.003371987437774942</v>
       </c>
       <c r="FN6">
-        <v>0.005599952278792082</v>
+        <v>0.005600462881883204</v>
       </c>
       <c r="FO6">
-        <v>0.00382977718549602</v>
+        <v>0.003827290387851227</v>
       </c>
       <c r="FP6">
-        <v>0.0007422781971888735</v>
+        <v>0.0007345634016049337</v>
       </c>
       <c r="FQ6">
-        <v>0.007663564270976853</v>
+        <v>0.007667569145412905</v>
       </c>
       <c r="FR6">
-        <v>0.006695273274643927</v>
+        <v>0.006697638562038009</v>
       </c>
       <c r="FS6">
-        <v>0.006051132977083389</v>
+        <v>0.00605240755508423</v>
       </c>
       <c r="FT6">
-        <v>0.005860303977806089</v>
+        <v>0.005861255429024143</v>
       </c>
       <c r="FU6">
-        <v>0.002054443792219492</v>
+        <v>0.002048950859396518</v>
       </c>
       <c r="FV6">
-        <v>0.001937789292661281</v>
+        <v>0.001932098831196001</v>
       </c>
       <c r="FW6">
-        <v>0.001551668694123582</v>
+        <v>0.001545324422664821</v>
       </c>
       <c r="FX6">
-        <v>0.003254370987675175</v>
+        <v>0.003250909866661283</v>
       </c>
       <c r="FY6">
-        <v>0.005748774378228469</v>
+        <v>0.005749536978690959</v>
       </c>
       <c r="FZ6">
-        <v>0.007377082972061804</v>
+        <v>0.007380602753661873</v>
       </c>
       <c r="GA6">
-        <v>0.005361061979696798</v>
+        <v>0.005361168074803923</v>
       </c>
       <c r="GB6">
-        <v>0.004222383284009158</v>
+        <v>0.004220561278120314</v>
       </c>
       <c r="GC6">
-        <v>2.030496992310182E-05</v>
+        <v>1.136767206189498E-05</v>
       </c>
       <c r="GD6">
-        <v>0.0008843879266506811</v>
+        <v>0.0008769137625213824</v>
       </c>
       <c r="GE6">
-        <v>0.0006479953275459378</v>
+        <v>0.000640120884736183</v>
       </c>
       <c r="GF6">
-        <v>0.001609972593902776</v>
+        <v>0.001603727047227098</v>
       </c>
       <c r="GG6">
-        <v>0.008922135966210441</v>
+        <v>0.008928271953969563</v>
       </c>
       <c r="GH6">
-        <v>0.007584334971276908</v>
+        <v>0.00758820568838461</v>
       </c>
       <c r="GI6">
-        <v>0.003261292387648963</v>
+        <v>0.003257842986497955</v>
       </c>
       <c r="GJ6">
-        <v>0.003130452988144473</v>
+        <v>0.003126782039354564</v>
       </c>
       <c r="GK6">
-        <v>0.002587385690201156</v>
+        <v>0.002582795176829941</v>
       </c>
       <c r="GL6">
-        <v>0.002850344589205288</v>
+        <v>0.002846199338678622</v>
       </c>
       <c r="GM6">
-        <v>0.003514568786689764</v>
+        <v>0.00351154825320713</v>
       </c>
       <c r="GN6">
-        <v>0.0004588217982623683</v>
+        <v>0.000450627031842798</v>
       </c>
       <c r="GO6">
-        <v>0.0001537111194178713</v>
+        <v>0.0001449997154200373</v>
       </c>
       <c r="GP6">
-        <v>0.0005470211579283431</v>
+        <v>0.0005389757376534402</v>
       </c>
       <c r="GQ6">
-        <v>0.001387272794746175</v>
+        <v>0.001380650155123926</v>
       </c>
       <c r="GR6">
-        <v>0.0001443255194534161</v>
+        <v>0.0001355982230140112</v>
       </c>
       <c r="GS6">
-        <v>2.569089190270447E-05</v>
+        <v>1.676271391137173E-05</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>9.475163325091498E-07</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4.555434656296312E-06</v>
+        <v>1.499599866277881E-06</v>
       </c>
       <c r="D2">
-        <v>1.148617059408887E-05</v>
+        <v>6.323362916438836E-06</v>
       </c>
       <c r="E2">
-        <v>2.291576798623672E-05</v>
+        <v>1.564780922797552E-05</v>
       </c>
       <c r="F2">
-        <v>2.323812321729668E-05</v>
+        <v>1.564780922797552E-05</v>
       </c>
       <c r="G2">
-        <v>2.534704868965361E-05</v>
+        <v>1.564780922797552E-05</v>
       </c>
       <c r="H2">
-        <v>2.689143854264141E-05</v>
+        <v>1.564780922797552E-05</v>
       </c>
       <c r="I2">
-        <v>3.02267510570755E-05</v>
+        <v>1.687469289359748E-05</v>
       </c>
       <c r="J2">
-        <v>3.474467021208466E-05</v>
+        <v>1.928466209453312E-05</v>
       </c>
       <c r="K2">
-        <v>5.143733678480766E-05</v>
+        <v>3.387430885840771E-05</v>
       </c>
       <c r="L2">
-        <v>8.030072877510651E-05</v>
+        <v>6.06396095563805E-05</v>
       </c>
       <c r="M2">
-        <v>0.0001021022965231152</v>
+        <v>8.034022633720709E-05</v>
       </c>
       <c r="N2">
-        <v>0.0001229367312379416</v>
+        <v>9.907331844581851E-05</v>
       </c>
       <c r="O2">
-        <v>0.0001518001232282405</v>
+        <v>0.0001258386191437913</v>
       </c>
       <c r="P2">
-        <v>0.0001539090487005974</v>
+        <v>0.0001258386191437913</v>
       </c>
       <c r="Q2">
-        <v>0.0001673537941618847</v>
+        <v>0.0001371790295555759</v>
       </c>
       <c r="R2">
-        <v>0.0001718717133168939</v>
+        <v>0.0001395889987565116</v>
       </c>
       <c r="S2">
-        <v>0.0001731667464613263</v>
+        <v>0.0001395889987565116</v>
       </c>
       <c r="T2">
-        <v>0.0001971146232829745</v>
+        <v>0.0001614367937555331</v>
       </c>
       <c r="U2">
-        <v>0.0002447062889158378</v>
+        <v>0.0002069379520816517</v>
       </c>
       <c r="V2">
-        <v>0.0003302286468500976</v>
+        <v>0.0002903851626846242</v>
       </c>
       <c r="W2">
-        <v>0.0003801183185618051</v>
+        <v>0.0003381852576636112</v>
       </c>
       <c r="X2">
-        <v>0.0004395109605995582</v>
+        <v>0.0003954921711818484</v>
       </c>
       <c r="Y2">
-        <v>0.0004711722186858514</v>
+        <v>0.0004250564709673842</v>
       </c>
       <c r="Z2">
-        <v>0.0004875001012460587</v>
+        <v>0.0004392811860000187</v>
       </c>
       <c r="AA2">
-        <v>0.0004970059685722037</v>
+        <v>0.0004466811232340237</v>
       </c>
       <c r="AB2">
-        <v>0.0005037886033049149</v>
+        <v>0.0004513567251057483</v>
       </c>
       <c r="AC2">
-        <v>0.0005090333004848597</v>
+        <v>0.0004544937666392619</v>
       </c>
       <c r="AD2">
-        <v>0.0005101956951247414</v>
+        <v>0.0004544937666392619</v>
       </c>
       <c r="AE2">
-        <v>0.0005151698409954036</v>
+        <v>0.0004573601473041569</v>
       </c>
       <c r="AF2">
-        <v>0.0005234278752787356</v>
+        <v>0.000463511746187279</v>
       </c>
       <c r="AG2">
-        <v>0.0005234457890423502</v>
+        <v>0.000463511746187279</v>
       </c>
       <c r="AH2">
-        <v>0.0005265660733494067</v>
+        <v>0.0004645235145701818</v>
       </c>
       <c r="AI2">
-        <v>0.0005266473644521958</v>
+        <v>0.0004645235145701818</v>
       </c>
       <c r="AJ2">
-        <v>0.0005269547751227431</v>
+        <v>0.0004645235145701818</v>
       </c>
       <c r="AK2">
-        <v>0.0005372985764776374</v>
+        <v>0.0004727617251530312</v>
       </c>
       <c r="AL2">
-        <v>0.000546702306800278</v>
+        <v>0.0004800594840233095</v>
       </c>
       <c r="AM2">
-        <v>0.0005473064127210048</v>
+        <v>0.0004800594840233095</v>
       </c>
       <c r="AN2">
-        <v>0.0005555644470043368</v>
+        <v>0.0004862110829064316</v>
       </c>
       <c r="AO2">
-        <v>0.0005754536906867339</v>
+        <v>0.0005039986012289601</v>
       </c>
       <c r="AP2">
-        <v>0.0006140225420100257</v>
+        <v>0.0005404732914707423</v>
       </c>
       <c r="AQ2">
-        <v>0.0006384117708468167</v>
+        <v>0.0005627626172097257</v>
       </c>
       <c r="AR2">
-        <v>0.0006555970834364423</v>
+        <v>0.0005778451094867491</v>
       </c>
       <c r="AS2">
-        <v>0.0006564841333168768</v>
+        <v>0.0005778451094867491</v>
       </c>
       <c r="AT2">
-        <v>0.0006650021716091295</v>
+        <v>0.0005842568176670152</v>
       </c>
       <c r="AU2">
-        <v>0.0008541095380973762</v>
+        <v>0.0007713309834137306</v>
       </c>
       <c r="AV2">
-        <v>0.03375758466701091</v>
+        <v>0.03368602054445093</v>
       </c>
       <c r="AW2">
-        <v>0.04733320313278843</v>
+        <v>0.04726502665654951</v>
       </c>
       <c r="AX2">
-        <v>0.06877398886841872</v>
+        <v>0.06871238502587923</v>
       </c>
       <c r="AY2">
-        <v>0.08399760639073886</v>
+        <v>0.08394005754920146</v>
       </c>
       <c r="AZ2">
-        <v>0.1388675652733193</v>
+        <v>0.1388301261576866</v>
       </c>
       <c r="BA2">
-        <v>0.1482977945968691</v>
+        <v>0.1482620644586057</v>
       </c>
       <c r="BB2">
-        <v>0.1486605758093161</v>
+        <v>0.1486228827992677</v>
       </c>
       <c r="BC2">
-        <v>0.1552765400363089</v>
+        <v>0.1552394163713112</v>
       </c>
       <c r="BD2">
-        <v>0.1627353542922197</v>
+        <v>0.1626991412830945</v>
       </c>
       <c r="BE2">
-        <v>0.1684720294890442</v>
+        <v>0.1684360297582305</v>
       </c>
       <c r="BF2">
-        <v>0.1934947923475716</v>
+        <v>0.1934668157665791</v>
       </c>
       <c r="BG2">
-        <v>0.2143562730633261</v>
+        <v>0.214334634527357</v>
       </c>
       <c r="BH2">
-        <v>0.2212747453006979</v>
+        <v>0.2212537986099326</v>
       </c>
       <c r="BI2">
-        <v>0.2256347044502874</v>
+        <v>0.2256134135387896</v>
       </c>
       <c r="BJ2">
-        <v>0.2335529577219616</v>
+        <v>0.2335327635154583</v>
       </c>
       <c r="BK2">
-        <v>0.2442617960893803</v>
+        <v>0.2442438286310104</v>
       </c>
       <c r="BL2">
-        <v>0.2450555772166148</v>
+        <v>0.245035821419212</v>
       </c>
       <c r="BM2">
-        <v>0.2451149698586526</v>
+        <v>0.2450931283327302</v>
       </c>
       <c r="BN2">
-        <v>0.2460167411895922</v>
+        <v>0.2459931550551036</v>
       </c>
       <c r="BO2">
-        <v>0.2464242009435721</v>
+        <v>0.2463986700298052</v>
       </c>
       <c r="BP2">
-        <v>0.2510004017005809</v>
+        <v>0.2509746141327875</v>
       </c>
       <c r="BQ2">
-        <v>0.2531463137742068</v>
+        <v>0.2531192854107258</v>
       </c>
       <c r="BR2">
-        <v>0.2536380017910765</v>
+        <v>0.2536090627564225</v>
       </c>
       <c r="BS2">
-        <v>0.2537492609848938</v>
+        <v>0.2537182572250006</v>
       </c>
       <c r="BT2">
-        <v>0.2587646958569726</v>
+        <v>0.2587336133102317</v>
       </c>
       <c r="BU2">
-        <v>0.2588027091752768</v>
+        <v>0.2587695322424922</v>
       </c>
       <c r="BV2">
-        <v>0.2588674981674997</v>
+        <v>0.2588322376914393</v>
       </c>
       <c r="BW2">
-        <v>0.2601743882123389</v>
+        <v>0.2601375471799118</v>
       </c>
       <c r="BX2">
-        <v>0.2653414233896191</v>
+        <v>0.2653045649606545</v>
       </c>
       <c r="BY2">
-        <v>0.2664005940259591</v>
+        <v>0.2663620547270347</v>
       </c>
       <c r="BZ2">
-        <v>0.2664050416166117</v>
+        <v>0.2663643943392539</v>
       </c>
       <c r="CA2">
-        <v>0.2664703398528521</v>
+        <v>0.266427609238436</v>
       </c>
       <c r="CB2">
-        <v>0.2665825480267019</v>
+        <v>0.2665377530713346</v>
       </c>
       <c r="CC2">
-        <v>0.2714986371953722</v>
+        <v>0.2714537232232676</v>
       </c>
       <c r="CD2">
-        <v>0.2743089475917935</v>
+        <v>0.2742630618710793</v>
       </c>
       <c r="CE2">
-        <v>0.2760417811512468</v>
+        <v>0.2759944873593365</v>
       </c>
       <c r="CF2">
-        <v>0.2826845476791591</v>
+        <v>0.28263783408585</v>
       </c>
       <c r="CG2">
-        <v>0.2835175863577405</v>
+        <v>0.2834691003226835</v>
       </c>
       <c r="CH2">
-        <v>0.2872626604862335</v>
+        <v>0.2872135812337012</v>
       </c>
       <c r="CI2">
-        <v>0.2883571826237864</v>
+        <v>0.2883064368168303</v>
       </c>
       <c r="CJ2">
-        <v>0.2902297545880341</v>
+        <v>0.2901776572967338</v>
       </c>
       <c r="CK2">
-        <v>0.291670824837477</v>
+        <v>0.2916172013258774</v>
       </c>
       <c r="CL2">
-        <v>0.2932122942903646</v>
+        <v>0.2931571852149686</v>
       </c>
       <c r="CM2">
-        <v>0.3008037885508276</v>
+        <v>0.3007496438598677</v>
       </c>
       <c r="CN2">
-        <v>0.3266816024386917</v>
+        <v>0.3266358271491511</v>
       </c>
       <c r="CO2">
-        <v>0.3287766795105735</v>
+        <v>0.3287296428397896</v>
       </c>
       <c r="CP2">
-        <v>0.3362251592661298</v>
+        <v>0.3361790290662782</v>
       </c>
       <c r="CQ2">
-        <v>0.371257313468078</v>
+        <v>0.3712232597056638</v>
       </c>
       <c r="CR2">
-        <v>0.3959122023139837</v>
+        <v>0.3958860227313757</v>
       </c>
       <c r="CS2">
-        <v>0.3973035986617223</v>
+        <v>0.3972758727434449</v>
       </c>
       <c r="CT2">
-        <v>0.4028138773507792</v>
+        <v>0.402786273031896</v>
       </c>
       <c r="CU2">
-        <v>0.4122034656729346</v>
+        <v>0.4121775538739098</v>
       </c>
       <c r="CV2">
-        <v>0.4148993307654293</v>
+        <v>0.4148724008733453</v>
       </c>
       <c r="CW2">
-        <v>0.414900108657806</v>
+        <v>0.4148724008733453</v>
       </c>
       <c r="CX2">
-        <v>0.4235979609562281</v>
+        <v>0.4235716655741877</v>
       </c>
       <c r="CY2">
-        <v>0.4383886004636928</v>
+        <v>0.4383661847488739</v>
       </c>
       <c r="CZ2">
-        <v>0.4567535150937904</v>
+        <v>0.4567364264434017</v>
       </c>
       <c r="DA2">
-        <v>0.4709034255792718</v>
+        <v>0.4708899571338734</v>
       </c>
       <c r="DB2">
-        <v>0.470962332603293</v>
+        <v>0.4709467782327247</v>
       </c>
       <c r="DC2">
-        <v>0.4735979403937203</v>
+        <v>0.4735813435289911</v>
       </c>
       <c r="DD2">
-        <v>0.4818009776751653</v>
+        <v>0.481785592838277</v>
       </c>
       <c r="DE2">
-        <v>0.5164706128646755</v>
+        <v>0.5164671576637087</v>
       </c>
       <c r="DF2">
-        <v>0.5571532172604898</v>
+        <v>0.5571641266380681</v>
       </c>
       <c r="DG2">
-        <v>0.5662265385717942</v>
+        <v>0.5662390123973916</v>
       </c>
       <c r="DH2">
-        <v>0.5662432312383668</v>
+        <v>0.5662536020441555</v>
       </c>
       <c r="DI2">
-        <v>0.5663446187818454</v>
+        <v>0.5663529208648853</v>
       </c>
       <c r="DJ2">
-        <v>0.5692573774817817</v>
+        <v>0.5692647493024948</v>
       </c>
       <c r="DK2">
-        <v>0.5705416476258448</v>
+        <v>0.5705474297302973</v>
       </c>
       <c r="DL2">
-        <v>0.5782798571913417</v>
+        <v>0.5782866630923671</v>
       </c>
       <c r="DM2">
-        <v>0.5792842413258019</v>
+        <v>0.579289344171158</v>
       </c>
       <c r="DN2">
-        <v>0.5796809004094112</v>
+        <v>0.579684054101774</v>
       </c>
       <c r="DO2">
-        <v>0.5800005847203795</v>
+        <v>0.5800017580889335</v>
       </c>
       <c r="DP2">
-        <v>0.5806167389415197</v>
+        <v>0.5806160520412985</v>
       </c>
       <c r="DQ2">
-        <v>0.5830784672259812</v>
+        <v>0.5830766674193608</v>
       </c>
       <c r="DR2">
-        <v>0.5897771796558131</v>
+        <v>0.5897759827030007</v>
       </c>
       <c r="DS2">
-        <v>0.6118220034121679</v>
+        <v>0.6118276236973215</v>
       </c>
       <c r="DT2">
-        <v>0.6293055590120261</v>
+        <v>0.6293161494566274</v>
       </c>
       <c r="DU2">
-        <v>0.6329271359362819</v>
+        <v>0.6329370831534051</v>
       </c>
       <c r="DV2">
-        <v>0.6330026965548744</v>
+        <v>0.6330105645906753</v>
       </c>
       <c r="DW2">
-        <v>0.6383017827366853</v>
+        <v>0.6383096868497996</v>
       </c>
       <c r="DX2">
-        <v>0.6496325651254428</v>
+        <v>0.6496429478419645</v>
       </c>
       <c r="DY2">
-        <v>0.6591764704528927</v>
+        <v>0.6591886081797066</v>
       </c>
       <c r="DZ2">
-        <v>0.6645674453378563</v>
+        <v>0.6645796563521725</v>
       </c>
       <c r="EA2">
-        <v>0.6654390184177599</v>
+        <v>0.6654494725947746</v>
       </c>
       <c r="EB2">
-        <v>0.6666212558583223</v>
+        <v>0.6666300790010902</v>
       </c>
       <c r="EC2">
-        <v>0.66979141596709</v>
+        <v>0.6697994130818353</v>
       </c>
       <c r="ED2">
-        <v>0.671726518033483</v>
+        <v>0.6717331889853528</v>
       </c>
       <c r="EE2">
-        <v>0.6717337674832318</v>
+        <v>0.6717383315912766</v>
       </c>
       <c r="EF2">
-        <v>0.6720110821927464</v>
+        <v>0.6720136488194774</v>
       </c>
       <c r="EG2">
-        <v>0.6720613721614719</v>
+        <v>0.6720618493735698</v>
       </c>
       <c r="EH2">
-        <v>0.6726245711807951</v>
+        <v>0.6726231666799906</v>
       </c>
       <c r="EI2">
-        <v>0.6728153282273399</v>
+        <v>0.6728118911938292</v>
       </c>
       <c r="EJ2">
-        <v>0.6728513390705755</v>
+        <v>0.6728458068401219</v>
       </c>
       <c r="EK2">
-        <v>0.67349006269249</v>
+        <v>0.6734826793327053</v>
       </c>
       <c r="EL2">
-        <v>0.6734928683515863</v>
+        <v>0.6734833763484704</v>
       </c>
       <c r="EM2">
-        <v>0.6764007837513565</v>
+        <v>0.6763903595246269</v>
       </c>
       <c r="EN2">
-        <v>0.6805789128947075</v>
+        <v>0.6805680708154642</v>
       </c>
       <c r="EO2">
-        <v>0.6829363499755908</v>
+        <v>0.6829243527573859</v>
       </c>
       <c r="EP2">
-        <v>0.6866485321029553</v>
+        <v>0.6866359283477099</v>
       </c>
       <c r="EQ2">
-        <v>0.6869169491721646</v>
+        <v>0.6869023443325197</v>
       </c>
       <c r="ER2">
-        <v>0.6873793005880279</v>
+        <v>0.6873627731973986</v>
       </c>
       <c r="ES2">
-        <v>0.6901204136820751</v>
+        <v>0.6901028865214951</v>
       </c>
       <c r="ET2">
-        <v>0.696972115417156</v>
+        <v>0.6969552530631677</v>
       </c>
       <c r="EU2">
-        <v>0.7000090949213543</v>
+        <v>0.6999913526080628</v>
       </c>
       <c r="EV2">
-        <v>0.7033398070356306</v>
+        <v>0.703321303709604</v>
       </c>
       <c r="EW2">
-        <v>0.7073307291725586</v>
+        <v>0.7073117321848292</v>
       </c>
       <c r="EX2">
-        <v>0.7108612373936898</v>
+        <v>0.7108415603003513</v>
       </c>
       <c r="EY2">
-        <v>0.7190642746751348</v>
+        <v>0.7190458096096373</v>
       </c>
       <c r="EZ2">
-        <v>0.7284625639975888</v>
+        <v>0.7284457949754063</v>
       </c>
       <c r="FA2">
-        <v>0.7369471462886936</v>
+        <v>0.7369317033055703</v>
       </c>
       <c r="FB2">
-        <v>0.7428254640903779</v>
+        <v>0.7428102917435209</v>
       </c>
       <c r="FC2">
-        <v>0.7430339753775319</v>
+        <v>0.7430167776875212</v>
       </c>
       <c r="FD2">
-        <v>0.7448447644396599</v>
+        <v>0.7448261902464138</v>
       </c>
       <c r="FE2">
-        <v>0.7554698118042037</v>
+        <v>0.7554534304280534</v>
       </c>
       <c r="FF2">
-        <v>0.7784076985911993</v>
+        <v>0.7783984960975145</v>
       </c>
       <c r="FG2">
-        <v>0.803496779452002</v>
+        <v>0.8034956269635115</v>
       </c>
       <c r="FH2">
-        <v>0.8221385000915968</v>
+        <v>0.8221427867597039</v>
       </c>
       <c r="FI2">
-        <v>0.8289503533253105</v>
+        <v>0.8289552886634199</v>
       </c>
       <c r="FJ2">
-        <v>0.8294778395434085</v>
+        <v>0.8294808787067715</v>
       </c>
       <c r="FK2">
-        <v>0.8295541825660278</v>
+        <v>0.8295551428649017</v>
       </c>
       <c r="FL2">
-        <v>0.8321330858545095</v>
+        <v>0.8321329806968217</v>
       </c>
       <c r="FM2">
-        <v>0.8335968404047307</v>
+        <v>0.8335952182127163</v>
       </c>
       <c r="FN2">
-        <v>0.8375989050420409</v>
+        <v>0.8375967937004622</v>
       </c>
       <c r="FO2">
-        <v>0.8427937047202738</v>
+        <v>0.8427915872253495</v>
       </c>
       <c r="FP2">
-        <v>0.8427940639222862</v>
+        <v>0.8427915872253495</v>
       </c>
       <c r="FQ2">
-        <v>0.8459140612293329</v>
+        <v>0.8459107381910242</v>
       </c>
       <c r="FR2">
-        <v>0.8561876675818189</v>
+        <v>0.8561863950451091</v>
       </c>
       <c r="FS2">
-        <v>0.8688553880164466</v>
+        <v>0.8688571354741477</v>
       </c>
       <c r="FT2">
-        <v>0.8797602133905895</v>
+        <v>0.8797642669610607</v>
       </c>
       <c r="FU2">
-        <v>0.8862044853116916</v>
+        <v>0.8862090387006785</v>
       </c>
       <c r="FV2">
-        <v>0.8881887479797713</v>
+        <v>0.8881919951133926</v>
       </c>
       <c r="FW2">
-        <v>0.8910470284778386</v>
+        <v>0.891049323288269</v>
       </c>
       <c r="FX2">
-        <v>0.8973646066945937</v>
+        <v>0.8973673500191194</v>
       </c>
       <c r="FY2">
-        <v>0.9075413790437573</v>
+        <v>0.9075461336571012</v>
       </c>
       <c r="FZ2">
-        <v>0.9172733063776584</v>
+        <v>0.9172798921405164</v>
       </c>
       <c r="GA2">
-        <v>0.924364872620969</v>
+        <v>0.9243722203231821</v>
       </c>
       <c r="GB2">
-        <v>0.9312339248566452</v>
+        <v>0.9312419443915085</v>
       </c>
       <c r="GC2">
-        <v>0.9316828621420482</v>
+        <v>0.9316889536938957</v>
       </c>
       <c r="GD2">
-        <v>0.9322452731913444</v>
+        <v>0.9322494827112021</v>
       </c>
       <c r="GE2">
-        <v>0.9342507744601529</v>
+        <v>0.9342536863251837</v>
       </c>
       <c r="GF2">
-        <v>0.9390045646232548</v>
+        <v>0.9390072917488157</v>
       </c>
       <c r="GG2">
-        <v>0.9508341140291249</v>
+        <v>0.950839521733029</v>
       </c>
       <c r="GH2">
-        <v>0.9623436304240147</v>
+        <v>0.9623515891093868</v>
       </c>
       <c r="GI2">
-        <v>0.9688792459482507</v>
+        <v>0.9688877414415901</v>
       </c>
       <c r="GJ2">
-        <v>0.9758600858877623</v>
+        <v>0.9758692984820104</v>
       </c>
       <c r="GK2">
-        <v>0.9836322645544247</v>
+        <v>0.983642514700981</v>
       </c>
       <c r="GL2">
-        <v>0.988857304333695</v>
+        <v>0.9888675605725881</v>
       </c>
       <c r="GM2">
-        <v>0.9945622909294323</v>
+        <v>0.9945727476143866</v>
       </c>
       <c r="GN2">
-        <v>0.9968276540071566</v>
+        <v>0.9968369182679235</v>
       </c>
       <c r="GO2">
-        <v>0.9974253775276644</v>
+        <v>0.9974327740561724</v>
       </c>
       <c r="GP2">
-        <v>0.9989341246794292</v>
+        <v>0.9989400223932954</v>
       </c>
       <c r="GQ2">
-        <v>0.9996659305645373</v>
+        <v>0.9996700148425917</v>
       </c>
       <c r="GR2">
-        <v>0.9999241503733969</v>
+        <v>0.9999262294376867</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0003470053832785674</v>
+        <v>0.0002846419246185083</v>
       </c>
       <c r="C3">
-        <v>0.0005596283530327302</v>
+        <v>0.0004333901034361081</v>
       </c>
       <c r="D3">
-        <v>0.0005957890052902272</v>
+        <v>0.0004333901034361081</v>
       </c>
       <c r="E3">
-        <v>0.0005968303173400487</v>
+        <v>0.0004333901034361081</v>
       </c>
       <c r="F3">
-        <v>0.0006204815002003498</v>
+        <v>0.0004333901034361081</v>
       </c>
       <c r="G3">
-        <v>0.000690708556816261</v>
+        <v>0.0004381409129879473</v>
       </c>
       <c r="H3">
-        <v>0.0009078299163536562</v>
+        <v>0.0005914380727449687</v>
       </c>
       <c r="I3">
-        <v>0.00103921989002226</v>
+        <v>0.0006580396683067734</v>
       </c>
       <c r="J3">
-        <v>0.001290394837918687</v>
+        <v>0.0008457734002215842</v>
       </c>
       <c r="K3">
-        <v>0.001750195665761888</v>
+        <v>0.00124447932376048</v>
       </c>
       <c r="L3">
-        <v>0.002191550464493963</v>
+        <v>0.001624531764858326</v>
       </c>
       <c r="M3">
-        <v>0.002906508530041693</v>
+        <v>0.002281264552854335</v>
       </c>
       <c r="N3">
-        <v>0.00334957657869121</v>
+        <v>0.002663049511940719</v>
       </c>
       <c r="O3">
-        <v>0.003741613889799787</v>
+        <v>0.002993229816120664</v>
       </c>
       <c r="P3">
-        <v>0.004012977756723354</v>
+        <v>0.003201379521809982</v>
       </c>
       <c r="Q3">
-        <v>0.00407850683956565</v>
+        <v>0.003201379521809982</v>
       </c>
       <c r="R3">
-        <v>0.004265536860553081</v>
+        <v>0.003324246920674406</v>
       </c>
       <c r="S3">
-        <v>0.004326530602613926</v>
+        <v>0.003324246920674406</v>
       </c>
       <c r="T3">
-        <v>0.004385776634758989</v>
+        <v>0.003324246920674406</v>
       </c>
       <c r="U3">
-        <v>0.0045535345866751</v>
+        <v>0.003427625507076325</v>
       </c>
       <c r="V3">
-        <v>0.004710225379124512</v>
+        <v>0.003519812467164491</v>
       </c>
       <c r="W3">
-        <v>0.005053698562573289</v>
+        <v>0.003800882467055658</v>
       </c>
       <c r="X3">
-        <v>0.005512742640452956</v>
+        <v>0.00419882312983995</v>
       </c>
       <c r="Y3">
-        <v>0.005953356019220758</v>
+        <v>0.00457812581259134</v>
       </c>
       <c r="Z3">
-        <v>0.00642293334659285</v>
+        <v>0.00498671818709475</v>
       </c>
       <c r="AA3">
-        <v>0.007002451348667142</v>
+        <v>0.005506487684477022</v>
       </c>
       <c r="AB3">
-        <v>0.007495260524919742</v>
+        <v>0.005938573184929382</v>
       </c>
       <c r="AC3">
-        <v>0.007567712501428439</v>
+        <v>0.005945573936943243</v>
       </c>
       <c r="AD3">
-        <v>0.007582599881211049</v>
+        <v>0.005945573936943243</v>
       </c>
       <c r="AE3">
-        <v>0.007583559713964797</v>
+        <v>0.005945573936943243</v>
       </c>
       <c r="AF3">
-        <v>0.007595942700368088</v>
+        <v>0.005945573936943243</v>
       </c>
       <c r="AG3">
-        <v>0.00773172695382494</v>
+        <v>0.006016619232576069</v>
       </c>
       <c r="AH3">
-        <v>0.007826292075268054</v>
+        <v>0.006045981825085008</v>
       </c>
       <c r="AI3">
-        <v>0.007883527814509989</v>
+        <v>0.006045981825085008</v>
       </c>
       <c r="AJ3">
-        <v>0.008618962949070974</v>
+        <v>0.006723421977521451</v>
       </c>
       <c r="AK3">
-        <v>0.009849294589783975</v>
+        <v>0.007901324491370732</v>
       </c>
       <c r="AL3">
-        <v>0.01080624088367082</v>
+        <v>0.008802767029149259</v>
       </c>
       <c r="AM3">
-        <v>0.0111359138077846</v>
+        <v>0.009069881565041292</v>
       </c>
       <c r="AN3">
-        <v>0.01115687274677464</v>
+        <v>0.009069881565041292</v>
       </c>
       <c r="AO3">
-        <v>0.01115699883257856</v>
+        <v>0.009069881565041292</v>
       </c>
       <c r="AP3">
-        <v>0.0111587390700947</v>
+        <v>0.009069881565041292</v>
       </c>
       <c r="AQ3">
-        <v>0.01115875131731511</v>
+        <v>0.009069881565041292</v>
       </c>
       <c r="AR3">
-        <v>0.01117072677973804</v>
+        <v>0.009069881565041292</v>
       </c>
       <c r="AS3">
-        <v>0.01117075722569357</v>
+        <v>0.009069881565041292</v>
       </c>
       <c r="AT3">
-        <v>0.0112058319840034</v>
+        <v>0.009069881565041292</v>
       </c>
       <c r="AU3">
-        <v>0.01134866755712046</v>
+        <v>0.009148057483025173</v>
       </c>
       <c r="AV3">
-        <v>0.01136828117617533</v>
+        <v>0.009148057483025173</v>
       </c>
       <c r="AW3">
-        <v>0.01147841313586831</v>
+        <v>0.009193161986283968</v>
       </c>
       <c r="AX3">
-        <v>0.01179379652067067</v>
+        <v>0.009445826275511505</v>
       </c>
       <c r="AY3">
-        <v>0.01210246396579666</v>
+        <v>0.009691699094223969</v>
       </c>
       <c r="AZ3">
-        <v>0.01215943290705145</v>
+        <v>0.009691699094223969</v>
       </c>
       <c r="BA3">
-        <v>0.01216770813465268</v>
+        <v>0.009691699094223969</v>
       </c>
       <c r="BB3">
-        <v>0.01218552473079414</v>
+        <v>0.009691699094223969</v>
       </c>
       <c r="BC3">
-        <v>0.01218557708156562</v>
+        <v>0.009691699094223969</v>
       </c>
       <c r="BD3">
-        <v>0.01218873405171349</v>
+        <v>0.009691699094223969</v>
       </c>
       <c r="BE3">
-        <v>0.01218942352238027</v>
+        <v>0.009691699094223969</v>
       </c>
       <c r="BF3">
-        <v>0.01219825464795471</v>
+        <v>0.009691699094223969</v>
       </c>
       <c r="BG3">
-        <v>0.01223376501924355</v>
+        <v>0.009691699094223969</v>
       </c>
       <c r="BH3">
-        <v>0.01223477061649509</v>
+        <v>0.009691699094223969</v>
       </c>
       <c r="BI3">
-        <v>0.01241299313790693</v>
+        <v>0.009805659939938496</v>
       </c>
       <c r="BJ3">
-        <v>0.01247764580979146</v>
+        <v>0.009805659939938496</v>
       </c>
       <c r="BK3">
-        <v>0.01252907830031304</v>
+        <v>0.009805659939938496</v>
       </c>
       <c r="BL3">
-        <v>0.0126404391949468</v>
+        <v>0.009852007199359115</v>
       </c>
       <c r="BM3">
-        <v>0.01284806271494188</v>
+        <v>0.009995699702088695</v>
       </c>
       <c r="BN3">
-        <v>0.01312753898147453</v>
+        <v>0.01021205304351724</v>
       </c>
       <c r="BO3">
-        <v>0.01344888250598968</v>
+        <v>0.01047074450318937</v>
       </c>
       <c r="BP3">
-        <v>0.01373154589236875</v>
+        <v>0.01069032080841867</v>
       </c>
       <c r="BQ3">
-        <v>0.01376890852556833</v>
+        <v>0.01069032080841867</v>
       </c>
       <c r="BR3">
-        <v>0.01377037395739771</v>
+        <v>0.01069032080841867</v>
       </c>
       <c r="BS3">
-        <v>0.01378109649288102</v>
+        <v>0.01069032080841867</v>
       </c>
       <c r="BT3">
-        <v>0.01379445357923737</v>
+        <v>0.01069032080841867</v>
       </c>
       <c r="BU3">
-        <v>0.01380396725677893</v>
+        <v>0.01069032080841867</v>
       </c>
       <c r="BV3">
-        <v>0.01385133490949638</v>
+        <v>0.01069032080841867</v>
       </c>
       <c r="BW3">
-        <v>0.01410238075739903</v>
+        <v>0.01087792398841617</v>
       </c>
       <c r="BX3">
-        <v>0.0143336099462566</v>
+        <v>0.0110454876412444</v>
       </c>
       <c r="BY3">
-        <v>0.01471959455765684</v>
+        <v>0.0113695471740079</v>
       </c>
       <c r="BZ3">
-        <v>0.01479794082388151</v>
+        <v>0.01138250850588732</v>
       </c>
       <c r="CA3">
-        <v>0.01481418871809856</v>
+        <v>0.01138250850588732</v>
       </c>
       <c r="CB3">
-        <v>0.01484857528644154</v>
+        <v>0.01138250850588732</v>
       </c>
       <c r="CC3">
-        <v>0.01490271065683288</v>
+        <v>0.01138250850588732</v>
       </c>
       <c r="CD3">
-        <v>0.01501170556658065</v>
+        <v>0.01142646317136478</v>
       </c>
       <c r="CE3">
-        <v>0.01501721442731519</v>
+        <v>0.01142646317136478</v>
       </c>
       <c r="CF3">
-        <v>0.01501724487327072</v>
+        <v>0.01142646317136478</v>
       </c>
       <c r="CG3">
-        <v>0.01503213225305333</v>
+        <v>0.01142646317136478</v>
       </c>
       <c r="CH3">
-        <v>0.0150418988865827</v>
+        <v>0.01142646317136478</v>
       </c>
       <c r="CI3">
-        <v>0.0150977054498935</v>
+        <v>0.01142646317136478</v>
       </c>
       <c r="CJ3">
-        <v>0.0152680410216854</v>
+        <v>0.0115324483668533</v>
       </c>
       <c r="CK3">
-        <v>0.01552833585914236</v>
+        <v>0.011729404555198</v>
       </c>
       <c r="CL3">
-        <v>0.01600281043627847</v>
+        <v>0.01214294925640175</v>
       </c>
       <c r="CM3">
-        <v>0.02720678089638356</v>
+        <v>0.0234066591529738</v>
       </c>
       <c r="CN3">
-        <v>0.1239852762328389</v>
+        <v>0.1212073081146295</v>
       </c>
       <c r="CO3">
-        <v>0.1663214471927512</v>
+        <v>0.1639533469111465</v>
       </c>
       <c r="CP3">
-        <v>0.1837698903519488</v>
+        <v>0.1815317579905268</v>
       </c>
       <c r="CQ3">
-        <v>0.2262067043070113</v>
+        <v>0.2243795716639856</v>
       </c>
       <c r="CR3">
-        <v>0.23851668771382</v>
+        <v>0.2367617332856755</v>
       </c>
       <c r="CS3">
-        <v>0.2390754739568934</v>
+        <v>0.2372605378642577</v>
       </c>
       <c r="CT3">
-        <v>0.2437761407303785</v>
+        <v>0.2419478046469014</v>
       </c>
       <c r="CU3">
-        <v>0.2494226204582869</v>
+        <v>0.2475915214726176</v>
       </c>
       <c r="CV3">
-        <v>0.2671169396056363</v>
+        <v>0.2654185737852973</v>
       </c>
       <c r="CW3">
-        <v>0.3092817435738064</v>
+        <v>0.3079913183106092</v>
       </c>
       <c r="CX3">
-        <v>0.3093278672055838</v>
+        <v>0.3079913183106092</v>
       </c>
       <c r="CY3">
-        <v>0.3315497741347586</v>
+        <v>0.3303968779366952</v>
       </c>
       <c r="CZ3">
-        <v>0.3361522749129741</v>
+        <v>0.3349848746998654</v>
       </c>
       <c r="DA3">
-        <v>0.376839632952339</v>
+        <v>0.3760635571956458</v>
       </c>
       <c r="DB3">
-        <v>0.3788889781535855</v>
+        <v>0.3780696843088577</v>
       </c>
       <c r="DC3">
-        <v>0.3789846026039776</v>
+        <v>0.3781001181440623</v>
       </c>
       <c r="DD3">
-        <v>0.3797976195248001</v>
+        <v>0.3788560126065866</v>
       </c>
       <c r="DE3">
-        <v>0.3873526978607373</v>
+        <v>0.3864297931011499</v>
       </c>
       <c r="DF3">
-        <v>0.3880217262684983</v>
+        <v>0.3870400796833047</v>
       </c>
       <c r="DG3">
-        <v>0.4044070924789233</v>
+        <v>0.4035434579153468</v>
       </c>
       <c r="DH3">
-        <v>0.413044074062726</v>
+        <v>0.4122113092863787</v>
       </c>
       <c r="DI3">
-        <v>0.4211176306736789</v>
+        <v>0.4203093991236632</v>
       </c>
       <c r="DJ3">
-        <v>0.422809156192168</v>
+        <v>0.4219536823338232</v>
       </c>
       <c r="DK3">
-        <v>0.4262340515271297</v>
+        <v>0.4253508297100665</v>
       </c>
       <c r="DL3">
-        <v>0.4270341878885729</v>
+        <v>0.4260936987519561</v>
       </c>
       <c r="DM3">
-        <v>0.427881079977763</v>
+        <v>0.4268838493600458</v>
       </c>
       <c r="DN3">
-        <v>0.4280563059793193</v>
+        <v>0.4269947799855339</v>
       </c>
       <c r="DO3">
-        <v>0.4297122781995216</v>
+        <v>0.4286031100471155</v>
       </c>
       <c r="DP3">
-        <v>0.4302178291751602</v>
+        <v>0.4290480806476446</v>
       </c>
       <c r="DQ3">
-        <v>0.4308997740922987</v>
+        <v>0.4296714290047441</v>
       </c>
       <c r="DR3">
-        <v>0.4313742486694349</v>
+        <v>0.4300849737059479</v>
       </c>
       <c r="DS3">
-        <v>0.4316729776750398</v>
+        <v>0.430320796312445</v>
       </c>
       <c r="DT3">
-        <v>0.4343105261479421</v>
+        <v>0.4329217419274331</v>
       </c>
       <c r="DU3">
-        <v>0.4388414535296066</v>
+        <v>0.4374373603436015</v>
       </c>
       <c r="DV3">
-        <v>0.4409664791272062</v>
+        <v>0.4395200189930048</v>
       </c>
       <c r="DW3">
-        <v>0.4561175793971077</v>
+        <v>0.4547752501083727</v>
       </c>
       <c r="DX3">
-        <v>0.4605629961828928</v>
+        <v>0.4592043962334506</v>
       </c>
       <c r="DY3">
-        <v>0.4693266337605922</v>
+        <v>0.4680003280354507</v>
       </c>
       <c r="DZ3">
-        <v>0.473080098279721</v>
+        <v>0.4717297398503223</v>
       </c>
       <c r="EA3">
-        <v>0.4749468321897671</v>
+        <v>0.4735512019338185</v>
       </c>
       <c r="EB3">
-        <v>0.4777238373559493</v>
+        <v>0.4762931726422678</v>
       </c>
       <c r="EC3">
-        <v>0.4785479651162364</v>
+        <v>0.477060302902351</v>
       </c>
       <c r="ED3">
-        <v>0.4848340128133254</v>
+        <v>0.4833507806006159</v>
       </c>
       <c r="EE3">
-        <v>0.515113603354218</v>
+        <v>0.5139046446049088</v>
       </c>
       <c r="EF3">
-        <v>0.5194755801440238</v>
+        <v>0.5182494123258053</v>
       </c>
       <c r="EG3">
-        <v>0.5261669425215817</v>
+        <v>0.5249497630774888</v>
       </c>
       <c r="EH3">
-        <v>0.5809001228841091</v>
+        <v>0.5802322342855617</v>
       </c>
       <c r="EI3">
-        <v>0.6099880414824257</v>
+        <v>0.6095810242046725</v>
       </c>
       <c r="EJ3">
-        <v>0.6123237331698738</v>
+        <v>0.6118767182008293</v>
       </c>
       <c r="EK3">
-        <v>0.6207717117627841</v>
+        <v>0.6203534409581808</v>
       </c>
       <c r="EL3">
-        <v>0.6332085701634791</v>
+        <v>0.6328639044738125</v>
       </c>
       <c r="EM3">
-        <v>0.6354825934538989</v>
+        <v>0.6350972365191013</v>
       </c>
       <c r="EN3">
-        <v>0.6355681411897766</v>
+        <v>0.635117480311987</v>
       </c>
       <c r="EO3">
-        <v>0.6517224594113352</v>
+        <v>0.6513872120731604</v>
       </c>
       <c r="EP3">
-        <v>0.6725421804080782</v>
+        <v>0.6723748160778965</v>
       </c>
       <c r="EQ3">
-        <v>0.6927280714353642</v>
+        <v>0.6927214617422411</v>
       </c>
       <c r="ER3">
-        <v>0.7050600598411125</v>
+        <v>0.7051258758421669</v>
       </c>
       <c r="ES3">
-        <v>0.7055749965662989</v>
+        <v>0.7055803377491082</v>
       </c>
       <c r="ET3">
-        <v>0.7112664607920396</v>
+        <v>0.7112695449909665</v>
       </c>
       <c r="EU3">
-        <v>0.7184962947436496</v>
+        <v>0.7185144232391142</v>
       </c>
       <c r="EV3">
-        <v>0.7555595629576516</v>
+        <v>0.7559282575708295</v>
       </c>
       <c r="EW3">
-        <v>0.8034003276523095</v>
+        <v>0.8042407975344873</v>
       </c>
       <c r="EX3">
-        <v>0.8117686182490599</v>
+        <v>0.8126369360843555</v>
       </c>
       <c r="EY3">
-        <v>0.8119468407704717</v>
+        <v>0.8127508969300701</v>
       </c>
       <c r="EZ3">
-        <v>0.8120262240906464</v>
+        <v>0.8127649069791304</v>
       </c>
       <c r="FA3">
-        <v>0.8175233045257541</v>
+        <v>0.8182575442923848</v>
       </c>
       <c r="FB3">
-        <v>0.8184674404802582</v>
+        <v>0.8191460324192547</v>
       </c>
       <c r="FC3">
-        <v>0.8278721300270667</v>
+        <v>0.8285902257835421</v>
       </c>
       <c r="FD3">
-        <v>0.8284130856309992</v>
+        <v>0.8290709991906391</v>
       </c>
       <c r="FE3">
-        <v>0.8284142407448436</v>
+        <v>0.8290709991906391</v>
       </c>
       <c r="FF3">
-        <v>0.8284678379602609</v>
+        <v>0.8290709991906391</v>
       </c>
       <c r="FG3">
-        <v>0.8302001511767845</v>
+        <v>0.8307565288178201</v>
       </c>
       <c r="FH3">
-        <v>0.8384577607788682</v>
+        <v>0.8390407415988341</v>
       </c>
       <c r="FI3">
-        <v>0.840397114485415</v>
+        <v>0.8409356401976223</v>
       </c>
       <c r="FJ3">
-        <v>0.8734218788940236</v>
+        <v>0.8742655516769887</v>
       </c>
       <c r="FK3">
-        <v>0.8980751937060341</v>
+        <v>0.8991298640230383</v>
       </c>
       <c r="FL3">
-        <v>0.9032002480590688</v>
+        <v>0.9042462912616066</v>
       </c>
       <c r="FM3">
-        <v>0.9037643753318848</v>
+        <v>0.9047504969378409</v>
       </c>
       <c r="FN3">
-        <v>0.9096604800477643</v>
+        <v>0.9106466461598152</v>
       </c>
       <c r="FO3">
-        <v>0.9213869704826904</v>
+        <v>0.9224387525539045</v>
       </c>
       <c r="FP3">
-        <v>0.9253086612937126</v>
+        <v>0.9263382826182408</v>
       </c>
       <c r="FQ3">
-        <v>0.9295938527872185</v>
+        <v>0.9306054014767382</v>
       </c>
       <c r="FR3">
-        <v>0.9324879894477563</v>
+        <v>0.9334658209992979</v>
       </c>
       <c r="FS3">
-        <v>0.9346221636449151</v>
+        <v>0.9355577311380168</v>
       </c>
       <c r="FT3">
-        <v>0.937948132184644</v>
+        <v>0.9388548391384839</v>
       </c>
       <c r="FU3">
-        <v>0.9381684666940265</v>
+        <v>0.9390113855847869</v>
       </c>
       <c r="FV3">
-        <v>0.9386090800727943</v>
+        <v>0.9393906882675384</v>
       </c>
       <c r="FW3">
-        <v>0.9387111020378781</v>
+        <v>0.9394275915671056</v>
       </c>
       <c r="FX3">
-        <v>0.9399401958786507</v>
+        <v>0.9406042423600933</v>
       </c>
       <c r="FY3">
-        <v>0.941142775420701</v>
+        <v>0.9417540806612067</v>
       </c>
       <c r="FZ3">
-        <v>0.941156805785525</v>
+        <v>0.9417540806612067</v>
       </c>
       <c r="GA3">
-        <v>0.9420777212411481</v>
+        <v>0.9426190871397748</v>
       </c>
       <c r="GB3">
-        <v>0.9423634520073794</v>
+        <v>0.9428417653221544</v>
       </c>
       <c r="GC3">
-        <v>0.9426727400624755</v>
+        <v>0.9430882657305291</v>
       </c>
       <c r="GD3">
-        <v>0.9463045817874649</v>
+        <v>0.9466946869200882</v>
       </c>
       <c r="GE3">
-        <v>0.9529737470660924</v>
+        <v>0.9533725909330916</v>
       </c>
       <c r="GF3">
-        <v>0.9568840508776634</v>
+        <v>0.9572606059340479</v>
       </c>
       <c r="GG3">
-        <v>0.9601647544195734</v>
+        <v>0.9605119398637424</v>
       </c>
       <c r="GH3">
-        <v>0.9609291928827368</v>
+        <v>0.9612187095308162</v>
       </c>
       <c r="GI3">
-        <v>0.9610946024147661</v>
+        <v>0.961319713285819</v>
       </c>
       <c r="GJ3">
-        <v>0.9613530165623136</v>
+        <v>0.9615147676330688</v>
       </c>
       <c r="GK3">
-        <v>0.9649030017912475</v>
+        <v>0.9650384117272076</v>
       </c>
       <c r="GL3">
-        <v>0.9659472943409254</v>
+        <v>0.9660281828607437</v>
       </c>
       <c r="GM3">
-        <v>0.9683995108227584</v>
+        <v>0.9684417121477867</v>
       </c>
       <c r="GN3">
-        <v>0.9707849463078095</v>
+        <v>0.9707877093853375</v>
       </c>
       <c r="GO3">
-        <v>0.9726096780198797</v>
+        <v>0.9725666968929936</v>
       </c>
       <c r="GP3">
-        <v>0.9800113996632069</v>
+        <v>0.9799853959683752</v>
       </c>
       <c r="GQ3">
-        <v>0.9896599481982644</v>
+        <v>0.9896761908818629</v>
       </c>
       <c r="GR3">
-        <v>0.9966698008604749</v>
+        <v>0.9966986138202821</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>3.884759744281719E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.836298913297725E-05</v>
+        <v>4.816472270126841E-06</v>
       </c>
       <c r="D4">
-        <v>0.0001377923369296786</v>
+        <v>9.489055286698651E-05</v>
       </c>
       <c r="E4">
-        <v>0.0002249473511926107</v>
+        <v>0.0001626099377311748</v>
       </c>
       <c r="F4">
-        <v>0.0002369932473996772</v>
+        <v>0.0001626099377311748</v>
       </c>
       <c r="G4">
-        <v>0.0002587786579656303</v>
+        <v>0.0001647238759230382</v>
       </c>
       <c r="H4">
-        <v>0.0002757129668509121</v>
+        <v>0.0001647238759230382</v>
       </c>
       <c r="I4">
-        <v>0.0004310093966283659</v>
+        <v>0.0003008305195265858</v>
       </c>
       <c r="J4">
-        <v>0.000607914204983426</v>
+        <v>0.0004586235012486874</v>
       </c>
       <c r="K4">
-        <v>0.0008775413872349412</v>
+        <v>0.0007094733842210007</v>
       </c>
       <c r="L4">
-        <v>0.001175417437626946</v>
+        <v>0.0009886740526888985</v>
       </c>
       <c r="M4">
-        <v>0.001342927036600455</v>
+        <v>0.001137037928630982</v>
       </c>
       <c r="N4">
-        <v>0.001344703684183505</v>
+        <v>0.001137037928630982</v>
       </c>
       <c r="O4">
-        <v>0.00136438275588811</v>
+        <v>0.001137037928630982</v>
       </c>
       <c r="P4">
-        <v>0.001373569009283416</v>
+        <v>0.001137037928630982</v>
       </c>
       <c r="Q4">
-        <v>0.001400284403524848</v>
+        <v>0.001144099637083414</v>
       </c>
       <c r="R4">
-        <v>0.00144814051637467</v>
+        <v>0.001172378336443525</v>
       </c>
       <c r="S4">
-        <v>0.0014482023487006</v>
+        <v>0.001172378336443525</v>
       </c>
       <c r="T4">
-        <v>0.001563047155140823</v>
+        <v>0.001267887413784295</v>
       </c>
       <c r="U4">
-        <v>0.001714638745162152</v>
+        <v>0.001400275851168073</v>
       </c>
       <c r="V4">
-        <v>0.001818783412306722</v>
+        <v>0.001485046184838291</v>
       </c>
       <c r="W4">
-        <v>0.001882714912098366</v>
+        <v>0.001529458268540724</v>
       </c>
       <c r="X4">
-        <v>0.001887810697362931</v>
+        <v>0.001529458268540724</v>
       </c>
       <c r="Y4">
-        <v>0.001941103066854906</v>
+        <v>0.001563192837679197</v>
       </c>
       <c r="Z4">
-        <v>0.002036663894564517</v>
+        <v>0.001639348362807749</v>
       </c>
       <c r="AA4">
-        <v>0.002049384998727137</v>
+        <v>0.001639348362807749</v>
       </c>
       <c r="AB4">
-        <v>0.00211573029435989</v>
+        <v>0.001686182950936947</v>
       </c>
       <c r="AC4">
-        <v>0.00214964151512765</v>
+        <v>0.001700466447295951</v>
       </c>
       <c r="AD4">
-        <v>0.002271749107089793</v>
+        <v>0.00180326451311613</v>
       </c>
       <c r="AE4">
-        <v>0.002486094062980317</v>
+        <v>0.001998632720380793</v>
       </c>
       <c r="AF4">
-        <v>0.002652546262023431</v>
+        <v>0.002145935381464264</v>
       </c>
       <c r="AG4">
-        <v>0.002857414058537799</v>
+        <v>0.002331792237291955</v>
       </c>
       <c r="AH4">
-        <v>0.003067586384702991</v>
+        <v>0.002522972760656964</v>
       </c>
       <c r="AI4">
-        <v>0.003436717260404573</v>
+        <v>0.002873685330339116</v>
       </c>
       <c r="AJ4">
-        <v>0.003612806728813304</v>
+        <v>0.00303066003050001</v>
       </c>
       <c r="AK4">
-        <v>0.003730879131041068</v>
+        <v>0.003129408348272783</v>
       </c>
       <c r="AL4">
-        <v>0.003816819921383927</v>
+        <v>0.003195909128493048</v>
       </c>
       <c r="AM4">
-        <v>0.003835924255126365</v>
+        <v>0.003195909128493048</v>
       </c>
       <c r="AN4">
-        <v>0.003880087216219293</v>
+        <v>0.003220481351801034</v>
       </c>
       <c r="AO4">
-        <v>0.003880286930866146</v>
+        <v>0.003220481351801034</v>
       </c>
       <c r="AP4">
-        <v>0.003888391004332688</v>
+        <v>0.003220481351801034</v>
       </c>
       <c r="AQ4">
-        <v>0.003913891842654069</v>
+        <v>0.003226324122411762</v>
       </c>
       <c r="AR4">
-        <v>0.004020979825604893</v>
+        <v>0.003314048390896425</v>
       </c>
       <c r="AS4">
-        <v>0.004148660927200154</v>
+        <v>0.00342244007467256</v>
       </c>
       <c r="AT4">
-        <v>0.004395729960936582</v>
+        <v>0.003650650422972258</v>
       </c>
       <c r="AU4">
-        <v>0.004537657431594061</v>
+        <v>0.003773339874409923</v>
       </c>
       <c r="AV4">
-        <v>0.004591548848046603</v>
+        <v>0.003807675651773672</v>
       </c>
       <c r="AW4">
-        <v>0.004704864130587509</v>
+        <v>0.003901649686939857</v>
       </c>
       <c r="AX4">
-        <v>0.004780936715579953</v>
+        <v>0.003958246658918156</v>
       </c>
       <c r="AY4">
-        <v>0.004793657819742574</v>
+        <v>0.003958246658918156</v>
       </c>
       <c r="AZ4">
-        <v>0.004793726871398028</v>
+        <v>0.003958246658918156</v>
       </c>
       <c r="BA4">
-        <v>0.00484974131471082</v>
+        <v>0.003994713122680275</v>
       </c>
       <c r="BB4">
-        <v>0.004854727782782581</v>
+        <v>0.003994713122680275</v>
       </c>
       <c r="BC4">
-        <v>0.00486265808626056</v>
+        <v>0.003994713122680275</v>
       </c>
       <c r="BD4">
-        <v>0.00486725854595773</v>
+        <v>0.003994713122680275</v>
       </c>
       <c r="BE4">
-        <v>0.004890697443414841</v>
+        <v>0.003998486513277022</v>
       </c>
       <c r="BF4">
-        <v>0.004972701728016825</v>
+        <v>0.0040610365854793</v>
       </c>
       <c r="BG4">
-        <v>0.005198886653127972</v>
+        <v>0.004268287478661812</v>
       </c>
       <c r="BH4">
-        <v>0.005523463401762375</v>
+        <v>0.004574285177180185</v>
       </c>
       <c r="BI4">
-        <v>0.005904080596707859</v>
+        <v>0.004936525506891451</v>
       </c>
       <c r="BJ4">
-        <v>0.006213362276349076</v>
+        <v>0.005227172954277303</v>
       </c>
       <c r="BK4">
-        <v>0.006691310524887644</v>
+        <v>0.005687095492307623</v>
       </c>
       <c r="BL4">
-        <v>0.007114146457054037</v>
+        <v>0.006091706877626914</v>
       </c>
       <c r="BM4">
-        <v>0.007477795183116488</v>
+        <v>0.006436917518959203</v>
       </c>
       <c r="BN4">
-        <v>0.007644247382159602</v>
+        <v>0.006584220180042674</v>
       </c>
       <c r="BO4">
-        <v>0.007697184908674935</v>
+        <v>0.006617598625988339</v>
       </c>
       <c r="BP4">
-        <v>0.007791947476437092</v>
+        <v>0.006692953011176437</v>
       </c>
       <c r="BQ4">
-        <v>0.007946322366275207</v>
+        <v>0.00682813479007334</v>
       </c>
       <c r="BR4">
-        <v>0.00798767649855303</v>
+        <v>0.006849888050765377</v>
       </c>
       <c r="BS4">
-        <v>0.00800197601061175</v>
+        <v>0.006849888050765377</v>
       </c>
       <c r="BT4">
-        <v>0.008043858042854823</v>
+        <v>0.006872171116000504</v>
       </c>
       <c r="BU4">
-        <v>0.00804675193616433</v>
+        <v>0.006872171116000504</v>
       </c>
       <c r="BV4">
-        <v>0.008054193414974486</v>
+        <v>0.006872171116000504</v>
       </c>
       <c r="BW4">
-        <v>0.008121606080536978</v>
+        <v>0.006920076924957806</v>
       </c>
       <c r="BX4">
-        <v>0.008192592195864245</v>
+        <v>0.006971569076109653</v>
       </c>
       <c r="BY4">
-        <v>0.008430739560187951</v>
+        <v>0.00719082556705391</v>
       </c>
       <c r="BZ4">
-        <v>0.008560043911676359</v>
+        <v>0.007300846357146712</v>
       </c>
       <c r="CA4">
-        <v>0.008610246215371741</v>
+        <v>0.007331479712030129</v>
       </c>
       <c r="CB4">
-        <v>0.0086102605133628</v>
+        <v>0.007331479712030129</v>
       </c>
       <c r="CC4">
-        <v>0.008615356298627365</v>
+        <v>0.007331479712030129</v>
       </c>
       <c r="CD4">
-        <v>0.00861584996424487</v>
+        <v>0.007331479712030129</v>
       </c>
       <c r="CE4">
-        <v>0.008653303971779422</v>
+        <v>0.00734931877695855</v>
       </c>
       <c r="CF4">
-        <v>0.00872630704697392</v>
+        <v>0.007402835164843164</v>
       </c>
       <c r="CG4">
-        <v>0.008736643277293527</v>
+        <v>0.007402835164843164</v>
       </c>
       <c r="CH4">
-        <v>0.008770838625042583</v>
+        <v>0.007417403813267738</v>
       </c>
       <c r="CI4">
-        <v>0.008788111348905588</v>
+        <v>0.007417403813267738</v>
       </c>
       <c r="CJ4">
-        <v>0.008878275072970468</v>
+        <v>0.007488142762873044</v>
       </c>
       <c r="CK4">
-        <v>0.008904255424260285</v>
+        <v>0.007494466776457574</v>
       </c>
       <c r="CL4">
-        <v>0.008950012261248294</v>
+        <v>0.007520638626107518</v>
       </c>
       <c r="CM4">
-        <v>0.01673026574910515</v>
+        <v>0.01530921194170519</v>
       </c>
       <c r="CN4">
-        <v>0.1303749922683249</v>
+        <v>0.1293442002141343</v>
       </c>
       <c r="CO4">
-        <v>0.1628864601282242</v>
+        <v>0.161953214130045</v>
       </c>
       <c r="CP4">
-        <v>0.1966002899089769</v>
+        <v>0.1957689278944821</v>
       </c>
       <c r="CQ4">
-        <v>0.2421919989078561</v>
+        <v>0.241505374347423</v>
       </c>
       <c r="CR4">
-        <v>0.2534773891649837</v>
+        <v>0.252811730399804</v>
       </c>
       <c r="CS4">
-        <v>0.2535241198019076</v>
+        <v>0.2528388795627027</v>
       </c>
       <c r="CT4">
-        <v>0.2636492001354139</v>
+        <v>0.2629807394806054</v>
       </c>
       <c r="CU4">
-        <v>0.2764492092928402</v>
+        <v>0.2758071789337219</v>
       </c>
       <c r="CV4">
-        <v>0.2861124006567507</v>
+        <v>0.2854854834612047</v>
       </c>
       <c r="CW4">
-        <v>0.3288566548430665</v>
+        <v>0.3283642019443779</v>
       </c>
       <c r="CX4">
-        <v>0.3300394821652057</v>
+        <v>0.3295315466458942</v>
       </c>
       <c r="CY4">
-        <v>0.3484200969552829</v>
+        <v>0.3479587256557212</v>
       </c>
       <c r="CZ4">
-        <v>0.3591976162458417</v>
+        <v>0.3587553784250885</v>
       </c>
       <c r="DA4">
-        <v>0.3774961720413205</v>
+        <v>0.3771002023847141</v>
       </c>
       <c r="DB4">
-        <v>0.3873866833902675</v>
+        <v>0.3870066470310355</v>
       </c>
       <c r="DC4">
-        <v>0.3877473654665252</v>
+        <v>0.3873488803193696</v>
       </c>
       <c r="DD4">
-        <v>0.3885886895111442</v>
+        <v>0.3881734896546807</v>
       </c>
       <c r="DE4">
-        <v>0.3968303144686308</v>
+        <v>0.396425098993676</v>
       </c>
       <c r="DF4">
-        <v>0.3973606081337237</v>
+        <v>0.3969375558020717</v>
       </c>
       <c r="DG4">
-        <v>0.4136451290617785</v>
+        <v>0.4132610785816643</v>
       </c>
       <c r="DH4">
-        <v>0.4137881847723617</v>
+        <v>0.4133849003435351</v>
       </c>
       <c r="DI4">
-        <v>0.425480577002698</v>
+        <v>0.4250997267665283</v>
       </c>
       <c r="DJ4">
-        <v>0.4256624134407285</v>
+        <v>0.4252624691704494</v>
       </c>
       <c r="DK4">
-        <v>0.4272946076332876</v>
+        <v>0.4268808019854979</v>
       </c>
       <c r="DL4">
-        <v>0.4273020491120978</v>
+        <v>0.4268808019854979</v>
       </c>
       <c r="DM4">
-        <v>0.4278520158758957</v>
+        <v>0.4274130028699622</v>
       </c>
       <c r="DN4">
-        <v>0.4278720596275762</v>
+        <v>0.4274133688656447</v>
       </c>
       <c r="DO4">
-        <v>0.4280808639638315</v>
+        <v>0.427603176463613</v>
       </c>
       <c r="DP4">
-        <v>0.4294676618725441</v>
+        <v>0.4289752276446454</v>
       </c>
       <c r="DQ4">
-        <v>0.4296028472836454</v>
+        <v>0.4290911507122646</v>
       </c>
       <c r="DR4">
-        <v>0.4296616516097745</v>
+        <v>0.4291304171242898</v>
       </c>
       <c r="DS4">
-        <v>0.4297078773737317</v>
+        <v>0.4291570595927217</v>
       </c>
       <c r="DT4">
-        <v>0.4351488200155761</v>
+        <v>0.4345978822064874</v>
       </c>
       <c r="DU4">
-        <v>0.4446897283875361</v>
+        <v>0.4441534625647288</v>
       </c>
       <c r="DV4">
-        <v>0.4449761983286789</v>
+        <v>0.444421215972547</v>
       </c>
       <c r="DW4">
-        <v>0.4671525668688968</v>
+        <v>0.4666578431991702</v>
       </c>
       <c r="DX4">
-        <v>0.4672433143029233</v>
+        <v>0.4667291679646684</v>
       </c>
       <c r="DY4">
-        <v>0.4826183642908449</v>
+        <v>0.4821399385798221</v>
       </c>
       <c r="DZ4">
-        <v>0.4826737679721979</v>
+        <v>0.4821757920780939</v>
       </c>
       <c r="EA4">
-        <v>0.4841708558736505</v>
+        <v>0.4836585311603523</v>
       </c>
       <c r="EB4">
-        <v>0.4896638015120717</v>
+        <v>0.4891515443891099</v>
       </c>
       <c r="EC4">
-        <v>0.4898912187971017</v>
+        <v>0.4893600320883669</v>
       </c>
       <c r="ED4">
-        <v>0.4905102088563561</v>
+        <v>0.489961505293193</v>
       </c>
       <c r="EE4">
-        <v>0.508994647639599</v>
+        <v>0.5084928828763893</v>
       </c>
       <c r="EF4">
-        <v>0.5248486925959903</v>
+        <v>0.5243843765965187</v>
       </c>
       <c r="EG4">
-        <v>0.5253556929326165</v>
+        <v>0.5248734560378796</v>
       </c>
       <c r="EH4">
-        <v>0.5730352447940613</v>
+        <v>0.5727052779533242</v>
       </c>
       <c r="EI4">
-        <v>0.6232033114916971</v>
+        <v>0.6230345928646848</v>
       </c>
       <c r="EJ4">
-        <v>0.6342092747672182</v>
+        <v>0.6340605138080269</v>
       </c>
       <c r="EK4">
-        <v>0.6445004960897881</v>
+        <v>0.644369114124856</v>
       </c>
       <c r="EL4">
-        <v>0.6634241848441169</v>
+        <v>0.6633413264221111</v>
       </c>
       <c r="EM4">
-        <v>0.6646157382656817</v>
+        <v>0.6645174287054109</v>
       </c>
       <c r="EN4">
-        <v>0.6646746398858044</v>
+        <v>0.6645567927624507</v>
       </c>
       <c r="EO4">
-        <v>0.6717670634189384</v>
+        <v>0.6716550545439082</v>
       </c>
       <c r="EP4">
-        <v>0.6813379697889237</v>
+        <v>0.6812407411281083</v>
       </c>
       <c r="EQ4">
-        <v>0.693594454982128</v>
+        <v>0.6935216956702991</v>
       </c>
       <c r="ER4">
-        <v>0.7053355642092575</v>
+        <v>0.7052854148531438</v>
       </c>
       <c r="ES4">
-        <v>0.7107073141556566</v>
+        <v>0.710656795135391</v>
       </c>
       <c r="ET4">
-        <v>0.7133457442819792</v>
+        <v>0.7132849942209819</v>
       </c>
       <c r="EU4">
-        <v>0.7182274879606334</v>
+        <v>0.7181646003719884</v>
       </c>
       <c r="EV4">
-        <v>0.7451283981898534</v>
+        <v>0.7451428146711875</v>
       </c>
       <c r="EW4">
-        <v>0.801762451461859</v>
+        <v>0.8019614443924586</v>
       </c>
       <c r="EX4">
-        <v>0.8191591813167014</v>
+        <v>0.8194011887690659</v>
       </c>
       <c r="EY4">
-        <v>0.8194545909672558</v>
+        <v>0.8196779141393238</v>
       </c>
       <c r="EZ4">
-        <v>0.8195453384012823</v>
+        <v>0.819749238904822</v>
       </c>
       <c r="FA4">
-        <v>0.8220047236393907</v>
+        <v>0.8221977471371512</v>
       </c>
       <c r="FB4">
-        <v>0.822039113057127</v>
+        <v>0.8222125105557362</v>
       </c>
       <c r="FC4">
-        <v>0.8315368714319273</v>
+        <v>0.8317247852385954</v>
       </c>
       <c r="FD4">
-        <v>0.8325525453650696</v>
+        <v>0.8327243734886765</v>
       </c>
       <c r="FE4">
-        <v>0.8327000392753606</v>
+        <v>0.8328526494625631</v>
       </c>
       <c r="FF4">
-        <v>0.8327259550176547</v>
+        <v>0.8328589086340531</v>
       </c>
       <c r="FG4">
-        <v>0.8329767747211442</v>
+        <v>0.8330908831839168</v>
       </c>
       <c r="FH4">
-        <v>0.8382797743720688</v>
+        <v>0.8383932651307242</v>
       </c>
       <c r="FI4">
-        <v>0.8395822790863301</v>
+        <v>0.83968071900107</v>
       </c>
       <c r="FJ4">
-        <v>0.8634014685184076</v>
+        <v>0.8635660941520753</v>
       </c>
       <c r="FK4">
-        <v>0.8911566766913926</v>
+        <v>0.8914016885640828</v>
       </c>
       <c r="FL4">
-        <v>0.898311259220435</v>
+        <v>0.8985623336010694</v>
       </c>
       <c r="FM4">
-        <v>0.9005014747762617</v>
+        <v>0.9007407010303643</v>
       </c>
       <c r="FN4">
-        <v>0.9010756909384634</v>
+        <v>0.9012972388011464</v>
       </c>
       <c r="FO4">
-        <v>0.9089834634179262</v>
+        <v>0.9092137911762821</v>
       </c>
       <c r="FP4">
-        <v>0.9191134457511098</v>
+        <v>0.9193605707794854</v>
       </c>
       <c r="FQ4">
-        <v>0.9256642423198969</v>
+        <v>0.9259152514939615</v>
       </c>
       <c r="FR4">
-        <v>0.9317548354189773</v>
+        <v>0.9320080683989183</v>
       </c>
       <c r="FS4">
-        <v>0.9329982229371301</v>
+        <v>0.9332361917878571</v>
       </c>
       <c r="FT4">
-        <v>0.9412268523954721</v>
+        <v>0.9414747587420452</v>
       </c>
       <c r="FU4">
-        <v>0.9420251974829202</v>
+        <v>0.9422562340590476</v>
       </c>
       <c r="FV4">
-        <v>0.942281679746037</v>
+        <v>0.9424938915981393</v>
       </c>
       <c r="FW4">
-        <v>0.9423490924115996</v>
+        <v>0.9425417974070966</v>
       </c>
       <c r="FX4">
-        <v>0.9423547088422298</v>
+        <v>0.9425417974070966</v>
       </c>
       <c r="FY4">
-        <v>0.9424418638564928</v>
+        <v>0.9426095167919608</v>
       </c>
       <c r="FZ4">
-        <v>0.9424419256888187</v>
+        <v>0.9426095167919608</v>
       </c>
       <c r="GA4">
-        <v>0.9448221951321351</v>
+        <v>0.9449786237924845</v>
       </c>
       <c r="GB4">
-        <v>0.9450268813986614</v>
+        <v>0.9451642984633933</v>
       </c>
       <c r="GC4">
-        <v>0.9451075940233484</v>
+        <v>0.9452255522155802</v>
       </c>
       <c r="GD4">
-        <v>0.9482579875159706</v>
+        <v>0.9483675617486329</v>
       </c>
       <c r="GE4">
-        <v>0.9539430488417456</v>
+        <v>0.9540533837871247</v>
       </c>
       <c r="GF4">
-        <v>0.9559313460108639</v>
+        <v>0.9560291043407743</v>
       </c>
       <c r="GG4">
-        <v>0.9579388456787182</v>
+        <v>0.9580240966726747</v>
       </c>
       <c r="GH4">
-        <v>0.9599007771495721</v>
+        <v>0.9599733564048776</v>
       </c>
       <c r="GI4">
-        <v>0.9599436740967484</v>
+        <v>0.9599966580466951</v>
       </c>
       <c r="GJ4">
-        <v>0.9604587118028455</v>
+        <v>0.9604938038550582</v>
       </c>
       <c r="GK4">
-        <v>0.9643247470483598</v>
+        <v>0.9643540370608976</v>
       </c>
       <c r="GL4">
-        <v>0.9667050164916762</v>
+        <v>0.9667231440614213</v>
       </c>
       <c r="GM4">
-        <v>0.9676327104306097</v>
+        <v>0.9676344348996803</v>
       </c>
       <c r="GN4">
-        <v>0.9693452120178826</v>
+        <v>0.9693333648455559</v>
       </c>
       <c r="GO4">
-        <v>0.9719168186486039</v>
+        <v>0.9718944993471629</v>
       </c>
       <c r="GP4">
-        <v>0.980209373102738</v>
+        <v>0.9801972219282064</v>
       </c>
       <c r="GQ4">
-        <v>0.9906777529136462</v>
+        <v>0.9906836198925951</v>
       </c>
       <c r="GR4">
-        <v>0.9968307702086175</v>
+        <v>0.9968390862098623</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.613143968190198E-05</v>
+        <v>4.086506810615947E-06</v>
       </c>
       <c r="C5">
-        <v>0.0001001827330244833</v>
+        <v>7.624812276720625E-05</v>
       </c>
       <c r="D5">
-        <v>0.001013486015014934</v>
+        <v>0.0009795572838693666</v>
       </c>
       <c r="E5">
-        <v>0.001369590787992856</v>
+        <v>0.001324394256463831</v>
       </c>
       <c r="F5">
-        <v>0.001397044676451489</v>
+        <v>0.001339829093618714</v>
       </c>
       <c r="G5">
-        <v>0.001597172852505135</v>
+        <v>0.001528332928145997</v>
       </c>
       <c r="H5">
-        <v>0.001755154899389865</v>
+        <v>0.001674594293224096</v>
       </c>
       <c r="I5">
-        <v>0.001760289588288614</v>
+        <v>0.001674594293224096</v>
       </c>
       <c r="J5">
-        <v>0.001789433610713919</v>
+        <v>0.001691723127760471</v>
       </c>
       <c r="K5">
-        <v>0.001801487863476219</v>
+        <v>0.001691723127760471</v>
       </c>
       <c r="L5">
-        <v>0.001857967057362499</v>
+        <v>0.001736249618216813</v>
       </c>
       <c r="M5">
-        <v>0.001867002553184326</v>
+        <v>0.001736249618216813</v>
       </c>
       <c r="N5">
-        <v>0.001867042465113539</v>
+        <v>0.001736249618216813</v>
       </c>
       <c r="O5">
-        <v>0.00187236871900851</v>
+        <v>0.001736249618216813</v>
       </c>
       <c r="P5">
-        <v>0.002007387396346059</v>
+        <v>0.001859495122629288</v>
       </c>
       <c r="Q5">
-        <v>0.002415092738306463</v>
+        <v>0.002256050616041332</v>
       </c>
       <c r="R5">
-        <v>0.002415447940769459</v>
+        <v>0.002256050616041332</v>
       </c>
       <c r="S5">
-        <v>0.002415608370456295</v>
+        <v>0.002256050616041332</v>
       </c>
       <c r="T5">
-        <v>0.002478115859223702</v>
+        <v>0.002306619181235453</v>
       </c>
       <c r="U5">
-        <v>0.002501087737770716</v>
+        <v>0.002317561763217775</v>
       </c>
       <c r="V5">
-        <v>0.002535030032101403</v>
+        <v>0.002339499837852087</v>
       </c>
       <c r="W5">
-        <v>0.002536690846468653</v>
+        <v>0.002339499837852087</v>
       </c>
       <c r="X5">
-        <v>0.002596443468290383</v>
+        <v>0.002387307238851913</v>
       </c>
       <c r="Y5">
-        <v>0.002613715845949787</v>
+        <v>0.002392537291668021</v>
       </c>
       <c r="Z5">
-        <v>0.002888474840531778</v>
+        <v>0.002655842540555707</v>
       </c>
       <c r="AA5">
-        <v>0.003465290529157472</v>
+        <v>0.003221894943729469</v>
       </c>
       <c r="AB5">
-        <v>0.003483339650801559</v>
+        <v>0.003227903516060649</v>
       </c>
       <c r="AC5">
-        <v>0.003484737588673993</v>
+        <v>0.003227903516060649</v>
       </c>
       <c r="AD5">
-        <v>0.003503310018307761</v>
+        <v>0.00323443659259192</v>
       </c>
       <c r="AE5">
-        <v>0.003540925427566017</v>
+        <v>0.003260056178391571</v>
       </c>
       <c r="AF5">
-        <v>0.004357068811472377</v>
+        <v>0.004065983347186593</v>
       </c>
       <c r="AG5">
-        <v>0.004919225760387128</v>
+        <v>0.004617343502777634</v>
       </c>
       <c r="AH5">
-        <v>0.00509635566689428</v>
+        <v>0.004782796496863361</v>
       </c>
       <c r="AI5">
-        <v>0.005196082544927752</v>
+        <v>0.004870669529751009</v>
       </c>
       <c r="AJ5">
-        <v>0.005196374301821998</v>
+        <v>0.004870669529751009</v>
       </c>
       <c r="AK5">
-        <v>0.005196432702464847</v>
+        <v>0.004870669529751009</v>
       </c>
       <c r="AL5">
-        <v>0.005324724029935053</v>
+        <v>0.004987172306495512</v>
       </c>
       <c r="AM5">
-        <v>0.005327095695088286</v>
+        <v>0.004987172306495512</v>
       </c>
       <c r="AN5">
-        <v>0.005482763002018661</v>
+        <v>0.005131113640440675</v>
       </c>
       <c r="AO5">
-        <v>0.00553724158394439</v>
+        <v>0.005173634945811465</v>
       </c>
       <c r="AP5">
-        <v>0.005637353621970267</v>
+        <v>0.005261894019114522</v>
       </c>
       <c r="AQ5">
-        <v>0.005684857851033525</v>
+        <v>0.005297425029207186</v>
       </c>
       <c r="AR5">
-        <v>0.005691221289908044</v>
+        <v>0.005297425029207186</v>
       </c>
       <c r="AS5">
-        <v>0.005998539603847992</v>
+        <v>0.00559336402359858</v>
       </c>
       <c r="AT5">
-        <v>0.006136290801131658</v>
+        <v>0.005719348294123609</v>
       </c>
       <c r="AU5">
-        <v>0.0062763454983699</v>
+        <v>0.005847641330088697</v>
       </c>
       <c r="AV5">
-        <v>0.06017673143550098</v>
+        <v>0.05985915436183191</v>
       </c>
       <c r="AW5">
-        <v>0.07495181014414923</v>
+        <v>0.07465592507014313</v>
       </c>
       <c r="AX5">
-        <v>0.08236998059786933</v>
+        <v>0.08207897063862689</v>
       </c>
       <c r="AY5">
-        <v>0.1017138632164247</v>
+        <v>0.1014549889169832</v>
       </c>
       <c r="AZ5">
-        <v>0.1652800179629552</v>
+        <v>0.1651543653821035</v>
       </c>
       <c r="BA5">
-        <v>0.178620825699886</v>
+        <v>0.1785135865716487</v>
       </c>
       <c r="BB5">
-        <v>0.1786767564587831</v>
+        <v>0.1785575633734686</v>
       </c>
       <c r="BC5">
-        <v>0.1893304802487009</v>
+        <v>0.1892235583100367</v>
       </c>
       <c r="BD5">
-        <v>0.1894181535369721</v>
+        <v>0.1892993502003063</v>
       </c>
       <c r="BE5">
-        <v>0.2211456499113334</v>
+        <v>0.2210872894798429</v>
       </c>
       <c r="BF5">
-        <v>0.223387754667121</v>
+        <v>0.2233224375729603</v>
       </c>
       <c r="BG5">
-        <v>0.2481550621787312</v>
+        <v>0.2481342779510547</v>
       </c>
       <c r="BH5">
-        <v>0.2564983320142091</v>
+        <v>0.2564845375518104</v>
       </c>
       <c r="BI5">
-        <v>0.2586148216724738</v>
+        <v>0.2585937834084923</v>
       </c>
       <c r="BJ5">
-        <v>0.2610178669250878</v>
+        <v>0.2609902398863745</v>
       </c>
       <c r="BK5">
-        <v>0.2669940138072434</v>
+        <v>0.2669679656148635</v>
       </c>
       <c r="BL5">
-        <v>0.2676801855537127</v>
+        <v>0.2676436240488551</v>
       </c>
       <c r="BM5">
-        <v>0.2679621088481534</v>
+        <v>0.2679141099742099</v>
       </c>
       <c r="BN5">
-        <v>0.2680948659655356</v>
+        <v>0.2680350887490506</v>
       </c>
       <c r="BO5">
-        <v>0.2706016636161037</v>
+        <v>0.270535534788662</v>
       </c>
       <c r="BP5">
-        <v>0.2718377305917295</v>
+        <v>0.2717623454370076</v>
       </c>
       <c r="BQ5">
-        <v>0.2741090162469417</v>
+        <v>0.2740267411330901</v>
       </c>
       <c r="BR5">
-        <v>0.2763896263019701</v>
+        <v>0.2763004825432898</v>
       </c>
       <c r="BS5">
-        <v>0.2764185626793995</v>
+        <v>0.2763174032581823</v>
       </c>
       <c r="BT5">
-        <v>0.2784135322400604</v>
+        <v>0.2783048512389569</v>
       </c>
       <c r="BU5">
-        <v>0.278487896588594</v>
+        <v>0.2783673037670751</v>
       </c>
       <c r="BV5">
-        <v>0.2803448868519757</v>
+        <v>0.2802164570487902</v>
       </c>
       <c r="BW5">
-        <v>0.2803507667968598</v>
+        <v>0.2802164570487902</v>
       </c>
       <c r="BX5">
-        <v>0.2830745607431489</v>
+        <v>0.2829343954079416</v>
       </c>
       <c r="BY5">
-        <v>0.2839075412867232</v>
+        <v>0.2837571982238462</v>
       </c>
       <c r="BZ5">
-        <v>0.285764531550105</v>
+        <v>0.2856063515055613</v>
       </c>
       <c r="CA5">
-        <v>0.2864306504369697</v>
+        <v>0.2862619112418571</v>
       </c>
       <c r="CB5">
-        <v>0.2864956097996887</v>
+        <v>0.2863149372856509</v>
       </c>
       <c r="CC5">
-        <v>0.2880739431685654</v>
+        <v>0.2878847967013562</v>
       </c>
       <c r="CD5">
-        <v>0.2891555261472375</v>
+        <v>0.2889567702234844</v>
       </c>
       <c r="CE5">
-        <v>0.2907478899158374</v>
+        <v>0.2905406921104856</v>
       </c>
       <c r="CF5">
-        <v>0.2930601041702426</v>
+        <v>0.2928461099629344</v>
       </c>
       <c r="CG5">
-        <v>0.2936588379984361</v>
+        <v>0.2934341306075418</v>
       </c>
       <c r="CH5">
-        <v>0.2950138455717165</v>
+        <v>0.2947801537354618</v>
       </c>
       <c r="CI5">
-        <v>0.2956441534592874</v>
+        <v>0.295399820613423</v>
       </c>
       <c r="CJ5">
-        <v>0.3009089413554703</v>
+        <v>0.3006645612867028</v>
       </c>
       <c r="CK5">
-        <v>0.3032983187083538</v>
+        <v>0.3030473186219073</v>
       </c>
       <c r="CL5">
-        <v>0.3035205032639726</v>
+        <v>0.3032579292538631</v>
       </c>
       <c r="CM5">
-        <v>0.310601113524349</v>
+        <v>0.310342643012623</v>
       </c>
       <c r="CN5">
-        <v>0.3394318479558319</v>
+        <v>0.3392271987481294</v>
       </c>
       <c r="CO5">
-        <v>0.3452110628418708</v>
+        <v>0.3450075423209242</v>
       </c>
       <c r="CP5">
-        <v>0.355065846647543</v>
+        <v>0.3548727710058405</v>
       </c>
       <c r="CQ5">
-        <v>0.3902759059532311</v>
+        <v>0.3901512338787023</v>
       </c>
       <c r="CR5">
-        <v>0.4180282934059781</v>
+        <v>0.417954977681936</v>
       </c>
       <c r="CS5">
-        <v>0.4196625780737514</v>
+        <v>0.4195809162935459</v>
       </c>
       <c r="CT5">
-        <v>0.4257471379537692</v>
+        <v>0.4256673028371653</v>
       </c>
       <c r="CU5">
-        <v>0.4293313688830913</v>
+        <v>0.4292476450204744</v>
       </c>
       <c r="CV5">
-        <v>0.4312693830448753</v>
+        <v>0.4311780074101291</v>
       </c>
       <c r="CW5">
-        <v>0.431409312222116</v>
+        <v>0.4313061746391751</v>
       </c>
       <c r="CX5">
-        <v>0.437244657607048</v>
+        <v>0.4371427770174977</v>
       </c>
       <c r="CY5">
-        <v>0.4554500262480539</v>
+        <v>0.455377678831247</v>
       </c>
       <c r="CZ5">
-        <v>0.4827069377105712</v>
+        <v>0.4826848140539823</v>
       </c>
       <c r="DA5">
-        <v>0.4991273873867741</v>
+        <v>0.4991307168225816</v>
       </c>
       <c r="DB5">
-        <v>0.4991401297825229</v>
+        <v>0.4991314065385687</v>
       </c>
       <c r="DC5">
-        <v>0.5031138633041643</v>
+        <v>0.5031021416637891</v>
       </c>
       <c r="DD5">
-        <v>0.5117753931333664</v>
+        <v>0.5117713887570358</v>
       </c>
       <c r="DE5">
-        <v>0.5508732623623903</v>
+        <v>0.5509465485543655</v>
       </c>
       <c r="DF5">
-        <v>0.5953566514852164</v>
+        <v>0.5955195388065428</v>
       </c>
       <c r="DG5">
-        <v>0.609205306212133</v>
+        <v>0.6093877678547541</v>
       </c>
       <c r="DH5">
-        <v>0.6108869080789733</v>
+        <v>0.611061131826069</v>
       </c>
       <c r="DI5">
-        <v>0.6110425753859037</v>
+        <v>0.6112050731600142</v>
       </c>
       <c r="DJ5">
-        <v>0.6131788675437778</v>
+        <v>0.6133341667821081</v>
       </c>
       <c r="DK5">
-        <v>0.615064386906597</v>
+        <v>0.6152119143768755</v>
       </c>
       <c r="DL5">
-        <v>0.6207991121935132</v>
+        <v>0.6209476666534159</v>
       </c>
       <c r="DM5">
-        <v>0.6231980528462082</v>
+        <v>0.6233400091488257</v>
       </c>
       <c r="DN5">
-        <v>0.6240366838996712</v>
+        <v>0.6241684753909107</v>
       </c>
       <c r="DO5">
-        <v>0.624378188152937</v>
+        <v>0.6244986784690042</v>
       </c>
       <c r="DP5">
-        <v>0.6271567256981466</v>
+        <v>0.6272714855634473</v>
       </c>
       <c r="DQ5">
-        <v>0.6290101080615995</v>
+        <v>0.6291170226980684</v>
       </c>
       <c r="DR5">
-        <v>0.6388150628682543</v>
+        <v>0.6389323084816985</v>
       </c>
       <c r="DS5">
-        <v>0.6654213143436021</v>
+        <v>0.6655872963976275</v>
       </c>
       <c r="DT5">
-        <v>0.6855076319475173</v>
+        <v>0.6857074467660595</v>
       </c>
       <c r="DU5">
-        <v>0.6948671017629566</v>
+        <v>0.6950762292407839</v>
       </c>
       <c r="DV5">
-        <v>0.6957444811456555</v>
+        <v>0.6959435323854797</v>
       </c>
       <c r="DW5">
-        <v>0.6988540998843364</v>
+        <v>0.6990481774796679</v>
       </c>
       <c r="DX5">
-        <v>0.7066423122307597</v>
+        <v>0.7068421108059521</v>
       </c>
       <c r="DY5">
-        <v>0.7135408465947266</v>
+        <v>0.7137443324677345</v>
       </c>
       <c r="DZ5">
-        <v>0.7194266804786631</v>
+        <v>0.7196315387548569</v>
       </c>
       <c r="EA5">
-        <v>0.7202065433232848</v>
+        <v>0.7204011024520224</v>
       </c>
       <c r="EB5">
-        <v>0.720409995289273</v>
+        <v>0.7205929376742128</v>
       </c>
       <c r="EC5">
-        <v>0.7215882280660393</v>
+        <v>0.7217617819226394</v>
       </c>
       <c r="ED5">
-        <v>0.7229135930399042</v>
+        <v>0.7230780946922206</v>
       </c>
       <c r="EE5">
-        <v>0.7229677875908356</v>
+        <v>0.7231203313173411</v>
       </c>
       <c r="EF5">
-        <v>0.7229774201481456</v>
+        <v>0.7231203313173411</v>
       </c>
       <c r="EG5">
-        <v>0.7230763122701955</v>
+        <v>0.7232073676861074</v>
       </c>
       <c r="EH5">
-        <v>0.724448456143138</v>
+        <v>0.7245705662849241</v>
       </c>
       <c r="EI5">
-        <v>0.7255817165207911</v>
+        <v>0.7256943353334911</v>
       </c>
       <c r="EJ5">
-        <v>0.725587042774686</v>
+        <v>0.7256943353334911</v>
       </c>
       <c r="EK5">
-        <v>0.7261353832638732</v>
+        <v>0.7262318474468196</v>
       </c>
       <c r="EL5">
-        <v>0.7261450158211832</v>
+        <v>0.7262318474468196</v>
       </c>
       <c r="EM5">
-        <v>0.7295272017544894</v>
+        <v>0.7296096827869176</v>
       </c>
       <c r="EN5">
-        <v>0.7353008563406379</v>
+        <v>0.7353844533497379</v>
       </c>
       <c r="EO5">
-        <v>0.7384344680788458</v>
+        <v>0.7385131462881646</v>
       </c>
       <c r="EP5">
-        <v>0.7420747148070633</v>
+        <v>0.7421496323148151</v>
       </c>
       <c r="EQ5">
-        <v>0.7427208085943229</v>
+        <v>0.7427851211768701</v>
       </c>
       <c r="ER5">
-        <v>0.742793168872896</v>
+        <v>0.7428455650539983</v>
       </c>
       <c r="ES5">
-        <v>0.7435644781576864</v>
+        <v>0.743606555639066</v>
       </c>
       <c r="ET5">
-        <v>0.7476641623768442</v>
+        <v>0.747703529367851</v>
       </c>
       <c r="EU5">
-        <v>0.7509586209118804</v>
+        <v>0.7509934367768589</v>
       </c>
       <c r="EV5">
-        <v>0.7538932718540116</v>
+        <v>0.7539227141220726</v>
       </c>
       <c r="EW5">
-        <v>0.7576946643790514</v>
+        <v>0.7577207143027715</v>
       </c>
       <c r="EX5">
-        <v>0.76163152130142</v>
+        <v>0.7616544885338626</v>
       </c>
       <c r="EY5">
-        <v>0.7685045691658894</v>
+        <v>0.7685311654374997</v>
       </c>
       <c r="EZ5">
-        <v>0.7781213769762543</v>
+        <v>0.7781578741465691</v>
       </c>
       <c r="FA5">
-        <v>0.787639863788558</v>
+        <v>0.7876860371092387</v>
       </c>
       <c r="FB5">
-        <v>0.7947628276480994</v>
+        <v>0.7948132012816916</v>
       </c>
       <c r="FC5">
-        <v>0.7955264019030424</v>
+        <v>0.7955664391556927</v>
       </c>
       <c r="FD5">
-        <v>0.7965005988238321</v>
+        <v>0.7965307811501143</v>
       </c>
       <c r="FE5">
-        <v>0.8034674356864521</v>
+        <v>0.8035014614407092</v>
       </c>
       <c r="FF5">
-        <v>0.8223495773141126</v>
+        <v>0.822414683251491</v>
       </c>
       <c r="FG5">
-        <v>0.8410556399452452</v>
+        <v>0.8411514235732691</v>
       </c>
       <c r="FH5">
-        <v>0.8554028296623311</v>
+        <v>0.8555193271943735</v>
       </c>
       <c r="FI5">
-        <v>0.8635382765019071</v>
+        <v>0.8636612887443156</v>
       </c>
       <c r="FJ5">
-        <v>0.8644008320848983</v>
+        <v>0.8645137342041274</v>
       </c>
       <c r="FK5">
-        <v>0.8644735205084649</v>
+        <v>0.8645745069763436</v>
       </c>
       <c r="FL5">
-        <v>0.8661924014745701</v>
+        <v>0.8662852352618398</v>
       </c>
       <c r="FM5">
-        <v>0.8683506891320105</v>
+        <v>0.8684363746622001</v>
       </c>
       <c r="FN5">
-        <v>0.8726135457479507</v>
+        <v>0.8726968937775237</v>
       </c>
       <c r="FO5">
-        <v>0.8766657772680442</v>
+        <v>0.876746306336872</v>
       </c>
       <c r="FP5">
-        <v>0.8771601859082949</v>
+        <v>0.8772297633204421</v>
       </c>
       <c r="FQ5">
-        <v>0.8791902276682643</v>
+        <v>0.8792523636707703</v>
       </c>
       <c r="FR5">
-        <v>0.8857317245392716</v>
+        <v>0.885796731700773</v>
       </c>
       <c r="FS5">
-        <v>0.8981381142946283</v>
+        <v>0.8982193989571868</v>
       </c>
       <c r="FT5">
-        <v>0.9084885370905269</v>
+        <v>0.908581399595194</v>
       </c>
       <c r="FU5">
-        <v>0.9137027973877062</v>
+        <v>0.9137954971702975</v>
       </c>
       <c r="FV5">
-        <v>0.9148398206652851</v>
+        <v>0.9149230377202644</v>
       </c>
       <c r="FW5">
-        <v>0.9165455533316496</v>
+        <v>0.9166205876508069</v>
       </c>
       <c r="FX5">
-        <v>0.9211213506414188</v>
+        <v>0.921194762799535</v>
       </c>
       <c r="FY5">
-        <v>0.9270071845253552</v>
+        <v>0.9270819690866574</v>
       </c>
       <c r="FZ5">
-        <v>0.9330765074056735</v>
+        <v>0.9331530838008824</v>
       </c>
       <c r="GA5">
-        <v>0.9388112326925897</v>
+        <v>0.9388888360774228</v>
       </c>
       <c r="GB5">
-        <v>0.9465134402407088</v>
+        <v>0.9465965680102105</v>
       </c>
       <c r="GC5">
-        <v>0.9476270475187495</v>
+        <v>0.9477006390348705</v>
       </c>
       <c r="GD5">
-        <v>0.9479487247124063</v>
+        <v>0.9480109697314116</v>
       </c>
       <c r="GE5">
-        <v>0.949306817485626</v>
+        <v>0.9493600851116155</v>
       </c>
       <c r="GF5">
-        <v>0.9530676560114655</v>
+        <v>0.9531174385922251</v>
       </c>
       <c r="GG5">
-        <v>0.9610976718531206</v>
+        <v>0.9611537281434215</v>
       </c>
       <c r="GH5">
-        <v>0.9686471947042505</v>
+        <v>0.9687084263629097</v>
       </c>
       <c r="GI5">
-        <v>0.9740288735981285</v>
+        <v>0.9740903252306995</v>
       </c>
       <c r="GJ5">
-        <v>0.9801622744771832</v>
+        <v>0.9802256644171918</v>
       </c>
       <c r="GK5">
-        <v>0.985173658778363</v>
+        <v>0.9852364222495485</v>
       </c>
       <c r="GL5">
-        <v>0.9891445411000607</v>
+        <v>0.9892042996573726</v>
       </c>
       <c r="GM5">
-        <v>0.9935693332128076</v>
+        <v>0.993627124431875</v>
       </c>
       <c r="GN5">
-        <v>0.9952194589802685</v>
+        <v>0.9952689403537573</v>
       </c>
       <c r="GO5">
-        <v>0.9960447050639955</v>
+        <v>0.9960839910298982</v>
       </c>
       <c r="GP5">
-        <v>0.9985324980149384</v>
+        <v>0.9985653889277433</v>
       </c>
       <c r="GQ5">
-        <v>0.9997454866910193</v>
+        <v>0.9997690685227113</v>
       </c>
       <c r="GR5">
-        <v>0.9997870322442001</v>
+        <v>0.9997986272362043</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.150377995643334E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.451033864504702E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3.274543674598778E-05</v>
+        <v>2.237571319895949E-05</v>
       </c>
       <c r="E6">
-        <v>9.862149649650457E-05</v>
+        <v>7.939163966859957E-05</v>
       </c>
       <c r="F6">
-        <v>0.0002059866910898954</v>
+        <v>0.0001779669536718115</v>
       </c>
       <c r="G6">
-        <v>0.0003127378206856117</v>
+        <v>0.0002759271628938368</v>
       </c>
       <c r="H6">
-        <v>0.0003425020755728897</v>
+        <v>0.0002967701371307591</v>
       </c>
       <c r="I6">
-        <v>0.0003640742074911926</v>
+        <v>0.0003094071168469548</v>
       </c>
       <c r="J6">
-        <v>0.0003730307214572728</v>
+        <v>0.0003094071168469548</v>
       </c>
       <c r="K6">
-        <v>0.0003731409451568554</v>
+        <v>0.0003094071168469548</v>
       </c>
       <c r="L6">
-        <v>0.0003773155476410455</v>
+        <v>0.0003094071168469548</v>
       </c>
       <c r="M6">
-        <v>0.0003878133066012888</v>
+        <v>0.0003109509715992696</v>
       </c>
       <c r="N6">
-        <v>0.0003994964885570427</v>
+        <v>0.0003136822565992435</v>
       </c>
       <c r="O6">
-        <v>0.0004142582555011376</v>
+        <v>0.0003194973394916062</v>
       </c>
       <c r="P6">
-        <v>0.0006257986447000002</v>
+        <v>0.0005224242457945955</v>
       </c>
       <c r="Q6">
-        <v>0.0009086913436286402</v>
+        <v>0.0007968242812121241</v>
       </c>
       <c r="R6">
-        <v>0.001219525722451461</v>
+        <v>0.001099213309590317</v>
       </c>
       <c r="S6">
-        <v>0.001324824532052677</v>
+        <v>0.001195718739634546</v>
       </c>
       <c r="T6">
-        <v>0.001386883171817651</v>
+        <v>0.001248910782160633</v>
       </c>
       <c r="U6">
-        <v>0.001494426811410366</v>
+        <v>0.001347664843320382</v>
       </c>
       <c r="V6">
-        <v>0.001560925711158524</v>
+        <v>0.001405304664429701</v>
       </c>
       <c r="W6">
-        <v>0.001648932616825228</v>
+        <v>0.001484488910517473</v>
       </c>
       <c r="X6">
-        <v>0.001651943778513824</v>
+        <v>0.001484488910517473</v>
       </c>
       <c r="Y6">
-        <v>0.001653663109107313</v>
+        <v>0.001484488910517473</v>
       </c>
       <c r="Z6">
-        <v>0.001656538524596423</v>
+        <v>0.001484488910517473</v>
       </c>
       <c r="AA6">
-        <v>0.001656675630835904</v>
+        <v>0.001484488910517473</v>
       </c>
       <c r="AB6">
-        <v>0.001679270294750334</v>
+        <v>0.001498150153661997</v>
       </c>
       <c r="AC6">
-        <v>0.001731774484551493</v>
+        <v>0.001541771567872499</v>
       </c>
       <c r="AD6">
-        <v>0.001825079269198132</v>
+        <v>0.001626262663728697</v>
       </c>
       <c r="AE6">
-        <v>0.001977110008622367</v>
+        <v>0.00176957915380254</v>
       </c>
       <c r="AF6">
-        <v>0.002028473710427845</v>
+        <v>0.001812058148852715</v>
       </c>
       <c r="AG6">
-        <v>0.002073125192258743</v>
+        <v>0.001847813558265576</v>
       </c>
       <c r="AH6">
-        <v>0.00210924015012197</v>
+        <v>0.001875017988991953</v>
       </c>
       <c r="AI6">
-        <v>0.002112900914108106</v>
+        <v>0.001875017988991953</v>
       </c>
       <c r="AJ6">
-        <v>0.002143411243992558</v>
+        <v>0.001896608301539354</v>
       </c>
       <c r="AK6">
-        <v>0.002147621084976614</v>
+        <v>0.001896608301539354</v>
       </c>
       <c r="AL6">
-        <v>0.002162611750919842</v>
+        <v>0.001902652671020773</v>
       </c>
       <c r="AM6">
-        <v>0.002169609173493342</v>
+        <v>0.001902652671020773</v>
       </c>
       <c r="AN6">
-        <v>0.002211000506336586</v>
+        <v>0.001935142411103381</v>
       </c>
       <c r="AO6">
-        <v>0.002319984975923845</v>
+        <v>0.002035339741985191</v>
       </c>
       <c r="AP6">
-        <v>0.002455160775411912</v>
+        <v>0.002161772752002989</v>
       </c>
       <c r="AQ6">
-        <v>0.002581515314933387</v>
+        <v>0.002279369565197825</v>
       </c>
       <c r="AR6">
-        <v>0.002764457994240554</v>
+        <v>0.002453650337700659</v>
       </c>
       <c r="AS6">
-        <v>0.003054718093141293</v>
+        <v>0.002735430248155709</v>
       </c>
       <c r="AT6">
-        <v>0.003237660772448459</v>
+        <v>0.002909711020658543</v>
       </c>
       <c r="AU6">
-        <v>0.003612144121030231</v>
+        <v>0.003275856794274801</v>
       </c>
       <c r="AV6">
-        <v>0.05761285391652089</v>
+        <v>0.05735903319073991</v>
       </c>
       <c r="AW6">
-        <v>0.05944088960959782</v>
+        <v>0.05918119257885992</v>
       </c>
       <c r="AX6">
-        <v>0.1142253294021204</v>
+        <v>0.1140494260460903</v>
       </c>
       <c r="AY6">
-        <v>0.1271742083530809</v>
+        <v>0.1270112593851092</v>
       </c>
       <c r="AZ6">
-        <v>0.1522311482581862</v>
+        <v>0.1521016560065182</v>
       </c>
       <c r="BA6">
-        <v>0.1522568391500889</v>
+        <v>0.1521184187204296</v>
       </c>
       <c r="BB6">
-        <v>0.1544204106418952</v>
+        <v>0.154276682063081</v>
       </c>
       <c r="BC6">
-        <v>0.1545265230114933</v>
+        <v>0.1543740024307064</v>
       </c>
       <c r="BD6">
-        <v>0.1546578170409961</v>
+        <v>0.1544965470978184</v>
       </c>
       <c r="BE6">
-        <v>0.1837182609309395</v>
+        <v>0.1835972267542486</v>
       </c>
       <c r="BF6">
-        <v>0.197676874878076</v>
+        <v>0.19757050485275</v>
       </c>
       <c r="BG6">
-        <v>0.2033928922564285</v>
+        <v>0.2032872293648172</v>
       </c>
       <c r="BH6">
-        <v>0.2238286851790349</v>
+        <v>0.2237486541114787</v>
       </c>
       <c r="BI6">
-        <v>0.2313579895505203</v>
+        <v>0.2312817360178995</v>
       </c>
       <c r="BJ6">
-        <v>0.2420653925099696</v>
+        <v>0.2419982979206448</v>
       </c>
       <c r="BK6">
-        <v>0.2555234294590019</v>
+        <v>0.2554701514044032</v>
       </c>
       <c r="BL6">
-        <v>0.2575644454512722</v>
+        <v>0.2575056517268356</v>
       </c>
       <c r="BM6">
-        <v>0.257593020605164</v>
+        <v>0.257525303586597</v>
       </c>
       <c r="BN6">
-        <v>0.2662573115723509</v>
+        <v>0.2661952939379592</v>
       </c>
       <c r="BO6">
-        <v>0.2662619370918334</v>
+        <v>0.2661952939379592</v>
       </c>
       <c r="BP6">
-        <v>0.286898637013679</v>
+        <v>0.2868579658755107</v>
       </c>
       <c r="BQ6">
-        <v>0.2870017146732886</v>
+        <v>0.2869522463945362</v>
       </c>
       <c r="BR6">
-        <v>0.2898827703623776</v>
+        <v>0.2898292088355664</v>
       </c>
       <c r="BS6">
-        <v>0.2921355793538458</v>
+        <v>0.2920768607818854</v>
       </c>
       <c r="BT6">
-        <v>0.2934080794490266</v>
+        <v>0.2933425438952146</v>
       </c>
       <c r="BU6">
-        <v>0.2992850534267696</v>
+        <v>0.2992204975511404</v>
       </c>
       <c r="BV6">
-        <v>0.3079767463938528</v>
+        <v>0.3079179363016363</v>
       </c>
       <c r="BW6">
-        <v>0.3080208706856856</v>
+        <v>0.3079531636283713</v>
       </c>
       <c r="BX6">
-        <v>0.3083954037142672</v>
+        <v>0.3083193591661095</v>
       </c>
       <c r="BY6">
-        <v>0.308663197833253</v>
+        <v>0.3085786350554723</v>
       </c>
       <c r="BZ6">
-        <v>0.313751173213984</v>
+        <v>0.3136662541194418</v>
       </c>
       <c r="CA6">
-        <v>0.3147583093101698</v>
+        <v>0.3146661238984255</v>
       </c>
       <c r="CB6">
-        <v>0.318997587694115</v>
+        <v>0.3189036088846038</v>
       </c>
       <c r="CC6">
-        <v>0.339193710617629</v>
+        <v>0.3391249578039391</v>
       </c>
       <c r="CD6">
-        <v>0.341094347010431</v>
+        <v>0.3410198408250418</v>
       </c>
       <c r="CE6">
-        <v>0.3541153619611183</v>
+        <v>0.3540539323101783</v>
       </c>
       <c r="CF6">
-        <v>0.3679826689086006</v>
+        <v>0.3679357488007785</v>
       </c>
       <c r="CG6">
-        <v>0.376904804874811</v>
+        <v>0.3768640207547481</v>
       </c>
       <c r="CH6">
-        <v>0.3915255148194401</v>
+        <v>0.3915005159641491</v>
       </c>
       <c r="CI6">
-        <v>0.392038326917498</v>
+        <v>0.3920052247164413</v>
       </c>
       <c r="CJ6">
-        <v>0.3966942178998654</v>
+        <v>0.3966600277425056</v>
       </c>
       <c r="CK6">
-        <v>0.4017765503806178</v>
+        <v>0.4017419943514911</v>
       </c>
       <c r="CL6">
-        <v>0.4040595060719719</v>
+        <v>0.404019844044477</v>
       </c>
       <c r="CM6">
-        <v>0.4051649865677853</v>
+        <v>0.4051182247476184</v>
       </c>
       <c r="CN6">
-        <v>0.4257619224897814</v>
+        <v>0.4257410653537652</v>
       </c>
       <c r="CO6">
-        <v>0.435099634454418</v>
+        <v>0.4350856169923715</v>
       </c>
       <c r="CP6">
-        <v>0.4417660139291713</v>
+        <v>0.4417543128292474</v>
       </c>
       <c r="CQ6">
-        <v>0.4817725657776601</v>
+        <v>0.4818196352615834</v>
       </c>
       <c r="CR6">
-        <v>0.5152230126509779</v>
+        <v>0.5153177514023015</v>
       </c>
       <c r="CS6">
-        <v>0.515366626070434</v>
+        <v>0.5154526363195341</v>
       </c>
       <c r="CT6">
-        <v>0.5441306299615002</v>
+        <v>0.5442563740213912</v>
       </c>
       <c r="CU6">
-        <v>0.555381067918893</v>
+        <v>0.5555168904319682</v>
       </c>
       <c r="CV6">
-        <v>0.5553983620738274</v>
+        <v>0.5555252421908909</v>
       </c>
       <c r="CW6">
-        <v>0.5566681326690186</v>
+        <v>0.5567881911824247</v>
       </c>
       <c r="CX6">
-        <v>0.5642386904403477</v>
+        <v>0.5643625963422149</v>
       </c>
       <c r="CY6">
-        <v>0.5751417123990562</v>
+        <v>0.5752751084818096</v>
       </c>
       <c r="CZ6">
-        <v>0.5888027643473196</v>
+        <v>0.5889503207258827</v>
       </c>
       <c r="DA6">
-        <v>0.6016710232985855</v>
+        <v>0.6018313975530352</v>
       </c>
       <c r="DB6">
-        <v>0.6027028749946777</v>
+        <v>0.6028560247823375</v>
       </c>
       <c r="DC6">
-        <v>0.6080234569745278</v>
+        <v>0.6081766443133513</v>
       </c>
       <c r="DD6">
-        <v>0.6167077749416389</v>
+        <v>0.6168666955759409</v>
       </c>
       <c r="DE6">
-        <v>0.6540799098001046</v>
+        <v>0.6542931402146562</v>
       </c>
       <c r="DF6">
-        <v>0.6839104776871314</v>
+        <v>0.684165247903146</v>
       </c>
       <c r="DG6">
-        <v>0.6850324627828823</v>
+        <v>0.6852801611531214</v>
       </c>
       <c r="DH6">
-        <v>0.6860327860790939</v>
+        <v>0.6862732065961581</v>
       </c>
       <c r="DI6">
-        <v>0.6861506170036477</v>
+        <v>0.6863822653615249</v>
       </c>
       <c r="DJ6">
-        <v>0.6883335549953805</v>
+        <v>0.6885599279969953</v>
       </c>
       <c r="DK6">
-        <v>0.6910874262849511</v>
+        <v>0.6913094906798039</v>
       </c>
       <c r="DL6">
-        <v>0.6986715356562289</v>
+        <v>0.6988974703861855</v>
       </c>
       <c r="DM6">
-        <v>0.698710313421082</v>
+        <v>0.6989273421327776</v>
       </c>
       <c r="DN6">
-        <v>0.6987122429545747</v>
+        <v>0.6989273421327776</v>
       </c>
       <c r="DO6">
-        <v>0.6995290650514813</v>
+        <v>0.6997365756577381</v>
       </c>
       <c r="DP6">
-        <v>0.6996279936611066</v>
+        <v>0.699826700101279</v>
       </c>
       <c r="DQ6">
-        <v>0.7012126661551052</v>
+        <v>0.701405084208468</v>
       </c>
       <c r="DR6">
-        <v>0.7048371496413788</v>
+        <v>0.7050267332775378</v>
       </c>
       <c r="DS6">
-        <v>0.7313943455408024</v>
+        <v>0.7316199262455944</v>
       </c>
       <c r="DT6">
-        <v>0.7394367745103444</v>
+        <v>0.7396670016133011</v>
       </c>
       <c r="DU6">
-        <v>0.7399690899683284</v>
+        <v>0.7401912467501538</v>
       </c>
       <c r="DV6">
-        <v>0.7408552436649725</v>
+        <v>0.7410699292726102</v>
       </c>
       <c r="DW6">
-        <v>0.741680000361849</v>
+        <v>0.7418871108330339</v>
       </c>
       <c r="DX6">
-        <v>0.7519778953228492</v>
+        <v>0.7521934713259378</v>
       </c>
       <c r="DY6">
-        <v>0.7583723127986325</v>
+        <v>0.758589744656237</v>
       </c>
       <c r="DZ6">
-        <v>0.7648795387739886</v>
+        <v>0.7650990175023992</v>
       </c>
       <c r="EA6">
-        <v>0.7650511568333387</v>
+        <v>0.765261954479201</v>
       </c>
       <c r="EB6">
-        <v>0.774072602799173</v>
+        <v>0.7742897045923551</v>
       </c>
       <c r="EC6">
-        <v>0.7781904012835782</v>
+        <v>0.7784055039796016</v>
       </c>
       <c r="ED6">
-        <v>0.778191257785825</v>
+        <v>0.7784055039796016</v>
       </c>
       <c r="EE6">
-        <v>0.7788147485834638</v>
+        <v>0.7790210788414188</v>
       </c>
       <c r="EF6">
-        <v>0.7791280746622772</v>
+        <v>0.7793259637889314</v>
       </c>
       <c r="EG6">
-        <v>0.779145297319212</v>
+        <v>0.7793342439287884</v>
       </c>
       <c r="EH6">
-        <v>0.7792140738789516</v>
+        <v>0.7793941652666034</v>
       </c>
       <c r="EI6">
-        <v>0.780322186874755</v>
+        <v>0.7804951829272925</v>
       </c>
       <c r="EJ6">
-        <v>0.7811429714716466</v>
+        <v>0.7813083856618569</v>
       </c>
       <c r="EK6">
-        <v>0.781148394522026</v>
+        <v>0.7813083856618569</v>
       </c>
       <c r="EL6">
-        <v>0.7817441098797699</v>
+        <v>0.7818961380522036</v>
       </c>
       <c r="EM6">
-        <v>0.7851067233670352</v>
+        <v>0.7852554737032323</v>
       </c>
       <c r="EN6">
-        <v>0.7861007996632705</v>
+        <v>0.7862422615683774</v>
       </c>
       <c r="EO6">
-        <v>0.786426501562037</v>
+        <v>0.7865595432915622</v>
       </c>
       <c r="EP6">
-        <v>0.7880876756557459</v>
+        <v>0.788214558537032</v>
       </c>
       <c r="EQ6">
-        <v>0.7885960756838205</v>
+        <v>0.7887148477484743</v>
       </c>
       <c r="ER6">
-        <v>0.7901144173780703</v>
+        <v>0.7902267887393484</v>
       </c>
       <c r="ES6">
-        <v>0.7938069486640861</v>
+        <v>0.793916600832087</v>
       </c>
       <c r="ET6">
-        <v>0.7982269826473467</v>
+        <v>0.7983351474872845</v>
       </c>
       <c r="EU6">
-        <v>0.7993024140432738</v>
+        <v>0.7994034282090228</v>
       </c>
       <c r="EV6">
-        <v>0.8003145786394407</v>
+        <v>0.8004083350026421</v>
       </c>
       <c r="EW6">
-        <v>0.8033210672280546</v>
+        <v>0.8034109427361219</v>
       </c>
       <c r="EX6">
-        <v>0.8083135412091473</v>
+        <v>0.8084028986899158</v>
       </c>
       <c r="EY6">
-        <v>0.8139771377876984</v>
+        <v>0.8140671136391294</v>
       </c>
       <c r="EZ6">
-        <v>0.8208156137618</v>
+        <v>0.8209081973827832</v>
       </c>
       <c r="FA6">
-        <v>0.8256513877434861</v>
+        <v>0.8257431880003147</v>
       </c>
       <c r="FB6">
-        <v>0.8282709427335655</v>
+        <v>0.8283582069486304</v>
       </c>
       <c r="FC6">
-        <v>0.8284733761127988</v>
+        <v>0.8285520114242569</v>
       </c>
       <c r="FD6">
-        <v>0.8334019397941336</v>
+        <v>0.8334799488603091</v>
       </c>
       <c r="FE6">
-        <v>0.8467457737435984</v>
+        <v>0.8468374059669317</v>
       </c>
       <c r="FF6">
-        <v>0.8607863106904247</v>
+        <v>0.8608927457836374</v>
       </c>
       <c r="FG6">
-        <v>0.8737264816414182</v>
+        <v>0.8738458563776137</v>
       </c>
       <c r="FH6">
-        <v>0.8834819236044728</v>
+        <v>0.8836088453481721</v>
       </c>
       <c r="FI6">
-        <v>0.8883468090860487</v>
+        <v>0.8884729967594917</v>
       </c>
       <c r="FJ6">
-        <v>0.8888836985840154</v>
+        <v>0.889001823681454</v>
       </c>
       <c r="FK6">
-        <v>0.8888849353988107</v>
+        <v>0.889001823681454</v>
       </c>
       <c r="FL6">
-        <v>0.8909448790910094</v>
+        <v>0.8910562837536962</v>
       </c>
       <c r="FM6">
-        <v>0.8943201229782268</v>
+        <v>0.8944282711914711</v>
       </c>
       <c r="FN6">
-        <v>0.8999200752570189</v>
+        <v>0.9000287340733543</v>
       </c>
       <c r="FO6">
-        <v>0.9037498524425149</v>
+        <v>0.9038560244612055</v>
       </c>
       <c r="FP6">
-        <v>0.9044921306397038</v>
+        <v>0.9045905878628104</v>
       </c>
       <c r="FQ6">
-        <v>0.9121556949106806</v>
+        <v>0.9122581570082233</v>
       </c>
       <c r="FR6">
-        <v>0.9188509681853245</v>
+        <v>0.9189557955702613</v>
       </c>
       <c r="FS6">
-        <v>0.9249021011624079</v>
+        <v>0.9250082031253455</v>
       </c>
       <c r="FT6">
-        <v>0.930762405140214</v>
+        <v>0.9308694585543696</v>
       </c>
       <c r="FU6">
-        <v>0.9328168489324336</v>
+        <v>0.9329184094137661</v>
       </c>
       <c r="FV6">
-        <v>0.9347546382250949</v>
+        <v>0.9348505082449622</v>
       </c>
       <c r="FW6">
-        <v>0.9363063069192185</v>
+        <v>0.936395832667627</v>
       </c>
       <c r="FX6">
-        <v>0.9395606779068937</v>
+        <v>0.9396467425342884</v>
       </c>
       <c r="FY6">
-        <v>0.9453094522851222</v>
+        <v>0.9453962795129793</v>
       </c>
       <c r="FZ6">
-        <v>0.9526865352571841</v>
+        <v>0.9527768822666413</v>
       </c>
       <c r="GA6">
-        <v>0.9580475972368808</v>
+        <v>0.9581380503414452</v>
       </c>
       <c r="GB6">
-        <v>0.96226998052089</v>
+        <v>0.9623586116195655</v>
       </c>
       <c r="GC6">
-        <v>0.9622902854908131</v>
+        <v>0.9623699792916274</v>
       </c>
       <c r="GD6">
-        <v>0.9631746734174638</v>
+        <v>0.9632468930541488</v>
       </c>
       <c r="GE6">
-        <v>0.9638226687450097</v>
+        <v>0.963887013938885</v>
       </c>
       <c r="GF6">
-        <v>0.9654326413389125</v>
+        <v>0.9654907409861121</v>
       </c>
       <c r="GG6">
-        <v>0.9743547773051229</v>
+        <v>0.9744190129400817</v>
       </c>
       <c r="GH6">
-        <v>0.9819391122763997</v>
+        <v>0.9820072186284663</v>
       </c>
       <c r="GI6">
-        <v>0.9852004046640487</v>
+        <v>0.9852650616149643</v>
       </c>
       <c r="GJ6">
-        <v>0.9883308576521932</v>
+        <v>0.9883918436543189</v>
       </c>
       <c r="GK6">
-        <v>0.9909182433423943</v>
+        <v>0.9909746388311488</v>
       </c>
       <c r="GL6">
-        <v>0.9937685879315996</v>
+        <v>0.9938208381698274</v>
       </c>
       <c r="GM6">
-        <v>0.9972831567182894</v>
+        <v>0.9973323864230345</v>
       </c>
       <c r="GN6">
-        <v>0.9977419785165518</v>
+        <v>0.9977830134548773</v>
       </c>
       <c r="GO6">
-        <v>0.9978956896359696</v>
+        <v>0.9979280131702973</v>
       </c>
       <c r="GP6">
-        <v>0.998442710793898</v>
+        <v>0.9984669889079508</v>
       </c>
       <c r="GQ6">
-        <v>0.9998299835886442</v>
+        <v>0.9998476390630747</v>
       </c>
       <c r="GR6">
-        <v>0.9999743091080976</v>
+        <v>0.9999832372860887</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>108</v>
       </c>
       <c r="E2">
-        <v>0.0008541095380973762</v>
+        <v>0.06871238502587923</v>
       </c>
       <c r="F2">
-        <v>0.5164706128646755</v>
+        <v>0.5164671576637087</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>134</v>
       </c>
       <c r="E3">
-        <v>0.0152680410216854</v>
+        <v>0.01214294925640175</v>
       </c>
       <c r="F3">
-        <v>0.515113603354218</v>
+        <v>0.5139046446049088</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>134</v>
       </c>
       <c r="E4">
-        <v>0.008878275072970468</v>
+        <v>0.007520638626107518</v>
       </c>
       <c r="F4">
-        <v>0.508994647639599</v>
+        <v>0.5084928828763893</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>53</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>106</v>
       </c>
       <c r="E5">
-        <v>0.006136290801131658</v>
+        <v>0.07465592507014313</v>
       </c>
       <c r="F5">
-        <v>0.5031138633041643</v>
+        <v>0.5031021416637891</v>
       </c>
       <c r="G5">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>53</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>95</v>
       </c>
       <c r="E6">
-        <v>0.003237660772448459</v>
+        <v>0.05735903319073991</v>
       </c>
       <c r="F6">
-        <v>0.5152230126509779</v>
+        <v>0.5153177514023015</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>53</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E2">
-        <v>0.0008541095380973762</v>
+        <v>0.06871238502587923</v>
       </c>
       <c r="F2">
-        <v>0.7000090949213543</v>
+        <v>0.703321303709604</v>
       </c>
       <c r="G2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>147</v>
       </c>
       <c r="E3">
-        <v>0.0152680410216854</v>
+        <v>0.01214294925640175</v>
       </c>
       <c r="F3">
-        <v>0.7050600598411125</v>
+        <v>0.7051258758421669</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>147</v>
       </c>
       <c r="E4">
-        <v>0.008878275072970468</v>
+        <v>0.007520638626107518</v>
       </c>
       <c r="F4">
-        <v>0.7053355642092575</v>
+        <v>0.7052854148531438</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>53</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>127</v>
       </c>
       <c r="E5">
-        <v>0.006136290801131658</v>
+        <v>0.07465592507014313</v>
       </c>
       <c r="F5">
-        <v>0.7066423122307597</v>
+        <v>0.7068421108059521</v>
       </c>
       <c r="G5">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>53</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>120</v>
       </c>
       <c r="E6">
-        <v>0.003237660772448459</v>
+        <v>0.05735903319073991</v>
       </c>
       <c r="F6">
-        <v>0.7012126661551052</v>
+        <v>0.701405084208468</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H6">
         <v>53</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>162</v>
       </c>
       <c r="E2">
-        <v>0.0008541095380973762</v>
+        <v>0.06871238502587923</v>
       </c>
       <c r="F2">
-        <v>0.803496779452002</v>
+        <v>0.8034956269635115</v>
       </c>
       <c r="G2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>152</v>
       </c>
       <c r="E3">
-        <v>0.0152680410216854</v>
+        <v>0.01214294925640175</v>
       </c>
       <c r="F3">
-        <v>0.8034003276523095</v>
+        <v>0.8042407975344873</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>152</v>
       </c>
       <c r="E4">
-        <v>0.008878275072970468</v>
+        <v>0.007520638626107518</v>
       </c>
       <c r="F4">
-        <v>0.801762451461859</v>
+        <v>0.8019614443924586</v>
       </c>
       <c r="G4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>53</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5">
-        <v>0.006136290801131658</v>
+        <v>0.07465592507014313</v>
       </c>
       <c r="F5">
-        <v>0.8034674356864521</v>
+        <v>0.8035014614407092</v>
       </c>
       <c r="G5">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H5">
         <v>53</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>151</v>
       </c>
       <c r="E6">
-        <v>0.003237660772448459</v>
+        <v>0.05735903319073991</v>
       </c>
       <c r="F6">
-        <v>0.8003145786394407</v>
+        <v>0.8004083350026421</v>
       </c>
       <c r="G6">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H6">
         <v>53</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>180</v>
       </c>
       <c r="E2">
-        <v>0.0008541095380973762</v>
+        <v>0.06871238502587923</v>
       </c>
       <c r="F2">
-        <v>0.9075413790437573</v>
+        <v>0.9075461336571012</v>
       </c>
       <c r="G2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>167</v>
       </c>
       <c r="E3">
-        <v>0.0152680410216854</v>
+        <v>0.01214294925640175</v>
       </c>
       <c r="F3">
-        <v>0.9032002480590688</v>
+        <v>0.9042462912616066</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>168</v>
       </c>
       <c r="E4">
-        <v>0.008878275072970468</v>
+        <v>0.007520638626107518</v>
       </c>
       <c r="F4">
-        <v>0.9005014747762617</v>
+        <v>0.9007407010303643</v>
       </c>
       <c r="G4">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H4">
         <v>53</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>175</v>
       </c>
       <c r="E5">
-        <v>0.006136290801131658</v>
+        <v>0.07465592507014313</v>
       </c>
       <c r="F5">
-        <v>0.9084885370905269</v>
+        <v>0.908581399595194</v>
       </c>
       <c r="G5">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H5">
         <v>53</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6">
-        <v>0.003237660772448459</v>
+        <v>0.05735903319073991</v>
       </c>
       <c r="F6">
-        <v>0.9037498524425149</v>
+        <v>0.9000287340733543</v>
       </c>
       <c r="G6">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H6">
         <v>53</v>

--- a/on_trucks/Processed_Stand_Alone/53_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/53_455-55R22.xlsx
@@ -1997,13 +1997,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.499599866277881E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.823763050160955E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9.324446311536684E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2015,82 +2015,82 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.226883665621964E-06</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.409969200935635E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.458964676387459E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.676530069797279E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.97006167808266E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.873309210861141E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.676530069797279E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.134041041178462E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2.409969200935635E-06</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2.184779499902151E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>4.55011583261186E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>8.344721060297254E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>4.780009497898696E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>5.730691351823726E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>2.956429978553573E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1.422471503263458E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>7.399937234004924E-06</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>4.675601871724612E-06</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>3.137041533513689E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>2.866380664894902E-06</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.151598883122167E-06</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.011768382902812E-06</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -2099,499 +2099,499 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>8.238210582849357E-06</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>7.297758870278278E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>6.151598883122167E-06</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.778751832252848E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.64746902417821E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2.228932573898336E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.508249227702337E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>6.411708180266032E-06</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0001870741657467155</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.03291468956103719</v>
+        <v>0.06029082418430598</v>
       </c>
       <c r="AW2">
-        <v>0.01357900611209858</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.02144735836932971</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.01522767252332223</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.05489006860848515</v>
+        <v>0.5164260935211311</v>
       </c>
       <c r="BA2">
-        <v>0.009431938300919103</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0003608183406620095</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.006616533572043474</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.007459724911783272</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.005736888475135996</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.02503078600834869</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.02086781876077782</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.006919164082575605</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.004359614928857041</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.007919349976668735</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.01071106511555203</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0007919927882015707</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>5.730691351823726E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0009000267223734505</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0004055149747015399</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.004575944102982303</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.002144671277938273</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0004897773456967964</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0001091944685780715</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.005015356085231107</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>3.591893226048096E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>6.270544894708565E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.001305309488472573</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.005167017780742712</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.001057489766380221</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>2.339612219103886E-06</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>6.321489918213869E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0001101438328986342</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.004915970151932908</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.002809338647811733</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.001731425488257184</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.006643346726513555</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.000831266236833477</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.003744480911017679</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.001092855583129122</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.001871220479903498</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.001439544029143576</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.001539983889091139</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.007592458644899102</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.02588618328928344</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.002093815690638431</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.007449386226488687</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.03504423063938563</v>
+        <v>0.1044929647361934</v>
       </c>
       <c r="CR2">
-        <v>0.02466276302571187</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.001389850012069243</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.005510400288451056</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.009391280842013764</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.002694846999435481</v>
+        <v>0</v>
       </c>
       <c r="CW2">
         <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.008699264700842441</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.01479451917468622</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.0183702416945278</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.01415353069047178</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>5.682109885130748E-05</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.002634565296266349</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.008204249309285996</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.03468156482543162</v>
+        <v>0.09696523707470479</v>
       </c>
       <c r="DF2">
-        <v>0.04069696897435952</v>
+        <v>0.2218248804836647</v>
       </c>
       <c r="DG2">
-        <v>0.009074885759323501</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>1.458964676387459E-05</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>9.931882072976823E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.002911828437609519</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.001282680427802489</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.007739233362069804</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.001002681078790905</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.0003947099306161303</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.0003177039871594501</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.0006142939523650314</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.002460615378062296</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.00669931528363991</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.02205164099432081</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.01748852575930595</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.003620933696777761</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>7.348143727017524E-05</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.005299122259124369</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.01133326099216487</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.009545660337742099</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.005391048172465947</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0008698162426020827</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.001180606406315547</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.00316933408074519</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.001933775903517502</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>5.142605923763093E-06</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.0002753172282008698</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>4.820055409238059E-05</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.0005613173064206889</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.0001887245138387152</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>3.391564629257985E-05</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.0006368724925834847</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>6.970157651132859E-07</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.0029069831761564</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.00417771129083736</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.002356281941921735</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.003711575590323935</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.0002664159848098484</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0004604288648788448</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.002740113324096508</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.006852366541672601</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.003036099544894979</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.003329951101541185</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.003990428475225248</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.003529828115522067</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.008204249309285996</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.009399985365768972</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.00848590833016402</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.005878588437950528</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.0002064859440002646</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.00180941255889263</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.01062724018163955</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.02294506566946116</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.02509713086599698</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.0186471597961924</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.006812501903716119</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.0005255900433515076</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>7.426415813032565E-05</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.002577837831920054</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.001462237515894551</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.004001575487745924</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.005194793524887228</v>
+        <v>0</v>
       </c>
       <c r="FP2">
         <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.003119150965674775</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.01027565685408483</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.01267074042903863</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.01090713148691299</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.006444771739617767</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.001982956412714171</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.002857328174876396</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.006318026730850379</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.01017878363798189</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.00973375848341518</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.00709232818266568</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.006869724068326402</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.0004470093023871277</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.0005605290173064043</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.002004203613981535</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.004753605423631988</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.01183222998421328</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.01151206737635785</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.006536152332203228</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.006981557040420405</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.007773216218970504</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.005225045871607126</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.005705187041798534</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.002264170653536848</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0005958557882488276</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.001507248337122974</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0007299924492963142</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0002562145950951007</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>7.377056231343977E-05</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0002846419246185083</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001487481788175998</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2782,40 +2782,40 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4.750809551839272E-06</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0001532971597570214</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>6.660159556180478E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001877337319148108</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0003987059235388961</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0003800524410978452</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0006567327879960094</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0003817849590863842</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0003301803041799443</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0002081497056893185</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0001228673988644231</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -2824,31 +2824,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0001033785864019201</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>9.218696008816576E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.000281069999891167</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0003979406627842912</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.000379302682751391</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0004085923745034091</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0005197694973822725</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0004320855004523601</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>7.000752013861908E-06</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -2860,25 +2860,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>7.10452956328261E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>2.936259250893841E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0006774401524364431</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.001177902513849281</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0009014425377785277</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0002671145358920335</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -2902,19 +2902,19 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>7.817591798388112E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>4.510450325879446E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0002526642892275373</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0002458728187124644</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0001139608457145282</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>0</v>
       </c>
       <c r="BL3">
-        <v>4.63472594206186E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0001436925027295791</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0002163533414285416</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0002586914596721374</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.0002195763052292901</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
         <v>0</v>
@@ -2986,16 +2986,16 @@
         <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0001876031799975072</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0001675636528282314</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.000324059532763496</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>1.2961331879419E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="CD3">
-        <v>4.395466547746172E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
         <v>0</v>
@@ -3025,223 +3025,223 @@
         <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0001059851954885204</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0001969561883446939</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.000413544701203758</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01126370989657205</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.09780064896165573</v>
+        <v>0.3990463494297289</v>
       </c>
       <c r="CO3">
-        <v>0.04274603879651698</v>
+        <v>0.07371690486123669</v>
       </c>
       <c r="CP3">
-        <v>0.01757841107938032</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.04284781367345879</v>
+        <v>0.07431831433606881</v>
       </c>
       <c r="CR3">
-        <v>0.01238216162168982</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.0004988045785822878</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.004687266782643666</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.005643716825716225</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.01782705231267961</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.04257274452531198</v>
+        <v>0.07269287201768522</v>
       </c>
       <c r="CX3">
         <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.02240555962608596</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.004587996763170196</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.04107868249578037</v>
+        <v>0.06386414053161298</v>
       </c>
       <c r="DB3">
-        <v>0.002006127113211958</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>3.04338352045643E-05</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.0007558944625243213</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.00757378049456327</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.000610286582154783</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.01650337823204216</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.008667851371031815</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.008098089837284493</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.001644283210160075</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.003397147376243306</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.0007428690418895882</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.0007901506080896605</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.0001109306254880482</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.001608330061581687</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0004449706005290369</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.0006233483570995628</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.000413544701203758</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.000235822606497075</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.002600945614988125</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.004515618416168357</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.002082658649403307</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.01525523111536793</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.004429146125077877</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.008795931802000091</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.003729411814871572</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.001821462083496215</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.00274197070844926</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.0007671302600832174</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.006290477698264848</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.03055386400429294</v>
+        <v>0.001670741218653303</v>
       </c>
       <c r="EF3">
-        <v>0.004344767720896528</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.006700350751683379</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.05528247120807291</v>
+        <v>0.1477973602688471</v>
       </c>
       <c r="EI3">
-        <v>0.02934878991911081</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.002295693996156765</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.008476722757351474</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.01251046351563167</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.002233332045288871</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>2.024379288564935E-05</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.01626973176117336</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.02098760400473614</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.02034664566434467</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.0124044140999258</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.0004544619069413703</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.005689207241858314</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.007244878248147638</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.03741383433171535</v>
+        <v>0.04220777035540384</v>
       </c>
       <c r="EW3">
-        <v>0.04831253996365779</v>
+        <v>0.1066105485990412</v>
       </c>
       <c r="EX3">
-        <v>0.008396138549868214</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.0001139608457145282</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>1.401004906026613E-05</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.005492637313254449</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.0008884881268698448</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.009444193364287508</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.0004807734070970033</v>
+        <v>0</v>
       </c>
       <c r="FE3">
         <v>0</v>
@@ -3250,121 +3250,121 @@
         <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.00168552962718102</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.008284212781013996</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.001894898598788266</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.03332991147936641</v>
+        <v>0.01807499838172176</v>
       </c>
       <c r="FK3">
-        <v>0.0248643123460496</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.005116427238568314</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.0005042056762343097</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.005896149221974246</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.01179210639408929</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.003899530064336251</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.004267118858497366</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.002860419522559612</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.002091910138718905</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.003297108000467089</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.0001565464463029862</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.000379302682751391</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>3.690329956729494E-05</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.001176650792987636</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.001149838301113408</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
         <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0008650064785681547</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0002226781823795513</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.0002465004083747245</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.003606421189559163</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.006677904013003443</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.003888015000956421</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.003251333929694453</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0007067696670738478</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0001010037550027403</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0001950543472497775</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.003523644094138854</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.0009897711335360687</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.002413529287043041</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.002345997237550775</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.00177898750765602</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.007418699075381609</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.009690794913487647</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.007022422938419227</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.003301386179718403</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3543,37 +3543,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.816472270126841E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>9.007408059685966E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6.771938486418831E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.113938191863386E-06</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001361066436035476</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001577929817221016</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0002508498829723133</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0002792006684678977</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0001483638759420839</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3585,76 +3585,76 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7.0617084524318E-06</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>2.827869936011099E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>9.55090773407695E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0001323884373837781</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>8.477033367021834E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>4.441208370243307E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>3.373456913847271E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>7.615552512855218E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>4.683458812919773E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1.428349635900415E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0001027980658201789</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0001953682072646633</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0001473026610834708</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0001858568558276914</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0001911805233650086</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0003507125696821528</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0001569747001608933</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>9.874831777277287E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>6.650078022026482E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>2.457222330798612E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -3663,28 +3663,28 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>5.842770610727867E-06</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>8.772426848466301E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0001083916837761359</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0002282103482996974</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0001226894514376646</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>3.433577736374946E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>9.397403516618522E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>5.659697197829837E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>3.646646376211987E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
         <v>0</v>
@@ -3705,52 +3705,52 @@
         <v>0</v>
       </c>
       <c r="BE4">
-        <v>3.773390596746745E-06</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>6.255007220227751E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0002072508931825126</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0003059976985183723</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0003622403297112669</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.000290647447385851</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0004599225380303202</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0004046113853192913</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.000345210641332289</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0001473026610834708</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>3.337844594566502E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>7.535438518809771E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0001351817788969027</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>2.175326069203806E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>0</v>
       </c>
       <c r="BT4">
-        <v>2.228306523512664E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
         <v>0</v>
@@ -3759,19 +3759,19 @@
         <v>0</v>
       </c>
       <c r="BW4">
-        <v>4.790580895730244E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>5.14921511518467E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0002192564909442567</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.000110020790092803</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>3.06333548834176E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
         <v>0</v>
@@ -3783,361 +3783,361 @@
         <v>0</v>
       </c>
       <c r="CE4">
-        <v>1.78390649284211E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>5.351638788461421E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
         <v>0</v>
       </c>
       <c r="CH4">
-        <v>1.456864842457364E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
         <v>0</v>
       </c>
       <c r="CJ4">
-        <v>7.073894960530608E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>6.324013584529798E-06</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>2.617184964994458E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.007788573315597676</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1140349882724291</v>
+        <v>0.4578564687753047</v>
       </c>
       <c r="CO4">
-        <v>0.03260901391591073</v>
+        <v>0.01374733176408904</v>
       </c>
       <c r="CP4">
-        <v>0.03381571376443712</v>
+        <v>0.0203288486890716</v>
       </c>
       <c r="CQ4">
-        <v>0.04573644645294085</v>
+        <v>0.08534626295608273</v>
       </c>
       <c r="CR4">
-        <v>0.011306356052381</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>2.714916289877896E-05</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.01014185991790264</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.01282643945311655</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.009678304527482777</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.04287871848317323</v>
+        <v>0.06975979791841</v>
       </c>
       <c r="CX4">
-        <v>0.001167344701516375</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.01842717900982701</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.01079665276936727</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.01834482395962563</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.009906444646321382</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.0003422332883340814</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.0008246093353111351</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.008251609338995285</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.0005124568083956932</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.01632352277959261</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.0001238217618708798</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.01171482642299313</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.0001627424039210635</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.001618332815048553</v>
+        <v>0</v>
       </c>
       <c r="DL4">
         <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.0005322008844643352</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>3.659956824655211E-07</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.000189807597968343</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.001372051181032393</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.0001159230676191841</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>3.926641202521066E-05</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>2.664246843186711E-05</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.00544082261376567</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.009555580358241439</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.0002677534078182136</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.02223662722662317</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>7.132476549817639E-05</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.01541077061515366</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>3.585349827178861E-05</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.00148273908225846</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.005493013228757592</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.0002084876992569976</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.0006014732048260832</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.01853137758319627</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.01589149372012945</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0004890794413609106</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.04783182191544456</v>
+        <v>0.09677474625911987</v>
       </c>
       <c r="EI4">
-        <v>0.05032931491136067</v>
+        <v>0.1103964372228837</v>
       </c>
       <c r="EJ4">
-        <v>0.01102592094334213</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.01030860031682911</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.01897221229725511</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.001176102283299753</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>3.936405703982567E-05</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.007098261781457449</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.009585686584200091</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.01228095454219084</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.0117637191828447</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.005371380282247265</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.002628199085590875</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.004879606151006441</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.02697821429919914</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.0568186297212712</v>
+        <v>0.1457901064150383</v>
       </c>
       <c r="EX4">
-        <v>0.01743974437660724</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.0002767253702578699</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>7.132476549817639E-05</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.002448508232329192</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>1.476341858497751E-05</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.009512274682859222</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.0009995882500810566</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.0001282759738866702</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>6.259171489958077E-06</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.0002319745498636794</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.005302381946807403</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.001287453870345757</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.02388537515100533</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.02783559441200744</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.007160645036986608</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.002178367429294918</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.0005565377707821464</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.007916552375135682</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.0101467796032033</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.006554680714476117</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.006092816904956757</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.001228123388938905</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.008238566954188108</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.0007814753170023212</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0002376575390917752</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>4.790580895730244E-05</v>
+        <v>0</v>
       </c>
       <c r="FX4">
         <v>0</v>
       </c>
       <c r="FY4">
-        <v>6.771938486418831E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
         <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.002369107000523759</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.0001856746709087543</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>6.12537521868848E-05</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.00314200953305267</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.005685822038491718</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.00197572055364957</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.001994992331900486</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.001949259732202873</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>2.330164181752626E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0004971458083631533</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.003860233205839367</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.002369107000523759</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0009112908382588663</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.001698929945875665</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.002561134501607014</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.008302722581043457</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0104863979643888</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.006155466317267177</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.003160913790137307</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,37 +4313,37 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>4.086506810615947E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.21616159565903E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0009033091611021603</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0003448369725944644</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.543483715488315E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0001885038345272824</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001462613650780996</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.712883453637524E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>4.452649045634124E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -4355,10 +4355,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0001232455044124755</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0003965554934120441</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -4367,52 +4367,52 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>5.056856519412051E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1.094258198232206E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>2.193807463431232E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>4.780740099982646E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>5.230052816107121E-06</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0002633052488876865</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0005660524031737612</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>6.008572331180891E-06</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>6.533076531270271E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>2.561958579965147E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0008059271687950219</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.000551360155591041</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0001654529940857268</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>8.78730328876482E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -4421,496 +4421,496 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0001165027767445031</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0001439413339451628</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>4.252130537079082E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>8.82590733030564E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>3.553101009266407E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0002959389943913939</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0001259842705250292</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0001282930359650872</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.05401151303174321</v>
+        <v>0.2716405021539806</v>
       </c>
       <c r="AW5">
-        <v>0.01479677070831122</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.007423045568483765</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0193760182783563</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.06369937646512032</v>
+        <v>0.3814970668134844</v>
       </c>
       <c r="BA5">
-        <v>0.01335922118954523</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>4.397680181986707E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.01066599493656808</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>7.579189026961959E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.03178793927953653</v>
+        <v>0.01963390816512478</v>
       </c>
       <c r="BF5">
-        <v>0.002235148093117466</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.02481184037809438</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.008350259600755703</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.002109245856681854</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.002396456477882241</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.005977725728488952</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0006756584339916085</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0002704859253548919</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0001209787748406858</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.002500446039611382</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.001226810648345596</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.002264395696082428</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.002273741410199761</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>1.692071489244172E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.001987447980774585</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>6.245252811819533E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.001849153281715155</v>
+        <v>0</v>
       </c>
       <c r="BW5">
         <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.002717938359151413</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0008228028159045194</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.001849153281715155</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0006555597362957883</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>5.302604379389338E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.001569859415705299</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.001071973522128135</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.001583921887001235</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.002305417852448809</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0005880206446073855</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.001346023127920055</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.000619666877961116</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.005264740673279821</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.002382757335204503</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0002106106319558854</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.007084713758759835</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.02888455573550642</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.005780343572794788</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.009865228684916268</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.03527846287286181</v>
+        <v>0.05921507417377825</v>
       </c>
       <c r="CR5">
-        <v>0.02780374380323369</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.00162593861160993</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.006086386543619411</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.003580342183309086</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.001930362389654689</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.0001281672290460353</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.005836602378322541</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.0182349018137493</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.02730713522273524</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.01644590276859935</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>6.897159870709098E-07</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.003970735125220414</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.008669247093246638</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.03917515979732978</v>
+        <v>0.1034020861589463</v>
       </c>
       <c r="DF5">
-        <v>0.04457299025217731</v>
+        <v>0.1646113625346854</v>
       </c>
       <c r="DG5">
-        <v>0.01386822904821124</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.001673363971314863</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0001439413339451628</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.002129093622093944</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.001877747594767449</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.005735752276540391</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.002392342495409802</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.0008284662420849848</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.0003302030780935416</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.002772807094443082</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.001845537134621087</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.009815285783630116</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.026654987915929</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.02012015036843204</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.009368782474724431</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.0008673031446957786</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.003104645094188225</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.007793933326284244</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.006902221661782426</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.005887206287122354</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.0007695636971654831</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.0001918352221904083</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.001168844248426602</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.001316312769581238</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>4.223662512043045E-05</v>
+        <v>0</v>
       </c>
       <c r="EF5">
         <v>0</v>
       </c>
       <c r="EG5">
-        <v>8.70363687662325E-05</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.001363198598816719</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.001123769048567055</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
         <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.0005375121133284215</v>
+        <v>0</v>
       </c>
       <c r="EL5">
         <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.003377835340098094</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.005774770562820247</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.003128692938426694</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.003636486026650612</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0006354888620549784</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>6.044387712819876E-05</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0007609905850676047</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.00409697372878504</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.00328990740900795</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.002929277345213628</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.003798000180699017</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.003933774231091114</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.006876676903636978</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.009626708709069405</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.009528162962669605</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.007127164172452928</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.0007532378740010488</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.0009643419944216023</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.006970680290594914</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.01891322181078181</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.01873674032177813</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.01436790362110437</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.008141961549942083</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.0008524454598117621</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>6.077277221625079E-05</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.001710728285496095</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.002151139400360407</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.004260519115323491</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.00404941255934834</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.0004834569835700568</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.002022600350328222</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.00654436803000265</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.01242266725641385</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.01036200063800718</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.005214097575103535</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.001127540549966836</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.001697549930542539</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.004574175148728122</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.005887206287122354</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.006071114714224939</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.005735752276540391</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.007707731932787782</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.001104071024659956</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.00031033069654114</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.001349115380203826</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.003757353480609539</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.008036289551196367</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.007554698219488183</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.005381898867789837</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.006135339186492375</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.005010757832356753</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.003967877407823978</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.004422824774502357</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.001641815921882343</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0008150506761408939</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.002481397897845082</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.001203679594968001</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>2.955871349301E-05</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.000201372763795292</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5092,22 +5092,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.237571319895949E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>5.701592646964008E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>9.857531400321198E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>9.796020922202522E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2.084297423692232E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.26369797161957E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5119,37 +5119,37 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.543854752314793E-06</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.731284999973832E-06</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>5.815082892362801E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0002029269063029893</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0002744000354175286</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.000302389028378193</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>9.650543004422946E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>5.319204252608697E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>9.875406115974893E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>5.763982110931889E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>7.918424608777141E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -5164,526 +5164,526 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>1.366124314452406E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>4.362141421050179E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>8.449109585619808E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0001433164900738433</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>4.247899505017492E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>3.575540941286067E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>2.720443072637716E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>2.159031254740071E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>6.044369481419119E-06</v>
+        <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>3.248974008260862E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0001001973308818098</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0001264330100177973</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0001175968131948364</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.000174280772502834</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0002817799104550496</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.000174280772502834</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0003661457736162581</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.05408317639646511</v>
+        <v>0.3447670320395509</v>
       </c>
       <c r="AW6">
-        <v>0.00182215938812001</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.05486823346723041</v>
+        <v>0.3560252101225931</v>
       </c>
       <c r="AY6">
-        <v>0.01296183333901887</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.02509039662140902</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>1.676271391137173E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.002158263342651409</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>9.732036762540132E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0001225446671119692</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.02910067965643024</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.01397327809850136</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.005716724512067173</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0204614247466615</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.00753308190642085</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.01071656190274524</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.01347185348375842</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.002035500322432484</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>1.96518597613962E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.008669990351362185</v>
+        <v>0</v>
       </c>
       <c r="BO6">
         <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.02066267193755153</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>9.428051902547254E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.002876962441030171</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.002247651946319022</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.001265683113329143</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.005877953655925828</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.008697438750495957</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>3.522732673497828E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0003661955377381823</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.000259275889362745</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.005087619063969507</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0009998697789836866</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.004237484986178302</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.02022134891933535</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.001894883021102683</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.01303409148513645</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0138818164906002</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.008928271953969563</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.01463649520940106</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.000504708752292111</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.004654803026064381</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.005081966608985493</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.00227784969298591</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.00109838070314146</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.0206228406061467</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.009344551638606317</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.006668695836875926</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.04006532243233606</v>
+        <v>0.1437427980734779</v>
       </c>
       <c r="CR6">
-        <v>0.03349811614071807</v>
+        <v>0.04956521443992592</v>
       </c>
       <c r="CS6">
-        <v>0.0001348849172325661</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.02880373770185702</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.01126051641057707</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>8.351758922782984E-06</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.001262948991533813</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.007574405159790135</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.01091251213959472</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.01367521224407309</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.01288107682715241</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.0010246272293023</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.005320619531013869</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.008690051262589543</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.0374264446387154</v>
+        <v>0.1058997453244522</v>
       </c>
       <c r="DF6">
-        <v>0.02987210768848982</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.001114913249975386</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.0009930454430367279</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.0001090587653668456</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.002177662635470334</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.002749562682808536</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.007587979706381669</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>2.987174659208773E-05</v>
+        <v>0</v>
       </c>
       <c r="DN6">
         <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.0008092335249604537</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>9.012444354098324E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.001578384107188986</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.003621649069069796</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.02659319296805656</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.008047075367706777</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.0005242451368527137</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.0008786825224563668</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.0008171815604238078</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.0103063604929039</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.006396273330299077</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.006509272846162229</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.0001629369768018526</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.009027750113154107</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.004115799387246447</v>
+        <v>0</v>
       </c>
       <c r="ED6">
         <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.0006155748618172179</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0003048849475126218</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>8.280139856975144E-06</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>5.992133781507126E-05</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.001101017660689071</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0008132027345644086</v>
+        <v>0</v>
       </c>
       <c r="EK6">
         <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.0005877523903466635</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.003359335651028749</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.0009867878651450169</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.0003172817231847521</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.001655015245469847</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0005002892114423139</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.001511940990874032</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.003689812092738691</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.004418546655197511</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.001068280721738255</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.001004906793619267</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.003002607733479864</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.004991955953793828</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.005664214949213673</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.006841083743653721</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.004834990617531437</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.002615018948315746</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.0001938044756265696</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.004927937436052091</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.01335745710662265</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.01405533981670572</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.01295311059397629</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.009762988970558379</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.004864151411319584</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.0005288269219623349</v>
+        <v>0</v>
       </c>
       <c r="FK6">
         <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.002054460072242144</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.003371987437774942</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.005600462881883204</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.003827290387851227</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0007345634016049337</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.007667569145412905</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.006697638562038009</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.00605240755508423</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.005861255429024143</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.002048950859396518</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.001932098831196001</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.001545324422664821</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.003250909866661283</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.005749536978690959</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.007380602753661873</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.005361168074803923</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.004220561278120314</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>1.136767206189498E-05</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.0008769137625213824</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.000640120884736183</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.001603727047227098</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.008928271953969563</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.00758820568838461</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.003257842986497955</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.003126782039354564</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.002582795176829941</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.002846199338678622</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.00351154825320713</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.000450627031842798</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0001449997154200373</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0005389757376534402</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.001380650155123926</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0001355982230140112</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>1.676271391137173E-05</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6648,598 +6648,598 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.499599866277881E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>6.323362916438836E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.564780922797552E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.564780922797552E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.564780922797552E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.564780922797552E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.687469289359748E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.928466209453312E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3.387430885840771E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.06396095563805E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>8.034022633720709E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.907331844581851E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001258386191437913</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001258386191437913</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0001371790295555759</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001395889987565116</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001395889987565116</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0001614367937555331</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0002069379520816517</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0002903851626846242</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0003381852576636112</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0003954921711818484</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0004250564709673842</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0004392811860000187</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0004466811232340237</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0004513567251057483</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0004544937666392619</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0004544937666392619</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0004573601473041569</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.000463511746187279</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.000463511746187279</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0004645235145701818</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0004645235145701818</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0004645235145701818</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0004727617251530312</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0004800594840233095</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0004800594840233095</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0004862110829064316</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0005039986012289601</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0005404732914707423</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0005627626172097257</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0005778451094867491</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0005778451094867491</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0005842568176670152</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0007713309834137306</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.03368602054445093</v>
+        <v>0.06029082418430598</v>
       </c>
       <c r="AW2">
-        <v>0.04726502665654951</v>
+        <v>0.06029082418430598</v>
       </c>
       <c r="AX2">
-        <v>0.06871238502587923</v>
+        <v>0.06029082418430598</v>
       </c>
       <c r="AY2">
-        <v>0.08394005754920146</v>
+        <v>0.06029082418430598</v>
       </c>
       <c r="AZ2">
-        <v>0.1388301261576866</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BA2">
-        <v>0.1482620644586057</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BB2">
-        <v>0.1486228827992677</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BC2">
-        <v>0.1552394163713112</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BD2">
-        <v>0.1626991412830945</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BE2">
-        <v>0.1684360297582305</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BF2">
-        <v>0.1934668157665791</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BG2">
-        <v>0.214334634527357</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BH2">
-        <v>0.2212537986099326</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BI2">
-        <v>0.2256134135387896</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BJ2">
-        <v>0.2335327635154583</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BK2">
-        <v>0.2442438286310104</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BL2">
-        <v>0.245035821419212</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BM2">
-        <v>0.2450931283327302</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BN2">
-        <v>0.2459931550551036</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BO2">
-        <v>0.2463986700298052</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BP2">
-        <v>0.2509746141327875</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BQ2">
-        <v>0.2531192854107258</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BR2">
-        <v>0.2536090627564225</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BS2">
-        <v>0.2537182572250006</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BT2">
-        <v>0.2587336133102317</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BU2">
-        <v>0.2587695322424922</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BV2">
-        <v>0.2588322376914393</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BW2">
-        <v>0.2601375471799118</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BX2">
-        <v>0.2653045649606545</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BY2">
-        <v>0.2663620547270347</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="BZ2">
-        <v>0.2663643943392539</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CA2">
-        <v>0.266427609238436</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CB2">
-        <v>0.2665377530713346</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CC2">
-        <v>0.2714537232232676</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CD2">
-        <v>0.2742630618710793</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CE2">
-        <v>0.2759944873593365</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CF2">
-        <v>0.28263783408585</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CG2">
-        <v>0.2834691003226835</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CH2">
-        <v>0.2872135812337012</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CI2">
-        <v>0.2883064368168303</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CJ2">
-        <v>0.2901776572967338</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CK2">
-        <v>0.2916172013258774</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CL2">
-        <v>0.2931571852149686</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CM2">
-        <v>0.3007496438598677</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CN2">
-        <v>0.3266358271491511</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CO2">
-        <v>0.3287296428397896</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CP2">
-        <v>0.3361790290662782</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="CQ2">
-        <v>0.3712232597056638</v>
+        <v>0.6812098824416305</v>
       </c>
       <c r="CR2">
-        <v>0.3958860227313757</v>
+        <v>0.6812098824416305</v>
       </c>
       <c r="CS2">
-        <v>0.3972758727434449</v>
+        <v>0.6812098824416305</v>
       </c>
       <c r="CT2">
-        <v>0.402786273031896</v>
+        <v>0.6812098824416305</v>
       </c>
       <c r="CU2">
-        <v>0.4121775538739098</v>
+        <v>0.6812098824416305</v>
       </c>
       <c r="CV2">
-        <v>0.4148724008733453</v>
+        <v>0.6812098824416305</v>
       </c>
       <c r="CW2">
-        <v>0.4148724008733453</v>
+        <v>0.6812098824416305</v>
       </c>
       <c r="CX2">
-        <v>0.4235716655741877</v>
+        <v>0.6812098824416305</v>
       </c>
       <c r="CY2">
-        <v>0.4383661847488739</v>
+        <v>0.6812098824416305</v>
       </c>
       <c r="CZ2">
-        <v>0.4567364264434017</v>
+        <v>0.6812098824416305</v>
       </c>
       <c r="DA2">
-        <v>0.4708899571338734</v>
+        <v>0.6812098824416305</v>
       </c>
       <c r="DB2">
-        <v>0.4709467782327247</v>
+        <v>0.6812098824416305</v>
       </c>
       <c r="DC2">
-        <v>0.4735813435289911</v>
+        <v>0.6812098824416305</v>
       </c>
       <c r="DD2">
-        <v>0.481785592838277</v>
+        <v>0.6812098824416305</v>
       </c>
       <c r="DE2">
-        <v>0.5164671576637087</v>
+        <v>0.7781751195163353</v>
       </c>
       <c r="DF2">
-        <v>0.5571641266380681</v>
+        <v>1</v>
       </c>
       <c r="DG2">
-        <v>0.5662390123973916</v>
+        <v>1</v>
       </c>
       <c r="DH2">
-        <v>0.5662536020441555</v>
+        <v>1</v>
       </c>
       <c r="DI2">
-        <v>0.5663529208648853</v>
+        <v>1</v>
       </c>
       <c r="DJ2">
-        <v>0.5692647493024948</v>
+        <v>1</v>
       </c>
       <c r="DK2">
-        <v>0.5705474297302973</v>
+        <v>1</v>
       </c>
       <c r="DL2">
-        <v>0.5782866630923671</v>
+        <v>1</v>
       </c>
       <c r="DM2">
-        <v>0.579289344171158</v>
+        <v>1</v>
       </c>
       <c r="DN2">
-        <v>0.579684054101774</v>
+        <v>1</v>
       </c>
       <c r="DO2">
-        <v>0.5800017580889335</v>
+        <v>1</v>
       </c>
       <c r="DP2">
-        <v>0.5806160520412985</v>
+        <v>1</v>
       </c>
       <c r="DQ2">
-        <v>0.5830766674193608</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0.5897759827030007</v>
+        <v>1</v>
       </c>
       <c r="DS2">
-        <v>0.6118276236973215</v>
+        <v>1</v>
       </c>
       <c r="DT2">
-        <v>0.6293161494566274</v>
+        <v>1</v>
       </c>
       <c r="DU2">
-        <v>0.6329370831534051</v>
+        <v>1</v>
       </c>
       <c r="DV2">
-        <v>0.6330105645906753</v>
+        <v>1</v>
       </c>
       <c r="DW2">
-        <v>0.6383096868497996</v>
+        <v>1</v>
       </c>
       <c r="DX2">
-        <v>0.6496429478419645</v>
+        <v>1</v>
       </c>
       <c r="DY2">
-        <v>0.6591886081797066</v>
+        <v>1</v>
       </c>
       <c r="DZ2">
-        <v>0.6645796563521725</v>
+        <v>1</v>
       </c>
       <c r="EA2">
-        <v>0.6654494725947746</v>
+        <v>1</v>
       </c>
       <c r="EB2">
-        <v>0.6666300790010902</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>0.6697994130818353</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.6717331889853528</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.6717383315912766</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.6720136488194774</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.6720618493735698</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.6726231666799906</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.6728118911938292</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.6728458068401219</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.6734826793327053</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.6734833763484704</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.6763903595246269</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.6805680708154642</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.6829243527573859</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.6866359283477099</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.6869023443325197</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.6873627731973986</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.6901028865214951</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.6969552530631677</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.6999913526080628</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.703321303709604</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.7073117321848292</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.7108415603003513</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.7190458096096373</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.7284457949754063</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.7369317033055703</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.7428102917435209</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.7430167776875212</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.7448261902464138</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.7554534304280534</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.7783984960975145</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8034956269635115</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8221427867597039</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8289552886634199</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8294808787067715</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8295551428649017</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.8321329806968217</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.8335952182127163</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.8375967937004622</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.8427915872253495</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.8427915872253495</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.8459107381910242</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.8561863950451091</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.8688571354741477</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.8797642669610607</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.8862090387006785</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.8881919951133926</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.891049323288269</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.8973673500191194</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9075461336571012</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9172798921405164</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9243722203231821</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9312419443915085</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9316889536938957</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9322494827112021</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9342536863251837</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9390072917488157</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.950839521733029</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9623515891093868</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9688877414415901</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9758692984820104</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.983642514700981</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9888675605725881</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9945727476143866</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9968369182679235</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9974327740561724</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9989400223932954</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9996700148425917</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9999262294376867</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0002846419246185083</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0004333901034361081</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0004333901034361081</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0004333901034361081</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0004333901034361081</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0004381409129879473</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0005914380727449687</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0006580396683067734</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0008457734002215842</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.00124447932376048</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.001624531764858326</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.002281264552854335</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.002663049511940719</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.002993229816120664</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.003201379521809982</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.003201379521809982</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.003324246920674406</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.003324246920674406</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.003324246920674406</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.003427625507076325</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.003519812467164491</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.003800882467055658</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.00419882312983995</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.00457812581259134</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.00498671818709475</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.005506487684477022</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.005938573184929382</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.005945573936943243</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.005945573936943243</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.005945573936943243</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.005945573936943243</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.006016619232576069</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.006045981825085008</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.006045981825085008</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.006723421977521451</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.007901324491370732</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.008802767029149259</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.009069881565041292</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.009069881565041292</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.009069881565041292</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.009069881565041292</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.009069881565041292</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.009069881565041292</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.009069881565041292</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.009069881565041292</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.009148057483025173</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.009148057483025173</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.009193161986283968</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.009445826275511505</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.009691699094223969</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.009691699094223969</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.009691699094223969</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.009691699094223969</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.009691699094223969</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.009691699094223969</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.009691699094223969</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.009691699094223969</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.009691699094223969</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.009691699094223969</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.009805659939938496</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.009805659939938496</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.009805659939938496</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.009852007199359115</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.009995699702088695</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.01021205304351724</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.01047074450318937</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.01069032080841867</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.01069032080841867</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.01069032080841867</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.01069032080841867</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.01069032080841867</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.01069032080841867</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.01069032080841867</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.01087792398841617</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0110454876412444</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0113695471740079</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.01138250850588732</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.01138250850588732</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.01138250850588732</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.01138250850588732</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.01142646317136478</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01142646317136478</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.01142646317136478</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01142646317136478</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01142646317136478</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01142646317136478</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0115324483668533</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.011729404555198</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.01214294925640175</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0234066591529738</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1212073081146295</v>
+        <v>0.3990463494297289</v>
       </c>
       <c r="CO3">
-        <v>0.1639533469111465</v>
+        <v>0.4727632542909657</v>
       </c>
       <c r="CP3">
-        <v>0.1815317579905268</v>
+        <v>0.4727632542909657</v>
       </c>
       <c r="CQ3">
-        <v>0.2243795716639856</v>
+        <v>0.5470815686270345</v>
       </c>
       <c r="CR3">
-        <v>0.2367617332856755</v>
+        <v>0.5470815686270345</v>
       </c>
       <c r="CS3">
-        <v>0.2372605378642577</v>
+        <v>0.5470815686270345</v>
       </c>
       <c r="CT3">
-        <v>0.2419478046469014</v>
+        <v>0.5470815686270345</v>
       </c>
       <c r="CU3">
-        <v>0.2475915214726176</v>
+        <v>0.5470815686270345</v>
       </c>
       <c r="CV3">
-        <v>0.2654185737852973</v>
+        <v>0.5470815686270345</v>
       </c>
       <c r="CW3">
-        <v>0.3079913183106092</v>
+        <v>0.6197744406447198</v>
       </c>
       <c r="CX3">
-        <v>0.3079913183106092</v>
+        <v>0.6197744406447198</v>
       </c>
       <c r="CY3">
-        <v>0.3303968779366952</v>
+        <v>0.6197744406447198</v>
       </c>
       <c r="CZ3">
-        <v>0.3349848746998654</v>
+        <v>0.6197744406447198</v>
       </c>
       <c r="DA3">
-        <v>0.3760635571956458</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DB3">
-        <v>0.3780696843088577</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DC3">
-        <v>0.3781001181440623</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DD3">
-        <v>0.3788560126065866</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DE3">
-        <v>0.3864297931011499</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DF3">
-        <v>0.3870400796833047</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DG3">
-        <v>0.4035434579153468</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DH3">
-        <v>0.4122113092863787</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DI3">
-        <v>0.4203093991236632</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DJ3">
-        <v>0.4219536823338232</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DK3">
-        <v>0.4253508297100665</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DL3">
-        <v>0.4260936987519561</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DM3">
-        <v>0.4268838493600458</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DN3">
-        <v>0.4269947799855339</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DO3">
-        <v>0.4286031100471155</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DP3">
-        <v>0.4290480806476446</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DQ3">
-        <v>0.4296714290047441</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DR3">
-        <v>0.4300849737059479</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DS3">
-        <v>0.430320796312445</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DT3">
-        <v>0.4329217419274331</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DU3">
-        <v>0.4374373603436015</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DV3">
-        <v>0.4395200189930048</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DW3">
-        <v>0.4547752501083727</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DX3">
-        <v>0.4592043962334506</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DY3">
-        <v>0.4680003280354507</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="DZ3">
-        <v>0.4717297398503223</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="EA3">
-        <v>0.4735512019338185</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="EB3">
-        <v>0.4762931726422678</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="EC3">
-        <v>0.477060302902351</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="ED3">
-        <v>0.4833507806006159</v>
+        <v>0.6836385811763327</v>
       </c>
       <c r="EE3">
-        <v>0.5139046446049088</v>
+        <v>0.685309322394986</v>
       </c>
       <c r="EF3">
-        <v>0.5182494123258053</v>
+        <v>0.685309322394986</v>
       </c>
       <c r="EG3">
-        <v>0.5249497630774888</v>
+        <v>0.685309322394986</v>
       </c>
       <c r="EH3">
-        <v>0.5802322342855617</v>
+        <v>0.833106682663833</v>
       </c>
       <c r="EI3">
-        <v>0.6095810242046725</v>
+        <v>0.833106682663833</v>
       </c>
       <c r="EJ3">
-        <v>0.6118767182008293</v>
+        <v>0.833106682663833</v>
       </c>
       <c r="EK3">
-        <v>0.6203534409581808</v>
+        <v>0.833106682663833</v>
       </c>
       <c r="EL3">
-        <v>0.6328639044738125</v>
+        <v>0.833106682663833</v>
       </c>
       <c r="EM3">
-        <v>0.6350972365191013</v>
+        <v>0.833106682663833</v>
       </c>
       <c r="EN3">
-        <v>0.635117480311987</v>
+        <v>0.833106682663833</v>
       </c>
       <c r="EO3">
-        <v>0.6513872120731604</v>
+        <v>0.833106682663833</v>
       </c>
       <c r="EP3">
-        <v>0.6723748160778965</v>
+        <v>0.833106682663833</v>
       </c>
       <c r="EQ3">
-        <v>0.6927214617422411</v>
+        <v>0.833106682663833</v>
       </c>
       <c r="ER3">
-        <v>0.7051258758421669</v>
+        <v>0.833106682663833</v>
       </c>
       <c r="ES3">
-        <v>0.7055803377491082</v>
+        <v>0.833106682663833</v>
       </c>
       <c r="ET3">
-        <v>0.7112695449909665</v>
+        <v>0.833106682663833</v>
       </c>
       <c r="EU3">
-        <v>0.7185144232391142</v>
+        <v>0.833106682663833</v>
       </c>
       <c r="EV3">
-        <v>0.7559282575708295</v>
+        <v>0.8753144530192368</v>
       </c>
       <c r="EW3">
-        <v>0.8042407975344873</v>
+        <v>0.981925001618278</v>
       </c>
       <c r="EX3">
-        <v>0.8126369360843555</v>
+        <v>0.981925001618278</v>
       </c>
       <c r="EY3">
-        <v>0.8127508969300701</v>
+        <v>0.981925001618278</v>
       </c>
       <c r="EZ3">
-        <v>0.8127649069791304</v>
+        <v>0.981925001618278</v>
       </c>
       <c r="FA3">
-        <v>0.8182575442923848</v>
+        <v>0.981925001618278</v>
       </c>
       <c r="FB3">
-        <v>0.8191460324192547</v>
+        <v>0.981925001618278</v>
       </c>
       <c r="FC3">
-        <v>0.8285902257835421</v>
+        <v>0.981925001618278</v>
       </c>
       <c r="FD3">
-        <v>0.8290709991906391</v>
+        <v>0.981925001618278</v>
       </c>
       <c r="FE3">
-        <v>0.8290709991906391</v>
+        <v>0.981925001618278</v>
       </c>
       <c r="FF3">
-        <v>0.8290709991906391</v>
+        <v>0.981925001618278</v>
       </c>
       <c r="FG3">
-        <v>0.8307565288178201</v>
+        <v>0.981925001618278</v>
       </c>
       <c r="FH3">
-        <v>0.8390407415988341</v>
+        <v>0.981925001618278</v>
       </c>
       <c r="FI3">
-        <v>0.8409356401976223</v>
+        <v>0.981925001618278</v>
       </c>
       <c r="FJ3">
-        <v>0.8742655516769887</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK3">
-        <v>0.8991298640230383</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL3">
-        <v>0.9042462912616066</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM3">
-        <v>0.9047504969378409</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN3">
-        <v>0.9106466461598152</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO3">
-        <v>0.9224387525539045</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP3">
-        <v>0.9263382826182408</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ3">
-        <v>0.9306054014767382</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR3">
-        <v>0.9334658209992979</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS3">
-        <v>0.9355577311380168</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT3">
-        <v>0.9388548391384839</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU3">
-        <v>0.9390113855847869</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV3">
-        <v>0.9393906882675384</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW3">
-        <v>0.9394275915671056</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX3">
-        <v>0.9406042423600933</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY3">
-        <v>0.9417540806612067</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ3">
-        <v>0.9417540806612067</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA3">
-        <v>0.9426190871397748</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB3">
-        <v>0.9428417653221544</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC3">
-        <v>0.9430882657305291</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD3">
-        <v>0.9466946869200882</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE3">
-        <v>0.9533725909330916</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF3">
-        <v>0.9572606059340479</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG3">
-        <v>0.9605119398637424</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH3">
-        <v>0.9612187095308162</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI3">
-        <v>0.961319713285819</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ3">
-        <v>0.9615147676330688</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK3">
-        <v>0.9650384117272076</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL3">
-        <v>0.9660281828607437</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM3">
-        <v>0.9684417121477867</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN3">
-        <v>0.9707877093853375</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO3">
-        <v>0.9725666968929936</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP3">
-        <v>0.9799853959683752</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ3">
-        <v>0.9896761908818629</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR3">
-        <v>0.9966986138202821</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8194,769 +8194,769 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.816472270126841E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>9.489055286698651E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001626099377311748</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001626099377311748</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001647238759230382</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001647238759230382</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0003008305195265858</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0004586235012486874</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0007094733842210007</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0009886740526888985</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001137037928630982</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.001137037928630982</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.001137037928630982</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.001137037928630982</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.001144099637083414</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001172378336443525</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001172378336443525</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001267887413784295</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001400275851168073</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001485046184838291</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001529458268540724</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001529458268540724</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001563192837679197</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001639348362807749</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001639348362807749</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001686182950936947</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.001700466447295951</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.00180326451311613</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.001998632720380793</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002145935381464264</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.002331792237291955</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.002522972760656964</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.002873685330339116</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.00303066003050001</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.003129408348272783</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.003195909128493048</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.003195909128493048</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.003220481351801034</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.003220481351801034</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.003220481351801034</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.003226324122411762</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.003314048390896425</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.00342244007467256</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.003650650422972258</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.003773339874409923</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.003807675651773672</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.003901649686939857</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.003958246658918156</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.003958246658918156</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.003958246658918156</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.003994713122680275</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.003994713122680275</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.003994713122680275</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.003994713122680275</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.003998486513277022</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0040610365854793</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.004268287478661812</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.004574285177180185</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.004936525506891451</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.005227172954277303</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.005687095492307623</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.006091706877626914</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.006436917518959203</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.006584220180042674</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.006617598625988339</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.006692953011176437</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.00682813479007334</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.006849888050765377</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.006849888050765377</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.006872171116000504</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.006872171116000504</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.006872171116000504</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.006920076924957806</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.006971569076109653</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.00719082556705391</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.007300846357146712</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.007331479712030129</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.007331479712030129</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.007331479712030129</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.007331479712030129</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.00734931877695855</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.007402835164843164</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.007402835164843164</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.007417403813267738</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.007417403813267738</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.007488142762873044</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.007494466776457574</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.007520638626107518</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.01530921194170519</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1293442002141343</v>
+        <v>0.4578564687753047</v>
       </c>
       <c r="CO4">
-        <v>0.161953214130045</v>
+        <v>0.4716038005393938</v>
       </c>
       <c r="CP4">
-        <v>0.1957689278944821</v>
+        <v>0.4919326492284654</v>
       </c>
       <c r="CQ4">
-        <v>0.241505374347423</v>
+        <v>0.5772789121845481</v>
       </c>
       <c r="CR4">
-        <v>0.252811730399804</v>
+        <v>0.5772789121845481</v>
       </c>
       <c r="CS4">
-        <v>0.2528388795627027</v>
+        <v>0.5772789121845481</v>
       </c>
       <c r="CT4">
-        <v>0.2629807394806054</v>
+        <v>0.5772789121845481</v>
       </c>
       <c r="CU4">
-        <v>0.2758071789337219</v>
+        <v>0.5772789121845481</v>
       </c>
       <c r="CV4">
-        <v>0.2854854834612047</v>
+        <v>0.5772789121845481</v>
       </c>
       <c r="CW4">
-        <v>0.3283642019443779</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="CX4">
-        <v>0.3295315466458942</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="CY4">
-        <v>0.3479587256557212</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="CZ4">
-        <v>0.3587553784250885</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DA4">
-        <v>0.3771002023847141</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DB4">
-        <v>0.3870066470310355</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DC4">
-        <v>0.3873488803193696</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DD4">
-        <v>0.3881734896546807</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DE4">
-        <v>0.396425098993676</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DF4">
-        <v>0.3969375558020717</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DG4">
-        <v>0.4132610785816643</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DH4">
-        <v>0.4133849003435351</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DI4">
-        <v>0.4250997267665283</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DJ4">
-        <v>0.4252624691704494</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DK4">
-        <v>0.4268808019854979</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DL4">
-        <v>0.4268808019854979</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DM4">
-        <v>0.4274130028699622</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DN4">
-        <v>0.4274133688656447</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DO4">
-        <v>0.427603176463613</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DP4">
-        <v>0.4289752276446454</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DQ4">
-        <v>0.4290911507122646</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DR4">
-        <v>0.4291304171242898</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DS4">
-        <v>0.4291570595927217</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DT4">
-        <v>0.4345978822064874</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DU4">
-        <v>0.4441534625647288</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DV4">
-        <v>0.444421215972547</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DW4">
-        <v>0.4666578431991702</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DX4">
-        <v>0.4667291679646684</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DY4">
-        <v>0.4821399385798221</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="DZ4">
-        <v>0.4821757920780939</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="EA4">
-        <v>0.4836585311603523</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="EB4">
-        <v>0.4891515443891099</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="EC4">
-        <v>0.4893600320883669</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="ED4">
-        <v>0.489961505293193</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="EE4">
-        <v>0.5084928828763893</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="EF4">
-        <v>0.5243843765965187</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="EG4">
-        <v>0.5248734560378796</v>
+        <v>0.6470387101029581</v>
       </c>
       <c r="EH4">
-        <v>0.5727052779533242</v>
+        <v>0.743813456362078</v>
       </c>
       <c r="EI4">
-        <v>0.6230345928646848</v>
+        <v>0.8542098935849617</v>
       </c>
       <c r="EJ4">
-        <v>0.6340605138080269</v>
+        <v>0.8542098935849617</v>
       </c>
       <c r="EK4">
-        <v>0.644369114124856</v>
+        <v>0.8542098935849617</v>
       </c>
       <c r="EL4">
-        <v>0.6633413264221111</v>
+        <v>0.8542098935849617</v>
       </c>
       <c r="EM4">
-        <v>0.6645174287054109</v>
+        <v>0.8542098935849617</v>
       </c>
       <c r="EN4">
-        <v>0.6645567927624507</v>
+        <v>0.8542098935849617</v>
       </c>
       <c r="EO4">
-        <v>0.6716550545439082</v>
+        <v>0.8542098935849617</v>
       </c>
       <c r="EP4">
-        <v>0.6812407411281083</v>
+        <v>0.8542098935849617</v>
       </c>
       <c r="EQ4">
-        <v>0.6935216956702991</v>
+        <v>0.8542098935849617</v>
       </c>
       <c r="ER4">
-        <v>0.7052854148531438</v>
+        <v>0.8542098935849617</v>
       </c>
       <c r="ES4">
-        <v>0.710656795135391</v>
+        <v>0.8542098935849617</v>
       </c>
       <c r="ET4">
-        <v>0.7132849942209819</v>
+        <v>0.8542098935849617</v>
       </c>
       <c r="EU4">
-        <v>0.7181646003719884</v>
+        <v>0.8542098935849617</v>
       </c>
       <c r="EV4">
-        <v>0.7451428146711875</v>
+        <v>0.8542098935849617</v>
       </c>
       <c r="EW4">
-        <v>0.8019614443924586</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8194011887690659</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8196779141393238</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.819749238904822</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8221977471371512</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8222125105557362</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8317247852385954</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8327243734886765</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8328526494625631</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8328589086340531</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8330908831839168</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8383932651307242</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.83968071900107</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.8635660941520753</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.8914016885640828</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.8985623336010694</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9007407010303643</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9012972388011464</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9092137911762821</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9193605707794854</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9259152514939615</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9320080683989183</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9332361917878571</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9414747587420452</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9422562340590476</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9424938915981393</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9425417974070966</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9425417974070966</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9426095167919608</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9426095167919608</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9449786237924845</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9451642984633933</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9452255522155802</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9483675617486329</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9540533837871247</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9560291043407743</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9580240966726747</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9599733564048776</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9599966580466951</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9604938038550582</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9643540370608976</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9667231440614213</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9676344348996803</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9693333648455559</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9718944993471629</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9801972219282064</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9906836198925951</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9968390862098623</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>4.086506810615947E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.624812276720625E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0009795572838693666</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.001324394256463831</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.001339829093618714</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.001528332928145997</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.001674594293224096</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001674594293224096</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001691723127760471</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.001691723127760471</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.001736249618216813</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.001736249618216813</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.001736249618216813</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001736249618216813</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001859495122629288</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.002256050616041332</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.002256050616041332</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.002256050616041332</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.002306619181235453</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.002317561763217775</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.002339499837852087</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.002339499837852087</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.002387307238851913</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.002392537291668021</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.002655842540555707</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.003221894943729469</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.003227903516060649</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.003227903516060649</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.00323443659259192</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.003260056178391571</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.004065983347186593</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.004617343502777634</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.004782796496863361</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.004870669529751009</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.004870669529751009</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.004870669529751009</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.004987172306495512</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.004987172306495512</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.005131113640440675</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.005173634945811465</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.005261894019114522</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.005297425029207186</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.005297425029207186</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.00559336402359858</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.005719348294123609</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.005847641330088697</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.05985915436183191</v>
+        <v>0.2716405021539806</v>
       </c>
       <c r="AW5">
-        <v>0.07465592507014313</v>
+        <v>0.2716405021539806</v>
       </c>
       <c r="AX5">
-        <v>0.08207897063862689</v>
+        <v>0.2716405021539806</v>
       </c>
       <c r="AY5">
-        <v>0.1014549889169832</v>
+        <v>0.2716405021539806</v>
       </c>
       <c r="AZ5">
-        <v>0.1651543653821035</v>
+        <v>0.653137568967465</v>
       </c>
       <c r="BA5">
-        <v>0.1785135865716487</v>
+        <v>0.653137568967465</v>
       </c>
       <c r="BB5">
-        <v>0.1785575633734686</v>
+        <v>0.653137568967465</v>
       </c>
       <c r="BC5">
-        <v>0.1892235583100367</v>
+        <v>0.653137568967465</v>
       </c>
       <c r="BD5">
-        <v>0.1892993502003063</v>
+        <v>0.653137568967465</v>
       </c>
       <c r="BE5">
-        <v>0.2210872894798429</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BF5">
-        <v>0.2233224375729603</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BG5">
-        <v>0.2481342779510547</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BH5">
-        <v>0.2564845375518104</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BI5">
-        <v>0.2585937834084923</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BJ5">
-        <v>0.2609902398863745</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BK5">
-        <v>0.2669679656148635</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BL5">
-        <v>0.2676436240488551</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BM5">
-        <v>0.2679141099742099</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BN5">
-        <v>0.2680350887490506</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BO5">
-        <v>0.270535534788662</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BP5">
-        <v>0.2717623454370076</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BQ5">
-        <v>0.2740267411330901</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BR5">
-        <v>0.2763004825432898</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BS5">
-        <v>0.2763174032581823</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BT5">
-        <v>0.2783048512389569</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BU5">
-        <v>0.2783673037670751</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BV5">
-        <v>0.2802164570487902</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BW5">
-        <v>0.2802164570487902</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BX5">
-        <v>0.2829343954079416</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BY5">
-        <v>0.2837571982238462</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="BZ5">
-        <v>0.2856063515055613</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CA5">
-        <v>0.2862619112418571</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CB5">
-        <v>0.2863149372856509</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CC5">
-        <v>0.2878847967013562</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CD5">
-        <v>0.2889567702234844</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CE5">
-        <v>0.2905406921104856</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CF5">
-        <v>0.2928461099629344</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CG5">
-        <v>0.2934341306075418</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CH5">
-        <v>0.2947801537354618</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CI5">
-        <v>0.295399820613423</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CJ5">
-        <v>0.3006645612867028</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CK5">
-        <v>0.3030473186219073</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CL5">
-        <v>0.3032579292538631</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CM5">
-        <v>0.310342643012623</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CN5">
-        <v>0.3392271987481294</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CO5">
-        <v>0.3450075423209242</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CP5">
-        <v>0.3548727710058405</v>
+        <v>0.6727714771325898</v>
       </c>
       <c r="CQ5">
-        <v>0.3901512338787023</v>
+        <v>0.731986551306368</v>
       </c>
       <c r="CR5">
-        <v>0.417954977681936</v>
+        <v>0.731986551306368</v>
       </c>
       <c r="CS5">
-        <v>0.4195809162935459</v>
+        <v>0.731986551306368</v>
       </c>
       <c r="CT5">
-        <v>0.4256673028371653</v>
+        <v>0.731986551306368</v>
       </c>
       <c r="CU5">
-        <v>0.4292476450204744</v>
+        <v>0.731986551306368</v>
       </c>
       <c r="CV5">
-        <v>0.4311780074101291</v>
+        <v>0.731986551306368</v>
       </c>
       <c r="CW5">
-        <v>0.4313061746391751</v>
+        <v>0.731986551306368</v>
       </c>
       <c r="CX5">
-        <v>0.4371427770174977</v>
+        <v>0.731986551306368</v>
       </c>
       <c r="CY5">
-        <v>0.455377678831247</v>
+        <v>0.731986551306368</v>
       </c>
       <c r="CZ5">
-        <v>0.4826848140539823</v>
+        <v>0.731986551306368</v>
       </c>
       <c r="DA5">
-        <v>0.4991307168225816</v>
+        <v>0.731986551306368</v>
       </c>
       <c r="DB5">
-        <v>0.4991314065385687</v>
+        <v>0.731986551306368</v>
       </c>
       <c r="DC5">
-        <v>0.5031021416637891</v>
+        <v>0.731986551306368</v>
       </c>
       <c r="DD5">
-        <v>0.5117713887570358</v>
+        <v>0.731986551306368</v>
       </c>
       <c r="DE5">
-        <v>0.5509465485543655</v>
+        <v>0.8353886374653143</v>
       </c>
       <c r="DF5">
-        <v>0.5955195388065428</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DG5">
-        <v>0.6093877678547541</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DH5">
-        <v>0.611061131826069</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DI5">
-        <v>0.6112050731600142</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DJ5">
-        <v>0.6133341667821081</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DK5">
-        <v>0.6152119143768755</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DL5">
-        <v>0.6209476666534159</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DM5">
-        <v>0.6233400091488257</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DN5">
-        <v>0.6241684753909107</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DO5">
-        <v>0.6244986784690042</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DP5">
-        <v>0.6272714855634473</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DQ5">
-        <v>0.6291170226980684</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DR5">
-        <v>0.6389323084816985</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DS5">
-        <v>0.6655872963976275</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DT5">
-        <v>0.6857074467660595</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DU5">
-        <v>0.6950762292407839</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DV5">
-        <v>0.6959435323854797</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DW5">
-        <v>0.6990481774796679</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DX5">
-        <v>0.7068421108059521</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DY5">
-        <v>0.7137443324677345</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DZ5">
-        <v>0.7196315387548569</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EA5">
-        <v>0.7204011024520224</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EB5">
-        <v>0.7205929376742128</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EC5">
-        <v>0.7217617819226394</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ED5">
-        <v>0.7230780946922206</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EE5">
-        <v>0.7231203313173411</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EF5">
-        <v>0.7231203313173411</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EG5">
-        <v>0.7232073676861074</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EH5">
-        <v>0.7245705662849241</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EI5">
-        <v>0.7256943353334911</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EJ5">
-        <v>0.7256943353334911</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EK5">
-        <v>0.7262318474468196</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EL5">
-        <v>0.7262318474468196</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EM5">
-        <v>0.7296096827869176</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EN5">
-        <v>0.7353844533497379</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EO5">
-        <v>0.7385131462881646</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EP5">
-        <v>0.7421496323148151</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EQ5">
-        <v>0.7427851211768701</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER5">
-        <v>0.7428455650539983</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES5">
-        <v>0.743606555639066</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET5">
-        <v>0.747703529367851</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU5">
-        <v>0.7509934367768589</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV5">
-        <v>0.7539227141220726</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW5">
-        <v>0.7577207143027715</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX5">
-        <v>0.7616544885338626</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY5">
-        <v>0.7685311654374997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ5">
-        <v>0.7781578741465691</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA5">
-        <v>0.7876860371092387</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB5">
-        <v>0.7948132012816916</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC5">
-        <v>0.7955664391556927</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD5">
-        <v>0.7965307811501143</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE5">
-        <v>0.8035014614407092</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF5">
-        <v>0.822414683251491</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG5">
-        <v>0.8411514235732691</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH5">
-        <v>0.8555193271943735</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI5">
-        <v>0.8636612887443156</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ5">
-        <v>0.8645137342041274</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK5">
-        <v>0.8645745069763436</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL5">
-        <v>0.8662852352618398</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM5">
-        <v>0.8684363746622001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN5">
-        <v>0.8726968937775237</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO5">
-        <v>0.876746306336872</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP5">
-        <v>0.8772297633204421</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ5">
-        <v>0.8792523636707703</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR5">
-        <v>0.885796731700773</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS5">
-        <v>0.8982193989571868</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT5">
-        <v>0.908581399595194</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU5">
-        <v>0.9137954971702975</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV5">
-        <v>0.9149230377202644</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW5">
-        <v>0.9166205876508069</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX5">
-        <v>0.921194762799535</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY5">
-        <v>0.9270819690866574</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ5">
-        <v>0.9331530838008824</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA5">
-        <v>0.9388888360774228</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB5">
-        <v>0.9465965680102105</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC5">
-        <v>0.9477006390348705</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD5">
-        <v>0.9480109697314116</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE5">
-        <v>0.9493600851116155</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF5">
-        <v>0.9531174385922251</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG5">
-        <v>0.9611537281434215</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH5">
-        <v>0.9687084263629097</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI5">
-        <v>0.9740903252306995</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ5">
-        <v>0.9802256644171918</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK5">
-        <v>0.9852364222495485</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL5">
-        <v>0.9892042996573726</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM5">
-        <v>0.993627124431875</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN5">
-        <v>0.9952689403537573</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO5">
-        <v>0.9960839910298982</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP5">
-        <v>0.9985653889277433</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ5">
-        <v>0.9997690685227113</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR5">
-        <v>0.9997986272362043</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9743,595 +9743,595 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.237571319895949E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>7.939163966859957E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0001779669536718115</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0002759271628938368</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0002967701371307591</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0003094071168469548</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0003094071168469548</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0003094071168469548</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0003094071168469548</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0003109509715992696</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0003136822565992435</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0003194973394916062</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0005224242457945955</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0007968242812121241</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001099213309590317</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.001195718739634546</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.001248910782160633</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.001347664843320382</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.001405304664429701</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.001484488910517473</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.001484488910517473</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.001484488910517473</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.001484488910517473</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001484488910517473</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001498150153661997</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001541771567872499</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001626262663728697</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.00176957915380254</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001812058148852715</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001847813558265576</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001875017988991953</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001875017988991953</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001896608301539354</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001896608301539354</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.001902652671020773</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.001902652671020773</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.001935142411103381</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.002035339741985191</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.002161772752002989</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.002279369565197825</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.002453650337700659</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.002735430248155709</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.002909711020658543</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.003275856794274801</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.05735903319073991</v>
+        <v>0.3447670320395509</v>
       </c>
       <c r="AW6">
-        <v>0.05918119257885992</v>
+        <v>0.3447670320395509</v>
       </c>
       <c r="AX6">
-        <v>0.1140494260460903</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="AY6">
-        <v>0.1270112593851092</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="AZ6">
-        <v>0.1521016560065182</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BA6">
-        <v>0.1521184187204296</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BB6">
-        <v>0.154276682063081</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BC6">
-        <v>0.1543740024307064</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BD6">
-        <v>0.1544965470978184</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BE6">
-        <v>0.1835972267542486</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BF6">
-        <v>0.19757050485275</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BG6">
-        <v>0.2032872293648172</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BH6">
-        <v>0.2237486541114787</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BI6">
-        <v>0.2312817360178995</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BJ6">
-        <v>0.2419982979206448</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BK6">
-        <v>0.2554701514044032</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BL6">
-        <v>0.2575056517268356</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BM6">
-        <v>0.257525303586597</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BN6">
-        <v>0.2661952939379592</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BO6">
-        <v>0.2661952939379592</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BP6">
-        <v>0.2868579658755107</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BQ6">
-        <v>0.2869522463945362</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BR6">
-        <v>0.2898292088355664</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BS6">
-        <v>0.2920768607818854</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BT6">
-        <v>0.2933425438952146</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BU6">
-        <v>0.2992204975511404</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BV6">
-        <v>0.3079179363016363</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BW6">
-        <v>0.3079531636283713</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BX6">
-        <v>0.3083193591661095</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BY6">
-        <v>0.3085786350554723</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="BZ6">
-        <v>0.3136662541194418</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CA6">
-        <v>0.3146661238984255</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CB6">
-        <v>0.3189036088846038</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CC6">
-        <v>0.3391249578039391</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CD6">
-        <v>0.3410198408250418</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CE6">
-        <v>0.3540539323101783</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CF6">
-        <v>0.3679357488007785</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CG6">
-        <v>0.3768640207547481</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CH6">
-        <v>0.3915005159641491</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CI6">
-        <v>0.3920052247164413</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CJ6">
-        <v>0.3966600277425056</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CK6">
-        <v>0.4017419943514911</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CL6">
-        <v>0.404019844044477</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CM6">
-        <v>0.4051182247476184</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CN6">
-        <v>0.4257410653537652</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CO6">
-        <v>0.4350856169923715</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CP6">
-        <v>0.4417543128292474</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="CQ6">
-        <v>0.4818196352615834</v>
+        <v>0.8445350402356219</v>
       </c>
       <c r="CR6">
-        <v>0.5153177514023015</v>
+        <v>0.8941002546755478</v>
       </c>
       <c r="CS6">
-        <v>0.5154526363195341</v>
+        <v>0.8941002546755478</v>
       </c>
       <c r="CT6">
-        <v>0.5442563740213912</v>
+        <v>0.8941002546755478</v>
       </c>
       <c r="CU6">
-        <v>0.5555168904319682</v>
+        <v>0.8941002546755478</v>
       </c>
       <c r="CV6">
-        <v>0.5555252421908909</v>
+        <v>0.8941002546755478</v>
       </c>
       <c r="CW6">
-        <v>0.5567881911824247</v>
+        <v>0.8941002546755478</v>
       </c>
       <c r="CX6">
-        <v>0.5643625963422149</v>
+        <v>0.8941002546755478</v>
       </c>
       <c r="CY6">
-        <v>0.5752751084818096</v>
+        <v>0.8941002546755478</v>
       </c>
       <c r="CZ6">
-        <v>0.5889503207258827</v>
+        <v>0.8941002546755478</v>
       </c>
       <c r="DA6">
-        <v>0.6018313975530352</v>
+        <v>0.8941002546755478</v>
       </c>
       <c r="DB6">
-        <v>0.6028560247823375</v>
+        <v>0.8941002546755478</v>
       </c>
       <c r="DC6">
-        <v>0.6081766443133513</v>
+        <v>0.8941002546755478</v>
       </c>
       <c r="DD6">
-        <v>0.6168666955759409</v>
+        <v>0.8941002546755478</v>
       </c>
       <c r="DE6">
-        <v>0.6542931402146562</v>
+        <v>1</v>
       </c>
       <c r="DF6">
-        <v>0.684165247903146</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.6852801611531214</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.6862732065961581</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.6863822653615249</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.6885599279969953</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.6913094906798039</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.6988974703861855</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.6989273421327776</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.6989273421327776</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.6997365756577381</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.699826700101279</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.701405084208468</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.7050267332775378</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.7316199262455944</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.7396670016133011</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.7401912467501538</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.7410699292726102</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.7418871108330339</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.7521934713259378</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.758589744656237</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.7650990175023992</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.765261954479201</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.7742897045923551</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.7784055039796016</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.7784055039796016</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.7790210788414188</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.7793259637889314</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.7793342439287884</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.7793941652666034</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.7804951829272925</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.7813083856618569</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.7813083856618569</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.7818961380522036</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.7852554737032323</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.7862422615683774</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.7865595432915622</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.788214558537032</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.7887148477484743</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.7902267887393484</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.793916600832087</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.7983351474872845</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.7994034282090228</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.8004083350026421</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8034109427361219</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8084028986899158</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8140671136391294</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8209081973827832</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8257431880003147</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8283582069486304</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8285520114242569</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8334799488603091</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8468374059669317</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8608927457836374</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8738458563776137</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8836088453481721</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8884729967594917</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.889001823681454</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.889001823681454</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.8910562837536962</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.8944282711914711</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9000287340733543</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9038560244612055</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9045905878628104</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9122581570082233</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9189557955702613</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9250082031253455</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9308694585543696</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9329184094137661</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9348505082449622</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.936395832667627</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9396467425342884</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9453962795129793</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9527768822666413</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9581380503414452</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9623586116195655</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9623699792916274</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9632468930541488</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.963887013938885</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9654907409861121</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9744190129400817</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9820072186284663</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9852650616149643</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9883918436543189</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9909746388311488</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9938208381698274</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9973323864230345</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9977830134548773</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9979280131702973</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9984669889079508</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9998476390630747</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9999832372860887</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10570,16 +10570,16 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="E2">
-        <v>0.06871238502587923</v>
+        <v>0.06029082418430598</v>
       </c>
       <c r="F2">
-        <v>0.5164671576637087</v>
+        <v>0.5767169177054371</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.01214294925640175</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5139046446049088</v>
+        <v>0.5470815686270345</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.007520638626107518</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5084928828763893</v>
+        <v>0.5772789121845481</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>53</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E5">
-        <v>0.07465592507014313</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5031021416637891</v>
+        <v>0.653137568967465</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>53</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="E6">
-        <v>0.05735903319073991</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5153177514023015</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>53</v>
@@ -10829,16 +10829,16 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="E2">
-        <v>0.06871238502587923</v>
+        <v>0.06029082418430598</v>
       </c>
       <c r="F2">
-        <v>0.703321303709604</v>
+        <v>0.7781751195163353</v>
       </c>
       <c r="G2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E3">
-        <v>0.01214294925640175</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7051258758421669</v>
+        <v>0.833106682663833</v>
       </c>
       <c r="G3">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E4">
-        <v>0.007520638626107518</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7052854148531438</v>
+        <v>0.743813456362078</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>53</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.07465592507014313</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7068421108059521</v>
+        <v>0.731986551306368</v>
       </c>
       <c r="G5">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>53</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="E6">
-        <v>0.05735903319073991</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.701405084208468</v>
+        <v>0.700792242162144</v>
       </c>
       <c r="G6">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>53</v>
@@ -11088,16 +11088,16 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="E2">
-        <v>0.06871238502587923</v>
+        <v>0.06029082418430598</v>
       </c>
       <c r="F2">
-        <v>0.8034956269635115</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E3">
-        <v>0.01214294925640175</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8042407975344873</v>
+        <v>0.833106682663833</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E4">
-        <v>0.007520638626107518</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8019614443924586</v>
+        <v>0.8542098935849617</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>53</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <v>0.07465592507014313</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8035014614407092</v>
+        <v>0.8353886374653143</v>
       </c>
       <c r="G5">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>53</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.05735903319073991</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8004083350026421</v>
+        <v>0.8445350402356219</v>
       </c>
       <c r="G6">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>53</v>
@@ -11347,16 +11347,16 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="E2">
-        <v>0.06871238502587923</v>
+        <v>0.06029082418430598</v>
       </c>
       <c r="F2">
-        <v>0.9075461336571012</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E3">
-        <v>0.01214294925640175</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9042462912616066</v>
+        <v>0.981925001618278</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E4">
-        <v>0.007520638626107518</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9007407010303643</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>53</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="E5">
-        <v>0.07465592507014313</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.908581399595194</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="G5">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>53</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="E6">
-        <v>0.05735903319073991</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9000287340733543</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="H6">
         <v>53</v>

--- a/on_trucks/Processed_Stand_Alone/53_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/53_455-55R22.xlsx
@@ -926,52 +926,52 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1884440424976165</v>
+        <v>0.1440398611590843</v>
       </c>
       <c r="E2">
-        <v>0.04237541754547974</v>
+        <v>0.05199922911030028</v>
       </c>
       <c r="F2">
-        <v>0.1018157470216991</v>
+        <v>0.0894537166566292</v>
       </c>
       <c r="G2">
-        <v>0.05483002957552055</v>
+        <v>0.0598471181661668</v>
       </c>
       <c r="H2">
-        <v>0.3544538661865185</v>
+        <v>0.248645823621184</v>
       </c>
       <c r="I2">
-        <v>0.01104699337252889</v>
+        <v>0.0322585903323584</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01885685920642436</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.02287057116300753</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01466962212676363</v>
       </c>
       <c r="N2">
-        <v>0.1288862330083589</v>
+        <v>0.1065113472114205</v>
       </c>
       <c r="O2">
-        <v>0.0974376988420201</v>
+        <v>0.08669502483126477</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.02029742392916514</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.008113602111316816</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.02505845252697574</v>
       </c>
       <c r="S2">
-        <v>0.02070997195025766</v>
+        <v>0.03834741779999184</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.009143360069946082</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.01123502425563635</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.01195695572236423</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1291,49 +1291,49 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>0.02134696277491585</v>
       </c>
       <c r="AV3">
-        <v>0.373080033976325</v>
+        <v>0.2804519054699119</v>
       </c>
       <c r="AW3">
-        <v>0.1321884060880189</v>
+        <v>0.1156099112181266</v>
       </c>
       <c r="AX3">
-        <v>0.022067368218844</v>
+        <v>0.04025415207215931</v>
       </c>
       <c r="AY3">
-        <v>0.1326337223968821</v>
+        <v>0.1159146408970671</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>0.02469577974573342</v>
       </c>
       <c r="BA3">
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>0.001656077765801297</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>0.0045198367140414</v>
       </c>
       <c r="BD3">
-        <v>0.02315529875308925</v>
+        <v>0.04099862227415219</v>
       </c>
       <c r="BE3">
-        <v>0.1314301564342829</v>
+        <v>0.115091041441878</v>
       </c>
       <c r="BF3">
         <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.04318857256461387</v>
+        <v>0.0547073793423512</v>
       </c>
       <c r="BH3">
-        <v>0</v>
+        <v>0.001358848016460848</v>
       </c>
       <c r="BI3">
-        <v>0.1248928831091168</v>
+        <v>0.1106175892869154</v>
       </c>
       <c r="BJ3">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>0.01029874502437804</v>
       </c>
       <c r="BN3">
         <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.01736355845882737</v>
+        <v>0.03703533791817936</v>
       </c>
       <c r="BP3">
-        <v>0</v>
+        <v>0.01357456197392885</v>
       </c>
       <c r="BQ3">
-        <v>0</v>
+        <v>0.01186860806399932</v>
       </c>
       <c r="BR3">
         <v>0</v>
@@ -1527,52 +1527,52 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>0.01045068225372739</v>
       </c>
       <c r="AV4">
-        <v>0.4584104844214785</v>
+        <v>0.3200822302152641</v>
       </c>
       <c r="AW4">
-        <v>0.09025474280541414</v>
+        <v>0.08278433649782441</v>
       </c>
       <c r="AX4">
-        <v>0.09571066127802698</v>
+        <v>0.08630099484508244</v>
       </c>
       <c r="AY4">
-        <v>0.1496085264030713</v>
+        <v>0.1210413191814545</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>0.02070247771078018</v>
       </c>
       <c r="BA4">
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>0.01730881270231605</v>
       </c>
       <c r="BC4">
-        <v>0.0008106995504134785</v>
+        <v>0.02513242272672845</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>0.01595788360828559</v>
       </c>
       <c r="BE4">
-        <v>0.1366877235712838</v>
+        <v>0.1127131065514882</v>
       </c>
       <c r="BF4">
         <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.02613363171541374</v>
+        <v>0.0414545326010077</v>
       </c>
       <c r="BH4">
-        <v>0</v>
+        <v>0.01921706084674068</v>
       </c>
       <c r="BI4">
-        <v>0.02576127529202035</v>
+        <v>0.04121452712236015</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>0.01662274724793712</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="BM4">
-        <v>0</v>
+        <v>0.01180009776807494</v>
       </c>
       <c r="BN4">
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.01662225496287753</v>
+        <v>0.03532389435583907</v>
       </c>
       <c r="BP4">
         <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>0.02189287376508887</v>
       </c>
       <c r="BR4">
         <v>0</v>
@@ -1634,43 +1634,43 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2760031717188374</v>
+        <v>0.2291474675681922</v>
       </c>
       <c r="E5">
-        <v>0.03864677517346711</v>
+        <v>0.05369408031772487</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.02070278735534318</v>
       </c>
       <c r="G5">
-        <v>0.06636374174564268</v>
+        <v>0.07418240816637678</v>
       </c>
       <c r="H5">
-        <v>0.3346412302276662</v>
+        <v>0.2724926065107549</v>
       </c>
       <c r="I5">
-        <v>0.02994567060377209</v>
+        <v>0.04726224072210775</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01364428901580555</v>
+        <v>0.0352122911184769</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1414897955839613</v>
+        <v>0.1297154412277985</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.09926532593084768</v>
+        <v>0.09850319528321855</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.02485129970119806</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.01423618202880842</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1870,19 +1870,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2762225708683844</v>
+        <v>0.2061705526365559</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2810692627648675</v>
+        <v>0.2093457232767264</v>
       </c>
       <c r="G6">
-        <v>0.02235251786097992</v>
+        <v>0.03985489735164415</v>
       </c>
       <c r="H6">
-        <v>0.09723039816519552</v>
+        <v>0.08890898459673401</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1897,25 +1897,25 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1219886062143166</v>
+        <v>0.105128611711436</v>
       </c>
       <c r="N6">
-        <v>0.02859685512265849</v>
+        <v>0.04394569510897464</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01055198716990158</v>
       </c>
       <c r="P6">
-        <v>0.06865260260121669</v>
+        <v>0.07018706470300491</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.0178982615815012</v>
       </c>
       <c r="R6">
-        <v>0.008490928327133678</v>
+        <v>0.03077387609962247</v>
       </c>
       <c r="S6">
-        <v>0.02550121952179364</v>
+        <v>0.04191767858090419</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1924,13 +1924,13 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.02249649838410797</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.06989503855345372</v>
+        <v>0.07100101084237019</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.01120407994504312</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.02260751369024907</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.008007564321224101</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -2355,229 +2355,229 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1884440424976165</v>
+        <v>0.1440398611590843</v>
       </c>
       <c r="E2">
-        <v>0.2308194600430963</v>
+        <v>0.1960390902693846</v>
       </c>
       <c r="F2">
-        <v>0.3326352070647953</v>
+        <v>0.2854928069260138</v>
       </c>
       <c r="G2">
-        <v>0.3874652366403158</v>
+        <v>0.3453399250921805</v>
       </c>
       <c r="H2">
-        <v>0.7419191028268344</v>
+        <v>0.5939857487133645</v>
       </c>
       <c r="I2">
-        <v>0.7529660961993633</v>
+        <v>0.626244339045723</v>
       </c>
       <c r="J2">
-        <v>0.7529660961993633</v>
+        <v>0.626244339045723</v>
       </c>
       <c r="K2">
-        <v>0.7529660961993633</v>
+        <v>0.6451011982521473</v>
       </c>
       <c r="L2">
-        <v>0.7529660961993633</v>
+        <v>0.6679717694151548</v>
       </c>
       <c r="M2">
-        <v>0.7529660961993633</v>
+        <v>0.6826413915419184</v>
       </c>
       <c r="N2">
-        <v>0.8818523292077222</v>
+        <v>0.7891527387533389</v>
       </c>
       <c r="O2">
-        <v>0.9792900280497423</v>
+        <v>0.8758477635846037</v>
       </c>
       <c r="P2">
-        <v>0.9792900280497423</v>
+        <v>0.8961451875137688</v>
       </c>
       <c r="Q2">
-        <v>0.9792900280497423</v>
+        <v>0.9042587896250857</v>
       </c>
       <c r="R2">
-        <v>0.9792900280497423</v>
+        <v>0.9293172421520614</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.9676646599520532</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.9676646599520532</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.9676646599520532</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.9676646599520532</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.9676646599520532</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9768080200219993</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.9768080200219993</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9768080200219993</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9768080200219993</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9880430442776357</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9880430442776357</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9880430442776357</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9880430442776357</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:78">
@@ -2720,70 +2720,70 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>0.02134696277491585</v>
       </c>
       <c r="AV3">
-        <v>0.373080033976325</v>
+        <v>0.3017988682448278</v>
       </c>
       <c r="AW3">
-        <v>0.5052684400643439</v>
+        <v>0.4174087794629544</v>
       </c>
       <c r="AX3">
-        <v>0.5273358082831879</v>
+        <v>0.4576629315351137</v>
       </c>
       <c r="AY3">
-        <v>0.65996953068007</v>
+        <v>0.5735775724321808</v>
       </c>
       <c r="AZ3">
-        <v>0.65996953068007</v>
+        <v>0.5982733521779142</v>
       </c>
       <c r="BA3">
-        <v>0.65996953068007</v>
+        <v>0.5982733521779142</v>
       </c>
       <c r="BB3">
-        <v>0.65996953068007</v>
+        <v>0.5999294299437156</v>
       </c>
       <c r="BC3">
-        <v>0.65996953068007</v>
+        <v>0.604449266657757</v>
       </c>
       <c r="BD3">
-        <v>0.6831248294331593</v>
+        <v>0.6454478889319092</v>
       </c>
       <c r="BE3">
-        <v>0.8145549858674421</v>
+        <v>0.7605389303737872</v>
       </c>
       <c r="BF3">
-        <v>0.8145549858674421</v>
+        <v>0.7605389303737872</v>
       </c>
       <c r="BG3">
-        <v>0.857743558432056</v>
+        <v>0.8152463097161383</v>
       </c>
       <c r="BH3">
-        <v>0.857743558432056</v>
+        <v>0.8166051577325991</v>
       </c>
       <c r="BI3">
-        <v>0.9826364415411728</v>
+        <v>0.9272227470195146</v>
       </c>
       <c r="BJ3">
-        <v>0.9826364415411728</v>
+        <v>0.9272227470195146</v>
       </c>
       <c r="BK3">
-        <v>0.9826364415411728</v>
+        <v>0.9272227470195146</v>
       </c>
       <c r="BL3">
-        <v>0.9826364415411728</v>
+        <v>0.9272227470195146</v>
       </c>
       <c r="BM3">
-        <v>0.9826364415411728</v>
+        <v>0.9375214920438926</v>
       </c>
       <c r="BN3">
-        <v>0.9826364415411728</v>
+        <v>0.9375214920438926</v>
       </c>
       <c r="BO3">
-        <v>1</v>
+        <v>0.9745568299620719</v>
       </c>
       <c r="BP3">
-        <v>1</v>
+        <v>0.9881313919360007</v>
       </c>
       <c r="BQ3">
         <v>1</v>
@@ -2956,100 +2956,100 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>0.01045068225372739</v>
       </c>
       <c r="AV4">
-        <v>0.4584104844214785</v>
+        <v>0.3305329124689915</v>
       </c>
       <c r="AW4">
-        <v>0.5486652272268926</v>
+        <v>0.4133172489668159</v>
       </c>
       <c r="AX4">
-        <v>0.6443758885049196</v>
+        <v>0.4996182438118983</v>
       </c>
       <c r="AY4">
-        <v>0.7939844149079909</v>
+        <v>0.6206595629933529</v>
       </c>
       <c r="AZ4">
-        <v>0.7939844149079909</v>
+        <v>0.6413620407041331</v>
       </c>
       <c r="BA4">
-        <v>0.7939844149079909</v>
+        <v>0.6413620407041331</v>
       </c>
       <c r="BB4">
-        <v>0.7939844149079909</v>
+        <v>0.6586708534064492</v>
       </c>
       <c r="BC4">
-        <v>0.7947951144584043</v>
+        <v>0.6838032761331776</v>
       </c>
       <c r="BD4">
-        <v>0.7947951144584043</v>
+        <v>0.6997611597414631</v>
       </c>
       <c r="BE4">
-        <v>0.9314828380296881</v>
+        <v>0.8124742662929514</v>
       </c>
       <c r="BF4">
-        <v>0.9314828380296881</v>
+        <v>0.8124742662929514</v>
       </c>
       <c r="BG4">
-        <v>0.9576164697451018</v>
+        <v>0.8539287988939591</v>
       </c>
       <c r="BH4">
-        <v>0.9576164697451018</v>
+        <v>0.8731458597406998</v>
       </c>
       <c r="BI4">
-        <v>0.9833777450371222</v>
+        <v>0.91436038686306</v>
       </c>
       <c r="BJ4">
-        <v>0.9833777450371222</v>
+        <v>0.9309831341109971</v>
       </c>
       <c r="BK4">
-        <v>0.9833777450371222</v>
+        <v>0.9309831341109971</v>
       </c>
       <c r="BL4">
-        <v>0.9833777450371222</v>
+        <v>0.9309831341109971</v>
       </c>
       <c r="BM4">
-        <v>0.9833777450371222</v>
+        <v>0.942783231879072</v>
       </c>
       <c r="BN4">
-        <v>0.9833777450371222</v>
+        <v>0.942783231879072</v>
       </c>
       <c r="BO4">
-        <v>0.9999999999999997</v>
+        <v>0.978107126234911</v>
       </c>
       <c r="BP4">
-        <v>0.9999999999999997</v>
+        <v>0.978107126234911</v>
       </c>
       <c r="BQ4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:78">
@@ -3063,49 +3063,49 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2760031717188374</v>
+        <v>0.2291474675681922</v>
       </c>
       <c r="E5">
-        <v>0.3146499468923045</v>
+        <v>0.282841547885917</v>
       </c>
       <c r="F5">
-        <v>0.3146499468923045</v>
+        <v>0.3035443352412602</v>
       </c>
       <c r="G5">
-        <v>0.3810136886379472</v>
+        <v>0.377726743407637</v>
       </c>
       <c r="H5">
-        <v>0.7156549188656134</v>
+        <v>0.6502193499183919</v>
       </c>
       <c r="I5">
-        <v>0.7456005894693855</v>
+        <v>0.6974815906404996</v>
       </c>
       <c r="J5">
-        <v>0.7456005894693855</v>
+        <v>0.6974815906404996</v>
       </c>
       <c r="K5">
-        <v>0.759244878485191</v>
+        <v>0.7326938817589765</v>
       </c>
       <c r="L5">
-        <v>0.759244878485191</v>
+        <v>0.7326938817589765</v>
       </c>
       <c r="M5">
-        <v>0.9007346740691523</v>
+        <v>0.8624093229867751</v>
       </c>
       <c r="N5">
-        <v>0.9007346740691523</v>
+        <v>0.8624093229867751</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9609125182699936</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9857638179711916</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0.9857638179711916</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.9857638179711916</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -3299,94 +3299,94 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2762225708683844</v>
+        <v>0.2061705526365559</v>
       </c>
       <c r="E6">
-        <v>0.2762225708683844</v>
+        <v>0.2061705526365559</v>
       </c>
       <c r="F6">
-        <v>0.557291833633252</v>
+        <v>0.4155162759132823</v>
       </c>
       <c r="G6">
-        <v>0.5796443514942319</v>
+        <v>0.4553711732649265</v>
       </c>
       <c r="H6">
-        <v>0.6768747496594274</v>
+        <v>0.5442801578616605</v>
       </c>
       <c r="I6">
-        <v>0.6768747496594274</v>
+        <v>0.5442801578616605</v>
       </c>
       <c r="J6">
-        <v>0.6768747496594274</v>
+        <v>0.5442801578616605</v>
       </c>
       <c r="K6">
-        <v>0.6768747496594274</v>
+        <v>0.5442801578616605</v>
       </c>
       <c r="L6">
-        <v>0.6768747496594274</v>
+        <v>0.5442801578616605</v>
       </c>
       <c r="M6">
-        <v>0.7988633558737439</v>
+        <v>0.6494087695730966</v>
       </c>
       <c r="N6">
-        <v>0.8274602109964024</v>
+        <v>0.6933544646820712</v>
       </c>
       <c r="O6">
-        <v>0.8274602109964024</v>
+        <v>0.7039064518519728</v>
       </c>
       <c r="P6">
-        <v>0.8961128135976191</v>
+        <v>0.7740935165549777</v>
       </c>
       <c r="Q6">
-        <v>0.8961128135976191</v>
+        <v>0.7919917781364789</v>
       </c>
       <c r="R6">
-        <v>0.9046037419247528</v>
+        <v>0.8227656542361014</v>
       </c>
       <c r="S6">
-        <v>0.9301049614465464</v>
+        <v>0.8646833328170056</v>
       </c>
       <c r="T6">
-        <v>0.9301049614465464</v>
+        <v>0.8646833328170056</v>
       </c>
       <c r="U6">
-        <v>0.9301049614465464</v>
+        <v>0.8646833328170056</v>
       </c>
       <c r="V6">
-        <v>0.9301049614465464</v>
+        <v>0.8871798312011135</v>
       </c>
       <c r="W6">
-        <v>0.9301049614465464</v>
+        <v>0.8871798312011135</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.9581808420434837</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.9581808420434837</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9581808420434837</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9581808420434837</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9581808420434837</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9693849219885269</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9919924356787759</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9919924356787759</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9919924356787759</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9919924356787759</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7419191028268344</v>
+        <v>0.5939857487133645</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -3630,16 +3630,16 @@
         <v>45</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5052684400643439</v>
+        <v>0.5735775724321808</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -3671,16 +3671,16 @@
         <v>45</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5486652272268926</v>
+        <v>0.6206595629933529</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>53</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7156549188656134</v>
+        <v>0.6502193499183919</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -3753,16 +3753,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.557291833633252</v>
+        <v>0.5442801578616605</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>53</v>
@@ -3848,16 +3848,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7419191028268344</v>
+        <v>0.7891527387533389</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8145549858674421</v>
+        <v>0.7605389303737872</v>
       </c>
       <c r="G3">
         <v>11</v>
@@ -3930,16 +3930,16 @@
         <v>45</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7939844149079909</v>
+        <v>0.8124742662929514</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>53</v>
@@ -3971,16 +3971,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7156549188656134</v>
+        <v>0.7326938817589765</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>53</v>
@@ -4012,16 +4012,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7988633558737439</v>
+        <v>0.7039064518519728</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>53</v>
@@ -4107,16 +4107,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8758477635846037</v>
+      </c>
+      <c r="G2">
         <v>13</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8818523292077222</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -4148,16 +4148,16 @@
         <v>45</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8145549858674421</v>
+        <v>0.8152463097161383</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>53</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9314828380296881</v>
+        <v>0.8124742662929514</v>
       </c>
       <c r="G4">
         <v>11</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9007346740691523</v>
+        <v>0.8624093229867751</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -4271,16 +4271,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8274602109964024</v>
+        <v>0.8227656542361014</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>53</v>
@@ -4366,16 +4366,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9792900280497423</v>
+        <v>0.9042587896250857</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>53</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9826364415411728</v>
+        <v>0.9272227470195146</v>
       </c>
       <c r="G3">
         <v>15</v>
@@ -4448,16 +4448,16 @@
         <v>45</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9314828380296881</v>
+        <v>0.91436038686306</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>53</v>
@@ -4489,16 +4489,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9007346740691523</v>
+        <v>0.9609125182699936</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>53</v>
@@ -4530,16 +4530,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9046037419247528</v>
+        <v>0.9581808420434837</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>53</v>
